--- a/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ8100_消費税率マスタメンテナンス）.xlsx
+++ b/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ8100_消費税率マスタメンテナンス）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\youkei\Documents\50.単体テスト\01_単体テスト設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B21A98A-F00E-4B27-B2B0-D787229610F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B9A521-6BC9-4362-B132-50AFADBE2082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="880" xr2:uid="{8AE4BD12-0B13-430A-A994-A2059EDE9970}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="880" activeTab="1" xr2:uid="{8AE4BD12-0B13-430A-A994-A2059EDE9970}"/>
   </bookViews>
   <sheets>
     <sheet name="実施結果報告書" sheetId="17" r:id="rId1"/>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="158">
   <si>
     <t>新規登録</t>
     <rPh sb="0" eb="4">
@@ -1213,23 +1213,6 @@
     <rPh sb="23" eb="25">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ネットが切れている場合、エラーメッセージ※が表示されること</t>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※？？？？</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1483,6 +1466,16 @@
   <si>
     <t>消費税率一覧</t>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ネットが切れている場合、現行システムと一致すること</t>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2449,15 +2442,51 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="46" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2476,42 +2505,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2524,68 +2517,104 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="33" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="34" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="45" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="45" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="34" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="37" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="33" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="45" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="21" fillId="5" borderId="44" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="45" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="41" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2599,30 +2628,6 @@
     <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="41" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2650,25 +2655,13 @@
     <xf numFmtId="177" fontId="21" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="42" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="43" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3659,7 +3652,7 @@
   </sheetPr>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
@@ -3675,25 +3668,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="61"/>
+      <c r="F1" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="51" t="s">
         <v>152</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="47" t="s">
-        <v>154</v>
       </c>
       <c r="L1" t="s">
         <v>61</v>
@@ -3703,16 +3696,16 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="47"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="51"/>
       <c r="L2" t="s">
         <v>62</v>
       </c>
@@ -3721,118 +3714,118 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="48" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="52" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53" t="s">
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="56"/>
+      <c r="J3" s="52"/>
       <c r="L3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="57"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="53"/>
       <c r="L4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="63"/>
+      <c r="J6" s="48"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A7" s="59"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="50"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1">
       <c r="A10" s="1"/>
@@ -3843,8 +3836,8 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1">
       <c r="A11" s="1"/>
@@ -3855,8 +3848,8 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1">
       <c r="A12" s="1"/>
@@ -3867,8 +3860,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1">
       <c r="A13" s="1"/>
@@ -3879,8 +3872,8 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1">
       <c r="A14" s="1"/>
@@ -3891,8 +3884,8 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1">
       <c r="A15" s="1"/>
@@ -3903,8 +3896,8 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1">
       <c r="A16" s="1"/>
@@ -3915,8 +3908,8 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1">
       <c r="A17" s="1"/>
@@ -3927,8 +3920,8 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1">
       <c r="A18" s="1"/>
@@ -3939,8 +3932,8 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1">
       <c r="A19" s="1"/>
@@ -3951,8 +3944,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1">
       <c r="A20" s="1"/>
@@ -3963,28 +3956,14 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1"/>
     <row r="22" spans="1:10" ht="18" customHeight="1"/>
     <row r="23" spans="1:10" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="I11:J11"/>
@@ -4001,6 +3980,20 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="G6:G7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
@@ -4013,7 +4006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A698B6-0D8F-4E36-894C-FED9BE534031}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
@@ -4278,10 +4271,10 @@
         <v>34</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="24"/>
@@ -4474,15 +4467,15 @@
         <v>41</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="11.25" customHeight="1"/>
@@ -4560,109 +4553,109 @@
       </c>
     </row>
     <row r="3" spans="2:76" ht="15" customHeight="1">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="70" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="88" t="s">
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="88" t="s">
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="74" t="s">
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="74"/>
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="89" t="s">
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="84"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="89" t="s">
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="84"/>
-      <c r="AO3" s="84"/>
-      <c r="AP3" s="85"/>
-      <c r="AQ3" s="89" t="s">
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="84"/>
-      <c r="AT3" s="84"/>
-      <c r="AU3" s="85"/>
-      <c r="AV3" s="84" t="s">
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="72"/>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="AW3" s="84"/>
-      <c r="AX3" s="84"/>
-      <c r="AY3" s="84"/>
-      <c r="AZ3" s="85"/>
-      <c r="BA3" s="73" t="s">
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="72"/>
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="BB3" s="74"/>
-      <c r="BC3" s="74"/>
-      <c r="BD3" s="74"/>
-      <c r="BE3" s="75"/>
-      <c r="BF3" s="86" t="s">
+      <c r="BB3" s="87"/>
+      <c r="BC3" s="87"/>
+      <c r="BD3" s="87"/>
+      <c r="BE3" s="88"/>
+      <c r="BF3" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="BG3" s="87"/>
-      <c r="BH3" s="87"/>
-      <c r="BI3" s="84" t="s">
+      <c r="BG3" s="90"/>
+      <c r="BH3" s="90"/>
+      <c r="BI3" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="BJ3" s="84"/>
-      <c r="BK3" s="84"/>
-      <c r="BL3" s="84"/>
-      <c r="BM3" s="85"/>
-      <c r="BN3" s="71" t="s">
+      <c r="BJ3" s="72"/>
+      <c r="BK3" s="72"/>
+      <c r="BL3" s="72"/>
+      <c r="BM3" s="73"/>
+      <c r="BN3" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="71"/>
-      <c r="BR3" s="71"/>
-      <c r="BS3" s="71"/>
-      <c r="BT3" s="71"/>
-      <c r="BU3" s="71"/>
-      <c r="BV3" s="71"/>
-      <c r="BW3" s="71"/>
-      <c r="BX3" s="72"/>
+      <c r="BO3" s="74"/>
+      <c r="BP3" s="74"/>
+      <c r="BQ3" s="74"/>
+      <c r="BR3" s="74"/>
+      <c r="BS3" s="74"/>
+      <c r="BT3" s="74"/>
+      <c r="BU3" s="74"/>
+      <c r="BV3" s="74"/>
+      <c r="BW3" s="74"/>
+      <c r="BX3" s="75"/>
     </row>
     <row r="4" spans="2:76" ht="16.5">
       <c r="B4" s="76">
@@ -4680,404 +4673,404 @@
       <c r="J4" s="80"/>
       <c r="K4" s="80"/>
       <c r="L4" s="80"/>
-      <c r="M4" s="90"/>
+      <c r="M4" s="81"/>
       <c r="N4" s="82"/>
       <c r="O4" s="82"/>
       <c r="P4" s="82"/>
       <c r="Q4" s="83"/>
-      <c r="R4" s="81"/>
+      <c r="R4" s="84"/>
       <c r="S4" s="82"/>
       <c r="T4" s="82"/>
       <c r="U4" s="82"/>
       <c r="V4" s="83"/>
-      <c r="W4" s="81"/>
+      <c r="W4" s="84"/>
       <c r="X4" s="82"/>
       <c r="Y4" s="82"/>
       <c r="Z4" s="82"/>
       <c r="AA4" s="83"/>
-      <c r="AB4" s="81"/>
+      <c r="AB4" s="84"/>
       <c r="AC4" s="82"/>
       <c r="AD4" s="82"/>
       <c r="AE4" s="82"/>
       <c r="AF4" s="83"/>
-      <c r="AG4" s="81"/>
+      <c r="AG4" s="84"/>
       <c r="AH4" s="82"/>
       <c r="AI4" s="82"/>
       <c r="AJ4" s="82"/>
       <c r="AK4" s="83"/>
-      <c r="AL4" s="81"/>
+      <c r="AL4" s="84"/>
       <c r="AM4" s="82"/>
       <c r="AN4" s="82"/>
       <c r="AO4" s="82"/>
       <c r="AP4" s="83"/>
-      <c r="AQ4" s="81"/>
+      <c r="AQ4" s="84"/>
       <c r="AR4" s="82"/>
       <c r="AS4" s="82"/>
       <c r="AT4" s="82"/>
       <c r="AU4" s="83"/>
-      <c r="AV4" s="81"/>
+      <c r="AV4" s="84"/>
       <c r="AW4" s="82"/>
       <c r="AX4" s="82"/>
       <c r="AY4" s="82"/>
       <c r="AZ4" s="83"/>
-      <c r="BA4" s="81"/>
+      <c r="BA4" s="84"/>
       <c r="BB4" s="82"/>
       <c r="BC4" s="82"/>
       <c r="BD4" s="82"/>
       <c r="BE4" s="83"/>
-      <c r="BF4" s="117" t="s">
+      <c r="BF4" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="BG4" s="118"/>
-      <c r="BH4" s="118"/>
-      <c r="BI4" s="81"/>
+      <c r="BG4" s="98"/>
+      <c r="BH4" s="98"/>
+      <c r="BI4" s="84"/>
       <c r="BJ4" s="82"/>
       <c r="BK4" s="82"/>
       <c r="BL4" s="82"/>
       <c r="BM4" s="83"/>
-      <c r="BN4" s="115"/>
-      <c r="BO4" s="115"/>
-      <c r="BP4" s="115"/>
-      <c r="BQ4" s="115"/>
-      <c r="BR4" s="115"/>
-      <c r="BS4" s="115"/>
-      <c r="BT4" s="115"/>
-      <c r="BU4" s="115"/>
-      <c r="BV4" s="115"/>
-      <c r="BW4" s="115"/>
-      <c r="BX4" s="116"/>
+      <c r="BN4" s="70"/>
+      <c r="BO4" s="70"/>
+      <c r="BP4" s="70"/>
+      <c r="BQ4" s="70"/>
+      <c r="BR4" s="70"/>
+      <c r="BS4" s="70"/>
+      <c r="BT4" s="70"/>
+      <c r="BU4" s="70"/>
+      <c r="BV4" s="70"/>
+      <c r="BW4" s="70"/>
+      <c r="BX4" s="71"/>
     </row>
     <row r="5" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B5" s="91">
+      <c r="B5" s="103">
         <v>2</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="94" t="s">
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="98"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="95"/>
       <c r="R5" s="96"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="98"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="95"/>
       <c r="W5" s="96"/>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="97"/>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="98"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="95"/>
       <c r="AB5" s="96"/>
-      <c r="AC5" s="97"/>
-      <c r="AD5" s="97"/>
-      <c r="AE5" s="97"/>
-      <c r="AF5" s="98"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="95"/>
       <c r="AG5" s="96"/>
-      <c r="AH5" s="97"/>
-      <c r="AI5" s="97"/>
-      <c r="AJ5" s="97"/>
-      <c r="AK5" s="98"/>
+      <c r="AH5" s="94"/>
+      <c r="AI5" s="94"/>
+      <c r="AJ5" s="94"/>
+      <c r="AK5" s="95"/>
       <c r="AL5" s="96"/>
-      <c r="AM5" s="97"/>
-      <c r="AN5" s="97"/>
-      <c r="AO5" s="97"/>
-      <c r="AP5" s="98"/>
+      <c r="AM5" s="94"/>
+      <c r="AN5" s="94"/>
+      <c r="AO5" s="94"/>
+      <c r="AP5" s="95"/>
       <c r="AQ5" s="96"/>
-      <c r="AR5" s="97"/>
-      <c r="AS5" s="97"/>
-      <c r="AT5" s="97"/>
-      <c r="AU5" s="98"/>
+      <c r="AR5" s="94"/>
+      <c r="AS5" s="94"/>
+      <c r="AT5" s="94"/>
+      <c r="AU5" s="95"/>
       <c r="AV5" s="96"/>
-      <c r="AW5" s="97"/>
-      <c r="AX5" s="97"/>
-      <c r="AY5" s="97"/>
-      <c r="AZ5" s="98"/>
+      <c r="AW5" s="94"/>
+      <c r="AX5" s="94"/>
+      <c r="AY5" s="94"/>
+      <c r="AZ5" s="95"/>
       <c r="BA5" s="96"/>
-      <c r="BB5" s="97"/>
-      <c r="BC5" s="97"/>
-      <c r="BD5" s="97"/>
-      <c r="BE5" s="98"/>
-      <c r="BF5" s="101" t="s">
+      <c r="BB5" s="94"/>
+      <c r="BC5" s="94"/>
+      <c r="BD5" s="94"/>
+      <c r="BE5" s="95"/>
+      <c r="BF5" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="BG5" s="102"/>
-      <c r="BH5" s="102"/>
+      <c r="BG5" s="100"/>
+      <c r="BH5" s="100"/>
       <c r="BI5" s="96"/>
-      <c r="BJ5" s="97"/>
-      <c r="BK5" s="97"/>
-      <c r="BL5" s="97"/>
-      <c r="BM5" s="98"/>
-      <c r="BN5" s="95"/>
-      <c r="BO5" s="95"/>
-      <c r="BP5" s="95"/>
-      <c r="BQ5" s="95"/>
-      <c r="BR5" s="95"/>
-      <c r="BS5" s="95"/>
-      <c r="BT5" s="95"/>
-      <c r="BU5" s="95"/>
-      <c r="BV5" s="95"/>
-      <c r="BW5" s="95"/>
-      <c r="BX5" s="100"/>
+      <c r="BJ5" s="94"/>
+      <c r="BK5" s="94"/>
+      <c r="BL5" s="94"/>
+      <c r="BM5" s="95"/>
+      <c r="BN5" s="101"/>
+      <c r="BO5" s="101"/>
+      <c r="BP5" s="101"/>
+      <c r="BQ5" s="101"/>
+      <c r="BR5" s="101"/>
+      <c r="BS5" s="101"/>
+      <c r="BT5" s="101"/>
+      <c r="BU5" s="101"/>
+      <c r="BV5" s="101"/>
+      <c r="BW5" s="101"/>
+      <c r="BX5" s="102"/>
     </row>
     <row r="6" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B6" s="91">
+      <c r="B6" s="103">
         <v>3</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="94" t="s">
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="98"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="95"/>
       <c r="R6" s="96"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="98"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="95"/>
       <c r="W6" s="96"/>
-      <c r="X6" s="97"/>
-      <c r="Y6" s="97"/>
-      <c r="Z6" s="97"/>
-      <c r="AA6" s="98"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="95"/>
       <c r="AB6" s="96"/>
-      <c r="AC6" s="97"/>
-      <c r="AD6" s="97"/>
-      <c r="AE6" s="97"/>
-      <c r="AF6" s="98"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="94"/>
+      <c r="AF6" s="95"/>
       <c r="AG6" s="96"/>
-      <c r="AH6" s="97"/>
-      <c r="AI6" s="97"/>
-      <c r="AJ6" s="97"/>
-      <c r="AK6" s="98"/>
+      <c r="AH6" s="94"/>
+      <c r="AI6" s="94"/>
+      <c r="AJ6" s="94"/>
+      <c r="AK6" s="95"/>
       <c r="AL6" s="96"/>
-      <c r="AM6" s="97"/>
-      <c r="AN6" s="97"/>
-      <c r="AO6" s="97"/>
-      <c r="AP6" s="98"/>
+      <c r="AM6" s="94"/>
+      <c r="AN6" s="94"/>
+      <c r="AO6" s="94"/>
+      <c r="AP6" s="95"/>
       <c r="AQ6" s="96"/>
-      <c r="AR6" s="97"/>
-      <c r="AS6" s="97"/>
-      <c r="AT6" s="97"/>
-      <c r="AU6" s="98"/>
+      <c r="AR6" s="94"/>
+      <c r="AS6" s="94"/>
+      <c r="AT6" s="94"/>
+      <c r="AU6" s="95"/>
       <c r="AV6" s="96"/>
-      <c r="AW6" s="97"/>
-      <c r="AX6" s="97"/>
-      <c r="AY6" s="97"/>
-      <c r="AZ6" s="98"/>
+      <c r="AW6" s="94"/>
+      <c r="AX6" s="94"/>
+      <c r="AY6" s="94"/>
+      <c r="AZ6" s="95"/>
       <c r="BA6" s="96"/>
-      <c r="BB6" s="97"/>
-      <c r="BC6" s="97"/>
-      <c r="BD6" s="97"/>
-      <c r="BE6" s="98"/>
-      <c r="BF6" s="101" t="s">
+      <c r="BB6" s="94"/>
+      <c r="BC6" s="94"/>
+      <c r="BD6" s="94"/>
+      <c r="BE6" s="95"/>
+      <c r="BF6" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="BG6" s="102"/>
-      <c r="BH6" s="102"/>
+      <c r="BG6" s="100"/>
+      <c r="BH6" s="100"/>
       <c r="BI6" s="96"/>
-      <c r="BJ6" s="97"/>
-      <c r="BK6" s="97"/>
-      <c r="BL6" s="97"/>
-      <c r="BM6" s="98"/>
-      <c r="BN6" s="95"/>
-      <c r="BO6" s="95"/>
-      <c r="BP6" s="95"/>
-      <c r="BQ6" s="95"/>
-      <c r="BR6" s="95"/>
-      <c r="BS6" s="95"/>
-      <c r="BT6" s="95"/>
-      <c r="BU6" s="95"/>
-      <c r="BV6" s="95"/>
-      <c r="BW6" s="95"/>
-      <c r="BX6" s="100"/>
+      <c r="BJ6" s="94"/>
+      <c r="BK6" s="94"/>
+      <c r="BL6" s="94"/>
+      <c r="BM6" s="95"/>
+      <c r="BN6" s="101"/>
+      <c r="BO6" s="101"/>
+      <c r="BP6" s="101"/>
+      <c r="BQ6" s="101"/>
+      <c r="BR6" s="101"/>
+      <c r="BS6" s="101"/>
+      <c r="BT6" s="101"/>
+      <c r="BU6" s="101"/>
+      <c r="BV6" s="101"/>
+      <c r="BW6" s="101"/>
+      <c r="BX6" s="102"/>
     </row>
     <row r="7" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B7" s="91">
+      <c r="B7" s="103">
         <v>4</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="94" t="s">
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="98"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="95"/>
       <c r="R7" s="96"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="97"/>
-      <c r="V7" s="98"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="96"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="97"/>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="98"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="95"/>
       <c r="AB7" s="96"/>
-      <c r="AC7" s="97"/>
-      <c r="AD7" s="97"/>
-      <c r="AE7" s="97"/>
-      <c r="AF7" s="98"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="94"/>
+      <c r="AE7" s="94"/>
+      <c r="AF7" s="95"/>
       <c r="AG7" s="96"/>
-      <c r="AH7" s="97"/>
-      <c r="AI7" s="97"/>
-      <c r="AJ7" s="97"/>
-      <c r="AK7" s="98"/>
+      <c r="AH7" s="94"/>
+      <c r="AI7" s="94"/>
+      <c r="AJ7" s="94"/>
+      <c r="AK7" s="95"/>
       <c r="AL7" s="96"/>
-      <c r="AM7" s="97"/>
-      <c r="AN7" s="97"/>
-      <c r="AO7" s="97"/>
-      <c r="AP7" s="98"/>
+      <c r="AM7" s="94"/>
+      <c r="AN7" s="94"/>
+      <c r="AO7" s="94"/>
+      <c r="AP7" s="95"/>
       <c r="AQ7" s="96"/>
-      <c r="AR7" s="97"/>
-      <c r="AS7" s="97"/>
-      <c r="AT7" s="97"/>
-      <c r="AU7" s="98"/>
+      <c r="AR7" s="94"/>
+      <c r="AS7" s="94"/>
+      <c r="AT7" s="94"/>
+      <c r="AU7" s="95"/>
       <c r="AV7" s="96"/>
-      <c r="AW7" s="97"/>
-      <c r="AX7" s="97"/>
-      <c r="AY7" s="97"/>
-      <c r="AZ7" s="98"/>
+      <c r="AW7" s="94"/>
+      <c r="AX7" s="94"/>
+      <c r="AY7" s="94"/>
+      <c r="AZ7" s="95"/>
       <c r="BA7" s="96"/>
-      <c r="BB7" s="97"/>
-      <c r="BC7" s="97"/>
-      <c r="BD7" s="97"/>
-      <c r="BE7" s="98"/>
-      <c r="BF7" s="101" t="s">
+      <c r="BB7" s="94"/>
+      <c r="BC7" s="94"/>
+      <c r="BD7" s="94"/>
+      <c r="BE7" s="95"/>
+      <c r="BF7" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="BG7" s="102"/>
-      <c r="BH7" s="102"/>
+      <c r="BG7" s="100"/>
+      <c r="BH7" s="100"/>
       <c r="BI7" s="96"/>
-      <c r="BJ7" s="97"/>
-      <c r="BK7" s="97"/>
-      <c r="BL7" s="97"/>
-      <c r="BM7" s="98"/>
-      <c r="BN7" s="95"/>
-      <c r="BO7" s="95"/>
-      <c r="BP7" s="95"/>
-      <c r="BQ7" s="95"/>
-      <c r="BR7" s="95"/>
-      <c r="BS7" s="95"/>
-      <c r="BT7" s="95"/>
-      <c r="BU7" s="95"/>
-      <c r="BV7" s="95"/>
-      <c r="BW7" s="95"/>
-      <c r="BX7" s="100"/>
+      <c r="BJ7" s="94"/>
+      <c r="BK7" s="94"/>
+      <c r="BL7" s="94"/>
+      <c r="BM7" s="95"/>
+      <c r="BN7" s="101"/>
+      <c r="BO7" s="101"/>
+      <c r="BP7" s="101"/>
+      <c r="BQ7" s="101"/>
+      <c r="BR7" s="101"/>
+      <c r="BS7" s="101"/>
+      <c r="BT7" s="101"/>
+      <c r="BU7" s="101"/>
+      <c r="BV7" s="101"/>
+      <c r="BW7" s="101"/>
+      <c r="BX7" s="102"/>
     </row>
     <row r="8" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B8" s="103">
+      <c r="B8" s="107">
         <v>5</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="106" t="s">
+      <c r="C8" s="108"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="109"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="111"/>
-      <c r="X8" s="109"/>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="109"/>
-      <c r="AA8" s="110"/>
-      <c r="AB8" s="111"/>
-      <c r="AC8" s="109"/>
-      <c r="AD8" s="109"/>
-      <c r="AE8" s="109"/>
-      <c r="AF8" s="110"/>
-      <c r="AG8" s="111"/>
-      <c r="AH8" s="109"/>
-      <c r="AI8" s="109"/>
-      <c r="AJ8" s="109"/>
-      <c r="AK8" s="110"/>
-      <c r="AL8" s="111"/>
-      <c r="AM8" s="109"/>
-      <c r="AN8" s="109"/>
-      <c r="AO8" s="109"/>
-      <c r="AP8" s="110"/>
-      <c r="AQ8" s="111"/>
-      <c r="AR8" s="109"/>
-      <c r="AS8" s="109"/>
-      <c r="AT8" s="109"/>
-      <c r="AU8" s="110"/>
-      <c r="AV8" s="111"/>
-      <c r="AW8" s="109"/>
-      <c r="AX8" s="109"/>
-      <c r="AY8" s="109"/>
-      <c r="AZ8" s="110"/>
-      <c r="BA8" s="108"/>
-      <c r="BB8" s="109"/>
-      <c r="BC8" s="109"/>
-      <c r="BD8" s="109"/>
-      <c r="BE8" s="110"/>
-      <c r="BF8" s="112" t="s">
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="113"/>
+      <c r="Y8" s="113"/>
+      <c r="Z8" s="113"/>
+      <c r="AA8" s="114"/>
+      <c r="AB8" s="115"/>
+      <c r="AC8" s="113"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="113"/>
+      <c r="AF8" s="114"/>
+      <c r="AG8" s="115"/>
+      <c r="AH8" s="113"/>
+      <c r="AI8" s="113"/>
+      <c r="AJ8" s="113"/>
+      <c r="AK8" s="114"/>
+      <c r="AL8" s="115"/>
+      <c r="AM8" s="113"/>
+      <c r="AN8" s="113"/>
+      <c r="AO8" s="113"/>
+      <c r="AP8" s="114"/>
+      <c r="AQ8" s="115"/>
+      <c r="AR8" s="113"/>
+      <c r="AS8" s="113"/>
+      <c r="AT8" s="113"/>
+      <c r="AU8" s="114"/>
+      <c r="AV8" s="115"/>
+      <c r="AW8" s="113"/>
+      <c r="AX8" s="113"/>
+      <c r="AY8" s="113"/>
+      <c r="AZ8" s="114"/>
+      <c r="BA8" s="112"/>
+      <c r="BB8" s="113"/>
+      <c r="BC8" s="113"/>
+      <c r="BD8" s="113"/>
+      <c r="BE8" s="114"/>
+      <c r="BF8" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="BG8" s="113"/>
-      <c r="BH8" s="113"/>
-      <c r="BI8" s="111"/>
-      <c r="BJ8" s="109"/>
-      <c r="BK8" s="109"/>
-      <c r="BL8" s="109"/>
-      <c r="BM8" s="110"/>
-      <c r="BN8" s="107"/>
-      <c r="BO8" s="107"/>
-      <c r="BP8" s="107"/>
-      <c r="BQ8" s="107"/>
-      <c r="BR8" s="107"/>
-      <c r="BS8" s="107"/>
-      <c r="BT8" s="107"/>
-      <c r="BU8" s="107"/>
-      <c r="BV8" s="107"/>
-      <c r="BW8" s="107"/>
-      <c r="BX8" s="114"/>
+      <c r="BG8" s="118"/>
+      <c r="BH8" s="118"/>
+      <c r="BI8" s="115"/>
+      <c r="BJ8" s="113"/>
+      <c r="BK8" s="113"/>
+      <c r="BL8" s="113"/>
+      <c r="BM8" s="114"/>
+      <c r="BN8" s="111"/>
+      <c r="BO8" s="111"/>
+      <c r="BP8" s="111"/>
+      <c r="BQ8" s="111"/>
+      <c r="BR8" s="111"/>
+      <c r="BS8" s="111"/>
+      <c r="BT8" s="111"/>
+      <c r="BU8" s="111"/>
+      <c r="BV8" s="111"/>
+      <c r="BW8" s="111"/>
+      <c r="BX8" s="116"/>
     </row>
     <row r="9" spans="2:76" ht="16.5">
       <c r="B9" s="36" t="s">
@@ -5100,44 +5093,44 @@
       </c>
     </row>
     <row r="14" spans="2:76" ht="15" customHeight="1">
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="70" t="s">
+      <c r="C14" s="74"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="73" t="s">
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="74" t="s">
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="88" t="s">
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="74"/>
-      <c r="AC14" s="75"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="87"/>
+      <c r="AB14" s="87"/>
+      <c r="AC14" s="88"/>
     </row>
     <row r="15" spans="2:76" ht="15" customHeight="1">
       <c r="B15" s="119">
@@ -5148,135 +5141,151 @@
       <c r="E15" s="122" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="90"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="82"/>
       <c r="O15" s="82"/>
       <c r="P15" s="82"/>
       <c r="Q15" s="82"/>
       <c r="R15" s="82"/>
       <c r="S15" s="83"/>
-      <c r="T15" s="81"/>
+      <c r="T15" s="84"/>
       <c r="U15" s="82"/>
       <c r="V15" s="82"/>
       <c r="W15" s="82"/>
       <c r="X15" s="83"/>
-      <c r="Y15" s="81"/>
+      <c r="Y15" s="84"/>
       <c r="Z15" s="82"/>
       <c r="AA15" s="82"/>
       <c r="AB15" s="82"/>
       <c r="AC15" s="83"/>
     </row>
     <row r="16" spans="2:76" ht="15" customHeight="1">
-      <c r="B16" s="91">
+      <c r="B16" s="103">
         <v>2</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="94" t="s">
+      <c r="C16" s="104"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="98"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="95"/>
       <c r="T16" s="96"/>
-      <c r="U16" s="97"/>
-      <c r="V16" s="97"/>
-      <c r="W16" s="97"/>
-      <c r="X16" s="98"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="95"/>
       <c r="Y16" s="96"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="97"/>
-      <c r="AB16" s="97"/>
-      <c r="AC16" s="98"/>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="94"/>
+      <c r="AB16" s="94"/>
+      <c r="AC16" s="95"/>
     </row>
     <row r="17" spans="2:29" ht="15" customHeight="1">
-      <c r="B17" s="103">
+      <c r="B17" s="107">
         <v>3</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106" t="s">
+      <c r="C17" s="108"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="108"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="109"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="109"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="111"/>
-      <c r="U17" s="109"/>
-      <c r="V17" s="109"/>
-      <c r="W17" s="109"/>
-      <c r="X17" s="110"/>
-      <c r="Y17" s="111"/>
-      <c r="Z17" s="109"/>
-      <c r="AA17" s="109"/>
-      <c r="AB17" s="109"/>
-      <c r="AC17" s="110"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="113"/>
+      <c r="R17" s="113"/>
+      <c r="S17" s="114"/>
+      <c r="T17" s="115"/>
+      <c r="U17" s="113"/>
+      <c r="V17" s="113"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="114"/>
+      <c r="Y17" s="115"/>
+      <c r="Z17" s="113"/>
+      <c r="AA17" s="113"/>
+      <c r="AB17" s="113"/>
+      <c r="AC17" s="114"/>
     </row>
     <row r="18" spans="2:29" ht="9" customHeight="1"/>
     <row r="19" spans="2:29" ht="9" customHeight="1"/>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="BN4:BX4"/>
-    <mergeCell ref="BI3:BM3"/>
-    <mergeCell ref="BN3:BX3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:L4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="R4:V4"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="AB4:AF4"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="AL4:AP4"/>
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AL3:AP3"/>
-    <mergeCell ref="AQ3:AU3"/>
-    <mergeCell ref="AV3:AZ3"/>
-    <mergeCell ref="BA3:BE3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="AB5:AF5"/>
-    <mergeCell ref="AQ4:AU4"/>
-    <mergeCell ref="AV4:AZ4"/>
-    <mergeCell ref="BA4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BM4"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="M17:S17"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="BI8:BM8"/>
+    <mergeCell ref="BN8:BX8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AC14"/>
+    <mergeCell ref="AG8:AK8"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="AQ7:AU7"/>
+    <mergeCell ref="AV7:AZ7"/>
+    <mergeCell ref="BA7:BE7"/>
+    <mergeCell ref="BF7:BH7"/>
+    <mergeCell ref="BI7:BM7"/>
+    <mergeCell ref="BN7:BX7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="AL7:AP7"/>
     <mergeCell ref="AQ6:AU6"/>
     <mergeCell ref="AV6:AZ6"/>
     <mergeCell ref="BA6:BE6"/>
@@ -5301,54 +5310,38 @@
     <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:L5"/>
-    <mergeCell ref="AQ7:AU7"/>
-    <mergeCell ref="AV7:AZ7"/>
-    <mergeCell ref="BA7:BE7"/>
-    <mergeCell ref="BF7:BH7"/>
-    <mergeCell ref="BI7:BM7"/>
-    <mergeCell ref="BN7:BX7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="AG7:AK7"/>
-    <mergeCell ref="AL7:AP7"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="M17:S17"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="BI8:BM8"/>
-    <mergeCell ref="BN8:BX8"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AC14"/>
-    <mergeCell ref="AG8:AK8"/>
-    <mergeCell ref="AL8:AP8"/>
-    <mergeCell ref="AQ8:AU8"/>
-    <mergeCell ref="AV8:AZ8"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AB8:AF8"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="AB5:AF5"/>
+    <mergeCell ref="AQ4:AU4"/>
+    <mergeCell ref="AV4:AZ4"/>
+    <mergeCell ref="BA4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BM4"/>
+    <mergeCell ref="BN4:BX4"/>
+    <mergeCell ref="BI3:BM3"/>
+    <mergeCell ref="BN3:BX3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="AB4:AF4"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="AL4:AP4"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AL3:AP3"/>
+    <mergeCell ref="AQ3:AU3"/>
+    <mergeCell ref="AV3:AZ3"/>
+    <mergeCell ref="BA3:BE3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AB3:AF3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="M4:BE8 BI4:BM8 M15:M17">
@@ -5426,7 +5419,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -5536,7 +5529,7 @@
       <c r="F7" s="23"/>
       <c r="G7" s="24"/>
       <c r="H7" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="9" customFormat="1" ht="18.75">
@@ -5686,13 +5679,13 @@
         <v>70</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
@@ -5718,7 +5711,7 @@
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="9" customFormat="1" ht="37.5">
@@ -5730,13 +5723,13 @@
         <v>70</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>74</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
@@ -5751,13 +5744,13 @@
         <v>70</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>74</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -5772,13 +5765,13 @@
         <v>70</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>74</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
@@ -5793,13 +5786,13 @@
         <v>70</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>74</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
@@ -5814,13 +5807,13 @@
         <v>70</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>74</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -5835,13 +5828,13 @@
         <v>70</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>74</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
@@ -5856,13 +5849,13 @@
         <v>70</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>74</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
@@ -5916,12 +5909,12 @@
         <v>117</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F26" s="23"/>
       <c r="G26" s="38"/>
       <c r="H26" s="43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="9" customFormat="1" ht="18.75">
@@ -5939,13 +5932,11 @@
         <v>117</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
-      <c r="H27" s="39" t="s">
-        <v>126</v>
-      </c>
+      <c r="H27" s="39"/>
     </row>
     <row r="28" spans="1:8" s="9" customFormat="1" ht="18.75">
       <c r="A28" s="20">
@@ -6027,7 +6018,7 @@
         <v>117</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="38"/>
@@ -6092,7 +6083,7 @@
         <v>119</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F34" s="23"/>
       <c r="G34" s="38"/>
@@ -6113,13 +6104,11 @@
         <v>119</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="F35" s="23"/>
       <c r="G35" s="38"/>
-      <c r="H35" s="39" t="s">
-        <v>126</v>
-      </c>
+      <c r="H35" s="39"/>
     </row>
     <row r="36" spans="1:8" s="9" customFormat="1" ht="18.75">
       <c r="A36" s="20">
@@ -6151,18 +6140,18 @@
         <v>42</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>39</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
       <c r="H37" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="9" customFormat="1" ht="18.75">
@@ -6174,18 +6163,18 @@
         <v>42</v>
       </c>
       <c r="C38" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="37" t="s">
         <v>146</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>148</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
       <c r="H38" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="9" customFormat="1" ht="18.75">
@@ -6197,18 +6186,18 @@
         <v>42</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>39</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
       <c r="H39" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="19.5" thickBot="1">
@@ -6220,18 +6209,18 @@
         <v>42</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
       <c r="H40" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="11.25" customHeight="1"/>
@@ -6309,113 +6298,113 @@
       </c>
     </row>
     <row r="3" spans="2:76" ht="15" customHeight="1">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="70" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="88" t="s">
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="88" t="s">
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="74" t="s">
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="74"/>
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="89" t="s">
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="84"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="89" t="s">
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="84"/>
-      <c r="AO3" s="84"/>
-      <c r="AP3" s="85"/>
-      <c r="AQ3" s="89" t="s">
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="84"/>
-      <c r="AT3" s="84"/>
-      <c r="AU3" s="85"/>
-      <c r="AV3" s="84" t="s">
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="72"/>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="AW3" s="84"/>
-      <c r="AX3" s="84"/>
-      <c r="AY3" s="84"/>
-      <c r="AZ3" s="85"/>
-      <c r="BA3" s="73" t="s">
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="72"/>
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="BB3" s="74"/>
-      <c r="BC3" s="74"/>
-      <c r="BD3" s="74"/>
-      <c r="BE3" s="75"/>
-      <c r="BF3" s="86" t="s">
+      <c r="BB3" s="87"/>
+      <c r="BC3" s="87"/>
+      <c r="BD3" s="87"/>
+      <c r="BE3" s="88"/>
+      <c r="BF3" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="BG3" s="87"/>
-      <c r="BH3" s="87"/>
-      <c r="BI3" s="84" t="s">
+      <c r="BG3" s="90"/>
+      <c r="BH3" s="90"/>
+      <c r="BI3" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="BJ3" s="84"/>
-      <c r="BK3" s="84"/>
-      <c r="BL3" s="84"/>
-      <c r="BM3" s="85"/>
-      <c r="BN3" s="71" t="s">
+      <c r="BJ3" s="72"/>
+      <c r="BK3" s="72"/>
+      <c r="BL3" s="72"/>
+      <c r="BM3" s="73"/>
+      <c r="BN3" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="71"/>
-      <c r="BR3" s="71"/>
-      <c r="BS3" s="71"/>
-      <c r="BT3" s="71"/>
-      <c r="BU3" s="71"/>
-      <c r="BV3" s="71"/>
-      <c r="BW3" s="71"/>
-      <c r="BX3" s="72"/>
+      <c r="BO3" s="74"/>
+      <c r="BP3" s="74"/>
+      <c r="BQ3" s="74"/>
+      <c r="BR3" s="74"/>
+      <c r="BS3" s="74"/>
+      <c r="BT3" s="74"/>
+      <c r="BU3" s="74"/>
+      <c r="BV3" s="74"/>
+      <c r="BW3" s="74"/>
+      <c r="BX3" s="75"/>
     </row>
     <row r="4" spans="2:76" ht="15" customHeight="1">
       <c r="B4" s="123" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C4" s="124"/>
       <c r="D4" s="124"/>
@@ -6501,494 +6490,494 @@
       <c r="E5" s="122" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="90"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="81"/>
       <c r="N5" s="82"/>
       <c r="O5" s="82"/>
       <c r="P5" s="82"/>
       <c r="Q5" s="83"/>
-      <c r="R5" s="81"/>
+      <c r="R5" s="84"/>
       <c r="S5" s="82"/>
       <c r="T5" s="82"/>
       <c r="U5" s="82"/>
       <c r="V5" s="83"/>
-      <c r="W5" s="81"/>
+      <c r="W5" s="84"/>
       <c r="X5" s="82"/>
       <c r="Y5" s="82"/>
       <c r="Z5" s="82"/>
       <c r="AA5" s="83"/>
-      <c r="AB5" s="81"/>
+      <c r="AB5" s="84"/>
       <c r="AC5" s="82"/>
       <c r="AD5" s="82"/>
       <c r="AE5" s="82"/>
       <c r="AF5" s="83"/>
-      <c r="AG5" s="81"/>
+      <c r="AG5" s="84"/>
       <c r="AH5" s="82"/>
       <c r="AI5" s="82"/>
       <c r="AJ5" s="82"/>
       <c r="AK5" s="83"/>
-      <c r="AL5" s="81"/>
+      <c r="AL5" s="84"/>
       <c r="AM5" s="82"/>
       <c r="AN5" s="82"/>
       <c r="AO5" s="82"/>
       <c r="AP5" s="83"/>
-      <c r="AQ5" s="81"/>
+      <c r="AQ5" s="84"/>
       <c r="AR5" s="82"/>
       <c r="AS5" s="82"/>
       <c r="AT5" s="82"/>
       <c r="AU5" s="83"/>
-      <c r="AV5" s="81"/>
+      <c r="AV5" s="84"/>
       <c r="AW5" s="82"/>
       <c r="AX5" s="82"/>
       <c r="AY5" s="82"/>
       <c r="AZ5" s="83"/>
-      <c r="BA5" s="81"/>
+      <c r="BA5" s="84"/>
       <c r="BB5" s="82"/>
       <c r="BC5" s="82"/>
       <c r="BD5" s="82"/>
       <c r="BE5" s="83"/>
-      <c r="BF5" s="117" t="s">
+      <c r="BF5" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="BG5" s="118"/>
-      <c r="BH5" s="118"/>
-      <c r="BI5" s="81"/>
+      <c r="BG5" s="98"/>
+      <c r="BH5" s="98"/>
+      <c r="BI5" s="84"/>
       <c r="BJ5" s="82"/>
       <c r="BK5" s="82"/>
       <c r="BL5" s="82"/>
       <c r="BM5" s="83"/>
-      <c r="BN5" s="115"/>
-      <c r="BO5" s="115"/>
-      <c r="BP5" s="115"/>
-      <c r="BQ5" s="115"/>
-      <c r="BR5" s="115"/>
-      <c r="BS5" s="115"/>
-      <c r="BT5" s="115"/>
-      <c r="BU5" s="115"/>
-      <c r="BV5" s="115"/>
-      <c r="BW5" s="115"/>
-      <c r="BX5" s="116"/>
+      <c r="BN5" s="70"/>
+      <c r="BO5" s="70"/>
+      <c r="BP5" s="70"/>
+      <c r="BQ5" s="70"/>
+      <c r="BR5" s="70"/>
+      <c r="BS5" s="70"/>
+      <c r="BT5" s="70"/>
+      <c r="BU5" s="70"/>
+      <c r="BV5" s="70"/>
+      <c r="BW5" s="70"/>
+      <c r="BX5" s="71"/>
     </row>
     <row r="6" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B6" s="91">
+      <c r="B6" s="103">
         <v>2</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="94" t="s">
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="98"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="95"/>
       <c r="R6" s="96"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="98"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="95"/>
       <c r="W6" s="96"/>
-      <c r="X6" s="97"/>
-      <c r="Y6" s="97"/>
-      <c r="Z6" s="97"/>
-      <c r="AA6" s="98"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="95"/>
       <c r="AB6" s="96"/>
-      <c r="AC6" s="97"/>
-      <c r="AD6" s="97"/>
-      <c r="AE6" s="97"/>
-      <c r="AF6" s="98"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="94"/>
+      <c r="AF6" s="95"/>
       <c r="AG6" s="96"/>
-      <c r="AH6" s="97"/>
-      <c r="AI6" s="97"/>
-      <c r="AJ6" s="97"/>
-      <c r="AK6" s="98"/>
+      <c r="AH6" s="94"/>
+      <c r="AI6" s="94"/>
+      <c r="AJ6" s="94"/>
+      <c r="AK6" s="95"/>
       <c r="AL6" s="96"/>
-      <c r="AM6" s="97"/>
-      <c r="AN6" s="97"/>
-      <c r="AO6" s="97"/>
-      <c r="AP6" s="98"/>
+      <c r="AM6" s="94"/>
+      <c r="AN6" s="94"/>
+      <c r="AO6" s="94"/>
+      <c r="AP6" s="95"/>
       <c r="AQ6" s="96"/>
-      <c r="AR6" s="97"/>
-      <c r="AS6" s="97"/>
-      <c r="AT6" s="97"/>
-      <c r="AU6" s="98"/>
+      <c r="AR6" s="94"/>
+      <c r="AS6" s="94"/>
+      <c r="AT6" s="94"/>
+      <c r="AU6" s="95"/>
       <c r="AV6" s="96"/>
-      <c r="AW6" s="97"/>
-      <c r="AX6" s="97"/>
-      <c r="AY6" s="97"/>
-      <c r="AZ6" s="98"/>
+      <c r="AW6" s="94"/>
+      <c r="AX6" s="94"/>
+      <c r="AY6" s="94"/>
+      <c r="AZ6" s="95"/>
       <c r="BA6" s="96"/>
-      <c r="BB6" s="97"/>
-      <c r="BC6" s="97"/>
-      <c r="BD6" s="97"/>
-      <c r="BE6" s="98"/>
-      <c r="BF6" s="101" t="s">
+      <c r="BB6" s="94"/>
+      <c r="BC6" s="94"/>
+      <c r="BD6" s="94"/>
+      <c r="BE6" s="95"/>
+      <c r="BF6" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="BG6" s="102"/>
-      <c r="BH6" s="102"/>
+      <c r="BG6" s="100"/>
+      <c r="BH6" s="100"/>
       <c r="BI6" s="96"/>
-      <c r="BJ6" s="97"/>
-      <c r="BK6" s="97"/>
-      <c r="BL6" s="97"/>
-      <c r="BM6" s="98"/>
-      <c r="BN6" s="95"/>
-      <c r="BO6" s="95"/>
-      <c r="BP6" s="95"/>
-      <c r="BQ6" s="95"/>
-      <c r="BR6" s="95"/>
-      <c r="BS6" s="95"/>
-      <c r="BT6" s="95"/>
-      <c r="BU6" s="95"/>
-      <c r="BV6" s="95"/>
-      <c r="BW6" s="95"/>
-      <c r="BX6" s="100"/>
+      <c r="BJ6" s="94"/>
+      <c r="BK6" s="94"/>
+      <c r="BL6" s="94"/>
+      <c r="BM6" s="95"/>
+      <c r="BN6" s="101"/>
+      <c r="BO6" s="101"/>
+      <c r="BP6" s="101"/>
+      <c r="BQ6" s="101"/>
+      <c r="BR6" s="101"/>
+      <c r="BS6" s="101"/>
+      <c r="BT6" s="101"/>
+      <c r="BU6" s="101"/>
+      <c r="BV6" s="101"/>
+      <c r="BW6" s="101"/>
+      <c r="BX6" s="102"/>
     </row>
     <row r="7" spans="2:76" ht="16.5">
-      <c r="B7" s="91">
+      <c r="B7" s="103">
         <v>3</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="94" t="s">
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="98"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="95"/>
       <c r="R7" s="96"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="97"/>
-      <c r="V7" s="98"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="96"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="97"/>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="98"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="95"/>
       <c r="AB7" s="96"/>
-      <c r="AC7" s="97"/>
-      <c r="AD7" s="97"/>
-      <c r="AE7" s="97"/>
-      <c r="AF7" s="98"/>
-      <c r="AG7" s="99"/>
-      <c r="AH7" s="97"/>
-      <c r="AI7" s="97"/>
-      <c r="AJ7" s="97"/>
-      <c r="AK7" s="98"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="94"/>
+      <c r="AE7" s="94"/>
+      <c r="AF7" s="95"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="94"/>
+      <c r="AI7" s="94"/>
+      <c r="AJ7" s="94"/>
+      <c r="AK7" s="95"/>
       <c r="AL7" s="96"/>
-      <c r="AM7" s="97"/>
-      <c r="AN7" s="97"/>
-      <c r="AO7" s="97"/>
-      <c r="AP7" s="98"/>
+      <c r="AM7" s="94"/>
+      <c r="AN7" s="94"/>
+      <c r="AO7" s="94"/>
+      <c r="AP7" s="95"/>
       <c r="AQ7" s="96"/>
-      <c r="AR7" s="97"/>
-      <c r="AS7" s="97"/>
-      <c r="AT7" s="97"/>
-      <c r="AU7" s="98"/>
+      <c r="AR7" s="94"/>
+      <c r="AS7" s="94"/>
+      <c r="AT7" s="94"/>
+      <c r="AU7" s="95"/>
       <c r="AV7" s="96"/>
-      <c r="AW7" s="97"/>
-      <c r="AX7" s="97"/>
-      <c r="AY7" s="97"/>
-      <c r="AZ7" s="98"/>
+      <c r="AW7" s="94"/>
+      <c r="AX7" s="94"/>
+      <c r="AY7" s="94"/>
+      <c r="AZ7" s="95"/>
       <c r="BA7" s="96"/>
-      <c r="BB7" s="97"/>
-      <c r="BC7" s="97"/>
-      <c r="BD7" s="97"/>
-      <c r="BE7" s="98"/>
-      <c r="BF7" s="101" t="s">
+      <c r="BB7" s="94"/>
+      <c r="BC7" s="94"/>
+      <c r="BD7" s="94"/>
+      <c r="BE7" s="95"/>
+      <c r="BF7" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="BG7" s="102"/>
-      <c r="BH7" s="102"/>
+      <c r="BG7" s="100"/>
+      <c r="BH7" s="100"/>
       <c r="BI7" s="96"/>
-      <c r="BJ7" s="97"/>
-      <c r="BK7" s="97"/>
-      <c r="BL7" s="97"/>
-      <c r="BM7" s="98"/>
-      <c r="BN7" s="95"/>
-      <c r="BO7" s="95"/>
-      <c r="BP7" s="95"/>
-      <c r="BQ7" s="95"/>
-      <c r="BR7" s="95"/>
-      <c r="BS7" s="95"/>
-      <c r="BT7" s="95"/>
-      <c r="BU7" s="95"/>
-      <c r="BV7" s="95"/>
-      <c r="BW7" s="95"/>
-      <c r="BX7" s="100"/>
+      <c r="BJ7" s="94"/>
+      <c r="BK7" s="94"/>
+      <c r="BL7" s="94"/>
+      <c r="BM7" s="95"/>
+      <c r="BN7" s="101"/>
+      <c r="BO7" s="101"/>
+      <c r="BP7" s="101"/>
+      <c r="BQ7" s="101"/>
+      <c r="BR7" s="101"/>
+      <c r="BS7" s="101"/>
+      <c r="BT7" s="101"/>
+      <c r="BU7" s="101"/>
+      <c r="BV7" s="101"/>
+      <c r="BW7" s="101"/>
+      <c r="BX7" s="102"/>
     </row>
     <row r="8" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B8" s="91">
+      <c r="B8" s="103">
         <v>4</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="94" t="s">
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="98"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="95"/>
       <c r="R8" s="96"/>
-      <c r="S8" s="97"/>
-      <c r="T8" s="97"/>
-      <c r="U8" s="97"/>
-      <c r="V8" s="98"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="96"/>
-      <c r="X8" s="97"/>
-      <c r="Y8" s="97"/>
-      <c r="Z8" s="97"/>
-      <c r="AA8" s="98"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="95"/>
       <c r="AB8" s="96"/>
-      <c r="AC8" s="97"/>
-      <c r="AD8" s="97"/>
-      <c r="AE8" s="97"/>
-      <c r="AF8" s="98"/>
-      <c r="AG8" s="99"/>
-      <c r="AH8" s="97"/>
-      <c r="AI8" s="97"/>
-      <c r="AJ8" s="97"/>
-      <c r="AK8" s="98"/>
+      <c r="AC8" s="94"/>
+      <c r="AD8" s="94"/>
+      <c r="AE8" s="94"/>
+      <c r="AF8" s="95"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="94"/>
+      <c r="AI8" s="94"/>
+      <c r="AJ8" s="94"/>
+      <c r="AK8" s="95"/>
       <c r="AL8" s="96"/>
-      <c r="AM8" s="97"/>
-      <c r="AN8" s="97"/>
-      <c r="AO8" s="97"/>
-      <c r="AP8" s="98"/>
+      <c r="AM8" s="94"/>
+      <c r="AN8" s="94"/>
+      <c r="AO8" s="94"/>
+      <c r="AP8" s="95"/>
       <c r="AQ8" s="96"/>
-      <c r="AR8" s="97"/>
-      <c r="AS8" s="97"/>
-      <c r="AT8" s="97"/>
-      <c r="AU8" s="98"/>
+      <c r="AR8" s="94"/>
+      <c r="AS8" s="94"/>
+      <c r="AT8" s="94"/>
+      <c r="AU8" s="95"/>
       <c r="AV8" s="96"/>
-      <c r="AW8" s="97"/>
-      <c r="AX8" s="97"/>
-      <c r="AY8" s="97"/>
-      <c r="AZ8" s="98"/>
+      <c r="AW8" s="94"/>
+      <c r="AX8" s="94"/>
+      <c r="AY8" s="94"/>
+      <c r="AZ8" s="95"/>
       <c r="BA8" s="96"/>
-      <c r="BB8" s="97"/>
-      <c r="BC8" s="97"/>
-      <c r="BD8" s="97"/>
-      <c r="BE8" s="98"/>
-      <c r="BF8" s="101" t="s">
+      <c r="BB8" s="94"/>
+      <c r="BC8" s="94"/>
+      <c r="BD8" s="94"/>
+      <c r="BE8" s="95"/>
+      <c r="BF8" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="BG8" s="102"/>
-      <c r="BH8" s="102"/>
+      <c r="BG8" s="100"/>
+      <c r="BH8" s="100"/>
       <c r="BI8" s="96"/>
-      <c r="BJ8" s="97"/>
-      <c r="BK8" s="97"/>
-      <c r="BL8" s="97"/>
-      <c r="BM8" s="98"/>
-      <c r="BN8" s="95"/>
-      <c r="BO8" s="95"/>
-      <c r="BP8" s="95"/>
-      <c r="BQ8" s="95"/>
-      <c r="BR8" s="95"/>
-      <c r="BS8" s="95"/>
-      <c r="BT8" s="95"/>
-      <c r="BU8" s="95"/>
-      <c r="BV8" s="95"/>
-      <c r="BW8" s="95"/>
-      <c r="BX8" s="100"/>
+      <c r="BJ8" s="94"/>
+      <c r="BK8" s="94"/>
+      <c r="BL8" s="94"/>
+      <c r="BM8" s="95"/>
+      <c r="BN8" s="101"/>
+      <c r="BO8" s="101"/>
+      <c r="BP8" s="101"/>
+      <c r="BQ8" s="101"/>
+      <c r="BR8" s="101"/>
+      <c r="BS8" s="101"/>
+      <c r="BT8" s="101"/>
+      <c r="BU8" s="101"/>
+      <c r="BV8" s="101"/>
+      <c r="BW8" s="101"/>
+      <c r="BX8" s="102"/>
     </row>
     <row r="9" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B9" s="91">
+      <c r="B9" s="103">
         <v>5</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="94" t="s">
+      <c r="C9" s="104"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="98"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="95"/>
       <c r="R9" s="96"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="97"/>
-      <c r="U9" s="97"/>
-      <c r="V9" s="98"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="96"/>
-      <c r="X9" s="97"/>
-      <c r="Y9" s="97"/>
-      <c r="Z9" s="97"/>
-      <c r="AA9" s="98"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="95"/>
       <c r="AB9" s="96"/>
-      <c r="AC9" s="97"/>
-      <c r="AD9" s="97"/>
-      <c r="AE9" s="97"/>
-      <c r="AF9" s="98"/>
-      <c r="AG9" s="99"/>
-      <c r="AH9" s="97"/>
-      <c r="AI9" s="97"/>
-      <c r="AJ9" s="97"/>
-      <c r="AK9" s="98"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="94"/>
+      <c r="AE9" s="94"/>
+      <c r="AF9" s="95"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="94"/>
+      <c r="AI9" s="94"/>
+      <c r="AJ9" s="94"/>
+      <c r="AK9" s="95"/>
       <c r="AL9" s="96"/>
-      <c r="AM9" s="97"/>
-      <c r="AN9" s="97"/>
-      <c r="AO9" s="97"/>
-      <c r="AP9" s="98"/>
+      <c r="AM9" s="94"/>
+      <c r="AN9" s="94"/>
+      <c r="AO9" s="94"/>
+      <c r="AP9" s="95"/>
       <c r="AQ9" s="96"/>
-      <c r="AR9" s="97"/>
-      <c r="AS9" s="97"/>
-      <c r="AT9" s="97"/>
-      <c r="AU9" s="98"/>
+      <c r="AR9" s="94"/>
+      <c r="AS9" s="94"/>
+      <c r="AT9" s="94"/>
+      <c r="AU9" s="95"/>
       <c r="AV9" s="96"/>
-      <c r="AW9" s="97"/>
-      <c r="AX9" s="97"/>
-      <c r="AY9" s="97"/>
-      <c r="AZ9" s="98"/>
+      <c r="AW9" s="94"/>
+      <c r="AX9" s="94"/>
+      <c r="AY9" s="94"/>
+      <c r="AZ9" s="95"/>
       <c r="BA9" s="96"/>
-      <c r="BB9" s="97"/>
-      <c r="BC9" s="97"/>
-      <c r="BD9" s="97"/>
-      <c r="BE9" s="98"/>
-      <c r="BF9" s="101" t="s">
+      <c r="BB9" s="94"/>
+      <c r="BC9" s="94"/>
+      <c r="BD9" s="94"/>
+      <c r="BE9" s="95"/>
+      <c r="BF9" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="BG9" s="102"/>
-      <c r="BH9" s="102"/>
+      <c r="BG9" s="100"/>
+      <c r="BH9" s="100"/>
       <c r="BI9" s="96"/>
-      <c r="BJ9" s="97"/>
-      <c r="BK9" s="97"/>
-      <c r="BL9" s="97"/>
-      <c r="BM9" s="98"/>
-      <c r="BN9" s="95"/>
-      <c r="BO9" s="95"/>
-      <c r="BP9" s="95"/>
-      <c r="BQ9" s="95"/>
-      <c r="BR9" s="95"/>
-      <c r="BS9" s="95"/>
-      <c r="BT9" s="95"/>
-      <c r="BU9" s="95"/>
-      <c r="BV9" s="95"/>
-      <c r="BW9" s="95"/>
-      <c r="BX9" s="100"/>
+      <c r="BJ9" s="94"/>
+      <c r="BK9" s="94"/>
+      <c r="BL9" s="94"/>
+      <c r="BM9" s="95"/>
+      <c r="BN9" s="101"/>
+      <c r="BO9" s="101"/>
+      <c r="BP9" s="101"/>
+      <c r="BQ9" s="101"/>
+      <c r="BR9" s="101"/>
+      <c r="BS9" s="101"/>
+      <c r="BT9" s="101"/>
+      <c r="BU9" s="101"/>
+      <c r="BV9" s="101"/>
+      <c r="BW9" s="101"/>
+      <c r="BX9" s="102"/>
     </row>
     <row r="10" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B10" s="91">
+      <c r="B10" s="103">
         <v>6</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="106" t="s">
+      <c r="C10" s="104"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109"/>
-      <c r="V10" s="110"/>
-      <c r="W10" s="111"/>
-      <c r="X10" s="109"/>
-      <c r="Y10" s="109"/>
-      <c r="Z10" s="109"/>
-      <c r="AA10" s="110"/>
-      <c r="AB10" s="111"/>
-      <c r="AC10" s="109"/>
-      <c r="AD10" s="109"/>
-      <c r="AE10" s="109"/>
-      <c r="AF10" s="110"/>
-      <c r="AG10" s="108"/>
-      <c r="AH10" s="109"/>
-      <c r="AI10" s="109"/>
-      <c r="AJ10" s="109"/>
-      <c r="AK10" s="110"/>
-      <c r="AL10" s="111"/>
-      <c r="AM10" s="109"/>
-      <c r="AN10" s="109"/>
-      <c r="AO10" s="109"/>
-      <c r="AP10" s="110"/>
-      <c r="AQ10" s="111"/>
-      <c r="AR10" s="109"/>
-      <c r="AS10" s="109"/>
-      <c r="AT10" s="109"/>
-      <c r="AU10" s="110"/>
-      <c r="AV10" s="111"/>
-      <c r="AW10" s="109"/>
-      <c r="AX10" s="109"/>
-      <c r="AY10" s="109"/>
-      <c r="AZ10" s="110"/>
-      <c r="BA10" s="111"/>
-      <c r="BB10" s="109"/>
-      <c r="BC10" s="109"/>
-      <c r="BD10" s="109"/>
-      <c r="BE10" s="110"/>
-      <c r="BF10" s="112" t="s">
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="115"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="114"/>
+      <c r="W10" s="115"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="114"/>
+      <c r="AB10" s="115"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="113"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="112"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="113"/>
+      <c r="AJ10" s="113"/>
+      <c r="AK10" s="114"/>
+      <c r="AL10" s="115"/>
+      <c r="AM10" s="113"/>
+      <c r="AN10" s="113"/>
+      <c r="AO10" s="113"/>
+      <c r="AP10" s="114"/>
+      <c r="AQ10" s="115"/>
+      <c r="AR10" s="113"/>
+      <c r="AS10" s="113"/>
+      <c r="AT10" s="113"/>
+      <c r="AU10" s="114"/>
+      <c r="AV10" s="115"/>
+      <c r="AW10" s="113"/>
+      <c r="AX10" s="113"/>
+      <c r="AY10" s="113"/>
+      <c r="AZ10" s="114"/>
+      <c r="BA10" s="115"/>
+      <c r="BB10" s="113"/>
+      <c r="BC10" s="113"/>
+      <c r="BD10" s="113"/>
+      <c r="BE10" s="114"/>
+      <c r="BF10" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="BG10" s="113"/>
-      <c r="BH10" s="113"/>
-      <c r="BI10" s="111"/>
-      <c r="BJ10" s="109"/>
-      <c r="BK10" s="109"/>
-      <c r="BL10" s="109"/>
-      <c r="BM10" s="110"/>
-      <c r="BN10" s="107"/>
-      <c r="BO10" s="107"/>
-      <c r="BP10" s="107"/>
-      <c r="BQ10" s="107"/>
-      <c r="BR10" s="107"/>
-      <c r="BS10" s="107"/>
-      <c r="BT10" s="107"/>
-      <c r="BU10" s="107"/>
-      <c r="BV10" s="107"/>
-      <c r="BW10" s="107"/>
-      <c r="BX10" s="114"/>
+      <c r="BG10" s="118"/>
+      <c r="BH10" s="118"/>
+      <c r="BI10" s="115"/>
+      <c r="BJ10" s="113"/>
+      <c r="BK10" s="113"/>
+      <c r="BL10" s="113"/>
+      <c r="BM10" s="114"/>
+      <c r="BN10" s="111"/>
+      <c r="BO10" s="111"/>
+      <c r="BP10" s="111"/>
+      <c r="BQ10" s="111"/>
+      <c r="BR10" s="111"/>
+      <c r="BS10" s="111"/>
+      <c r="BT10" s="111"/>
+      <c r="BU10" s="111"/>
+      <c r="BV10" s="111"/>
+      <c r="BW10" s="111"/>
+      <c r="BX10" s="116"/>
     </row>
     <row r="11" spans="2:76" ht="16.5" customHeight="1">
       <c r="B11" s="126" t="s">
@@ -7078,494 +7067,494 @@
       <c r="E12" s="122" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="90"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="82"/>
       <c r="O12" s="82"/>
       <c r="P12" s="82"/>
       <c r="Q12" s="83"/>
-      <c r="R12" s="81"/>
+      <c r="R12" s="84"/>
       <c r="S12" s="82"/>
       <c r="T12" s="82"/>
       <c r="U12" s="82"/>
       <c r="V12" s="83"/>
-      <c r="W12" s="81"/>
+      <c r="W12" s="84"/>
       <c r="X12" s="82"/>
       <c r="Y12" s="82"/>
       <c r="Z12" s="82"/>
       <c r="AA12" s="83"/>
-      <c r="AB12" s="81"/>
+      <c r="AB12" s="84"/>
       <c r="AC12" s="82"/>
       <c r="AD12" s="82"/>
       <c r="AE12" s="82"/>
       <c r="AF12" s="83"/>
-      <c r="AG12" s="81"/>
+      <c r="AG12" s="84"/>
       <c r="AH12" s="82"/>
       <c r="AI12" s="82"/>
       <c r="AJ12" s="82"/>
       <c r="AK12" s="83"/>
-      <c r="AL12" s="81"/>
+      <c r="AL12" s="84"/>
       <c r="AM12" s="82"/>
       <c r="AN12" s="82"/>
       <c r="AO12" s="82"/>
       <c r="AP12" s="83"/>
-      <c r="AQ12" s="81"/>
+      <c r="AQ12" s="84"/>
       <c r="AR12" s="82"/>
       <c r="AS12" s="82"/>
       <c r="AT12" s="82"/>
       <c r="AU12" s="83"/>
-      <c r="AV12" s="81"/>
+      <c r="AV12" s="84"/>
       <c r="AW12" s="82"/>
       <c r="AX12" s="82"/>
       <c r="AY12" s="82"/>
       <c r="AZ12" s="83"/>
-      <c r="BA12" s="81"/>
+      <c r="BA12" s="84"/>
       <c r="BB12" s="82"/>
       <c r="BC12" s="82"/>
       <c r="BD12" s="82"/>
       <c r="BE12" s="83"/>
-      <c r="BF12" s="117" t="s">
+      <c r="BF12" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="BG12" s="118"/>
-      <c r="BH12" s="118"/>
-      <c r="BI12" s="81"/>
+      <c r="BG12" s="98"/>
+      <c r="BH12" s="98"/>
+      <c r="BI12" s="84"/>
       <c r="BJ12" s="82"/>
       <c r="BK12" s="82"/>
       <c r="BL12" s="82"/>
       <c r="BM12" s="83"/>
-      <c r="BN12" s="115"/>
-      <c r="BO12" s="115"/>
-      <c r="BP12" s="115"/>
-      <c r="BQ12" s="115"/>
-      <c r="BR12" s="115"/>
-      <c r="BS12" s="115"/>
-      <c r="BT12" s="115"/>
-      <c r="BU12" s="115"/>
-      <c r="BV12" s="115"/>
-      <c r="BW12" s="115"/>
-      <c r="BX12" s="116"/>
+      <c r="BN12" s="70"/>
+      <c r="BO12" s="70"/>
+      <c r="BP12" s="70"/>
+      <c r="BQ12" s="70"/>
+      <c r="BR12" s="70"/>
+      <c r="BS12" s="70"/>
+      <c r="BT12" s="70"/>
+      <c r="BU12" s="70"/>
+      <c r="BV12" s="70"/>
+      <c r="BW12" s="70"/>
+      <c r="BX12" s="71"/>
     </row>
     <row r="13" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B13" s="91">
+      <c r="B13" s="103">
         <v>8</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="94" t="s">
+      <c r="C13" s="104"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="98"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="95"/>
       <c r="R13" s="96"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="98"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="96"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="97"/>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="98"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="95"/>
       <c r="AB13" s="96"/>
-      <c r="AC13" s="97"/>
-      <c r="AD13" s="97"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="98"/>
+      <c r="AC13" s="94"/>
+      <c r="AD13" s="94"/>
+      <c r="AE13" s="94"/>
+      <c r="AF13" s="95"/>
       <c r="AG13" s="96"/>
-      <c r="AH13" s="97"/>
-      <c r="AI13" s="97"/>
-      <c r="AJ13" s="97"/>
-      <c r="AK13" s="98"/>
+      <c r="AH13" s="94"/>
+      <c r="AI13" s="94"/>
+      <c r="AJ13" s="94"/>
+      <c r="AK13" s="95"/>
       <c r="AL13" s="96"/>
-      <c r="AM13" s="97"/>
-      <c r="AN13" s="97"/>
-      <c r="AO13" s="97"/>
-      <c r="AP13" s="98"/>
+      <c r="AM13" s="94"/>
+      <c r="AN13" s="94"/>
+      <c r="AO13" s="94"/>
+      <c r="AP13" s="95"/>
       <c r="AQ13" s="96"/>
-      <c r="AR13" s="97"/>
-      <c r="AS13" s="97"/>
-      <c r="AT13" s="97"/>
-      <c r="AU13" s="98"/>
+      <c r="AR13" s="94"/>
+      <c r="AS13" s="94"/>
+      <c r="AT13" s="94"/>
+      <c r="AU13" s="95"/>
       <c r="AV13" s="96"/>
-      <c r="AW13" s="97"/>
-      <c r="AX13" s="97"/>
-      <c r="AY13" s="97"/>
-      <c r="AZ13" s="98"/>
+      <c r="AW13" s="94"/>
+      <c r="AX13" s="94"/>
+      <c r="AY13" s="94"/>
+      <c r="AZ13" s="95"/>
       <c r="BA13" s="96"/>
-      <c r="BB13" s="97"/>
-      <c r="BC13" s="97"/>
-      <c r="BD13" s="97"/>
-      <c r="BE13" s="98"/>
-      <c r="BF13" s="101" t="s">
+      <c r="BB13" s="94"/>
+      <c r="BC13" s="94"/>
+      <c r="BD13" s="94"/>
+      <c r="BE13" s="95"/>
+      <c r="BF13" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="BG13" s="102"/>
-      <c r="BH13" s="102"/>
+      <c r="BG13" s="100"/>
+      <c r="BH13" s="100"/>
       <c r="BI13" s="96"/>
-      <c r="BJ13" s="97"/>
-      <c r="BK13" s="97"/>
-      <c r="BL13" s="97"/>
-      <c r="BM13" s="98"/>
-      <c r="BN13" s="95"/>
-      <c r="BO13" s="95"/>
-      <c r="BP13" s="95"/>
-      <c r="BQ13" s="95"/>
-      <c r="BR13" s="95"/>
-      <c r="BS13" s="95"/>
-      <c r="BT13" s="95"/>
-      <c r="BU13" s="95"/>
-      <c r="BV13" s="95"/>
-      <c r="BW13" s="95"/>
-      <c r="BX13" s="100"/>
+      <c r="BJ13" s="94"/>
+      <c r="BK13" s="94"/>
+      <c r="BL13" s="94"/>
+      <c r="BM13" s="95"/>
+      <c r="BN13" s="101"/>
+      <c r="BO13" s="101"/>
+      <c r="BP13" s="101"/>
+      <c r="BQ13" s="101"/>
+      <c r="BR13" s="101"/>
+      <c r="BS13" s="101"/>
+      <c r="BT13" s="101"/>
+      <c r="BU13" s="101"/>
+      <c r="BV13" s="101"/>
+      <c r="BW13" s="101"/>
+      <c r="BX13" s="102"/>
     </row>
     <row r="14" spans="2:76" ht="16.5">
-      <c r="B14" s="91">
+      <c r="B14" s="103">
         <v>9</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="94" t="s">
+      <c r="C14" s="104"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="98"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="95"/>
       <c r="R14" s="96"/>
-      <c r="S14" s="97"/>
-      <c r="T14" s="97"/>
-      <c r="U14" s="97"/>
-      <c r="V14" s="98"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="96"/>
-      <c r="X14" s="97"/>
-      <c r="Y14" s="97"/>
-      <c r="Z14" s="97"/>
-      <c r="AA14" s="98"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="95"/>
       <c r="AB14" s="96"/>
-      <c r="AC14" s="97"/>
-      <c r="AD14" s="97"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="98"/>
-      <c r="AG14" s="99"/>
-      <c r="AH14" s="97"/>
-      <c r="AI14" s="97"/>
-      <c r="AJ14" s="97"/>
-      <c r="AK14" s="98"/>
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="94"/>
+      <c r="AE14" s="94"/>
+      <c r="AF14" s="95"/>
+      <c r="AG14" s="93"/>
+      <c r="AH14" s="94"/>
+      <c r="AI14" s="94"/>
+      <c r="AJ14" s="94"/>
+      <c r="AK14" s="95"/>
       <c r="AL14" s="96"/>
-      <c r="AM14" s="97"/>
-      <c r="AN14" s="97"/>
-      <c r="AO14" s="97"/>
-      <c r="AP14" s="98"/>
+      <c r="AM14" s="94"/>
+      <c r="AN14" s="94"/>
+      <c r="AO14" s="94"/>
+      <c r="AP14" s="95"/>
       <c r="AQ14" s="96"/>
-      <c r="AR14" s="97"/>
-      <c r="AS14" s="97"/>
-      <c r="AT14" s="97"/>
-      <c r="AU14" s="98"/>
+      <c r="AR14" s="94"/>
+      <c r="AS14" s="94"/>
+      <c r="AT14" s="94"/>
+      <c r="AU14" s="95"/>
       <c r="AV14" s="96"/>
-      <c r="AW14" s="97"/>
-      <c r="AX14" s="97"/>
-      <c r="AY14" s="97"/>
-      <c r="AZ14" s="98"/>
+      <c r="AW14" s="94"/>
+      <c r="AX14" s="94"/>
+      <c r="AY14" s="94"/>
+      <c r="AZ14" s="95"/>
       <c r="BA14" s="96"/>
-      <c r="BB14" s="97"/>
-      <c r="BC14" s="97"/>
-      <c r="BD14" s="97"/>
-      <c r="BE14" s="98"/>
-      <c r="BF14" s="101" t="s">
+      <c r="BB14" s="94"/>
+      <c r="BC14" s="94"/>
+      <c r="BD14" s="94"/>
+      <c r="BE14" s="95"/>
+      <c r="BF14" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="BG14" s="102"/>
-      <c r="BH14" s="102"/>
+      <c r="BG14" s="100"/>
+      <c r="BH14" s="100"/>
       <c r="BI14" s="96"/>
-      <c r="BJ14" s="97"/>
-      <c r="BK14" s="97"/>
-      <c r="BL14" s="97"/>
-      <c r="BM14" s="98"/>
-      <c r="BN14" s="95"/>
-      <c r="BO14" s="95"/>
-      <c r="BP14" s="95"/>
-      <c r="BQ14" s="95"/>
-      <c r="BR14" s="95"/>
-      <c r="BS14" s="95"/>
-      <c r="BT14" s="95"/>
-      <c r="BU14" s="95"/>
-      <c r="BV14" s="95"/>
-      <c r="BW14" s="95"/>
-      <c r="BX14" s="100"/>
+      <c r="BJ14" s="94"/>
+      <c r="BK14" s="94"/>
+      <c r="BL14" s="94"/>
+      <c r="BM14" s="95"/>
+      <c r="BN14" s="101"/>
+      <c r="BO14" s="101"/>
+      <c r="BP14" s="101"/>
+      <c r="BQ14" s="101"/>
+      <c r="BR14" s="101"/>
+      <c r="BS14" s="101"/>
+      <c r="BT14" s="101"/>
+      <c r="BU14" s="101"/>
+      <c r="BV14" s="101"/>
+      <c r="BW14" s="101"/>
+      <c r="BX14" s="102"/>
     </row>
     <row r="15" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B15" s="91">
+      <c r="B15" s="103">
         <v>10</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="94" t="s">
+      <c r="C15" s="104"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="98"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="95"/>
       <c r="R15" s="96"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="97"/>
-      <c r="V15" s="98"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="96"/>
-      <c r="X15" s="97"/>
-      <c r="Y15" s="97"/>
-      <c r="Z15" s="97"/>
-      <c r="AA15" s="98"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="94"/>
+      <c r="Z15" s="94"/>
+      <c r="AA15" s="95"/>
       <c r="AB15" s="96"/>
-      <c r="AC15" s="97"/>
-      <c r="AD15" s="97"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="98"/>
-      <c r="AG15" s="99"/>
-      <c r="AH15" s="97"/>
-      <c r="AI15" s="97"/>
-      <c r="AJ15" s="97"/>
-      <c r="AK15" s="98"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="94"/>
+      <c r="AE15" s="94"/>
+      <c r="AF15" s="95"/>
+      <c r="AG15" s="93"/>
+      <c r="AH15" s="94"/>
+      <c r="AI15" s="94"/>
+      <c r="AJ15" s="94"/>
+      <c r="AK15" s="95"/>
       <c r="AL15" s="96"/>
-      <c r="AM15" s="97"/>
-      <c r="AN15" s="97"/>
-      <c r="AO15" s="97"/>
-      <c r="AP15" s="98"/>
+      <c r="AM15" s="94"/>
+      <c r="AN15" s="94"/>
+      <c r="AO15" s="94"/>
+      <c r="AP15" s="95"/>
       <c r="AQ15" s="96"/>
-      <c r="AR15" s="97"/>
-      <c r="AS15" s="97"/>
-      <c r="AT15" s="97"/>
-      <c r="AU15" s="98"/>
+      <c r="AR15" s="94"/>
+      <c r="AS15" s="94"/>
+      <c r="AT15" s="94"/>
+      <c r="AU15" s="95"/>
       <c r="AV15" s="96"/>
-      <c r="AW15" s="97"/>
-      <c r="AX15" s="97"/>
-      <c r="AY15" s="97"/>
-      <c r="AZ15" s="98"/>
+      <c r="AW15" s="94"/>
+      <c r="AX15" s="94"/>
+      <c r="AY15" s="94"/>
+      <c r="AZ15" s="95"/>
       <c r="BA15" s="96"/>
-      <c r="BB15" s="97"/>
-      <c r="BC15" s="97"/>
-      <c r="BD15" s="97"/>
-      <c r="BE15" s="98"/>
-      <c r="BF15" s="101" t="s">
+      <c r="BB15" s="94"/>
+      <c r="BC15" s="94"/>
+      <c r="BD15" s="94"/>
+      <c r="BE15" s="95"/>
+      <c r="BF15" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="BG15" s="102"/>
-      <c r="BH15" s="102"/>
+      <c r="BG15" s="100"/>
+      <c r="BH15" s="100"/>
       <c r="BI15" s="96"/>
-      <c r="BJ15" s="97"/>
-      <c r="BK15" s="97"/>
-      <c r="BL15" s="97"/>
-      <c r="BM15" s="98"/>
-      <c r="BN15" s="95"/>
-      <c r="BO15" s="95"/>
-      <c r="BP15" s="95"/>
-      <c r="BQ15" s="95"/>
-      <c r="BR15" s="95"/>
-      <c r="BS15" s="95"/>
-      <c r="BT15" s="95"/>
-      <c r="BU15" s="95"/>
-      <c r="BV15" s="95"/>
-      <c r="BW15" s="95"/>
-      <c r="BX15" s="100"/>
+      <c r="BJ15" s="94"/>
+      <c r="BK15" s="94"/>
+      <c r="BL15" s="94"/>
+      <c r="BM15" s="95"/>
+      <c r="BN15" s="101"/>
+      <c r="BO15" s="101"/>
+      <c r="BP15" s="101"/>
+      <c r="BQ15" s="101"/>
+      <c r="BR15" s="101"/>
+      <c r="BS15" s="101"/>
+      <c r="BT15" s="101"/>
+      <c r="BU15" s="101"/>
+      <c r="BV15" s="101"/>
+      <c r="BW15" s="101"/>
+      <c r="BX15" s="102"/>
     </row>
     <row r="16" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B16" s="91">
+      <c r="B16" s="103">
         <v>11</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="94" t="s">
+      <c r="C16" s="104"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="98"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="95"/>
       <c r="R16" s="96"/>
-      <c r="S16" s="97"/>
-      <c r="T16" s="97"/>
-      <c r="U16" s="97"/>
-      <c r="V16" s="98"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="95"/>
       <c r="W16" s="96"/>
-      <c r="X16" s="97"/>
-      <c r="Y16" s="97"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="98"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="95"/>
       <c r="AB16" s="96"/>
-      <c r="AC16" s="97"/>
-      <c r="AD16" s="97"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="98"/>
-      <c r="AG16" s="99"/>
-      <c r="AH16" s="97"/>
-      <c r="AI16" s="97"/>
-      <c r="AJ16" s="97"/>
-      <c r="AK16" s="98"/>
+      <c r="AC16" s="94"/>
+      <c r="AD16" s="94"/>
+      <c r="AE16" s="94"/>
+      <c r="AF16" s="95"/>
+      <c r="AG16" s="93"/>
+      <c r="AH16" s="94"/>
+      <c r="AI16" s="94"/>
+      <c r="AJ16" s="94"/>
+      <c r="AK16" s="95"/>
       <c r="AL16" s="96"/>
-      <c r="AM16" s="97"/>
-      <c r="AN16" s="97"/>
-      <c r="AO16" s="97"/>
-      <c r="AP16" s="98"/>
+      <c r="AM16" s="94"/>
+      <c r="AN16" s="94"/>
+      <c r="AO16" s="94"/>
+      <c r="AP16" s="95"/>
       <c r="AQ16" s="96"/>
-      <c r="AR16" s="97"/>
-      <c r="AS16" s="97"/>
-      <c r="AT16" s="97"/>
-      <c r="AU16" s="98"/>
+      <c r="AR16" s="94"/>
+      <c r="AS16" s="94"/>
+      <c r="AT16" s="94"/>
+      <c r="AU16" s="95"/>
       <c r="AV16" s="96"/>
-      <c r="AW16" s="97"/>
-      <c r="AX16" s="97"/>
-      <c r="AY16" s="97"/>
-      <c r="AZ16" s="98"/>
+      <c r="AW16" s="94"/>
+      <c r="AX16" s="94"/>
+      <c r="AY16" s="94"/>
+      <c r="AZ16" s="95"/>
       <c r="BA16" s="96"/>
-      <c r="BB16" s="97"/>
-      <c r="BC16" s="97"/>
-      <c r="BD16" s="97"/>
-      <c r="BE16" s="98"/>
-      <c r="BF16" s="101" t="s">
+      <c r="BB16" s="94"/>
+      <c r="BC16" s="94"/>
+      <c r="BD16" s="94"/>
+      <c r="BE16" s="95"/>
+      <c r="BF16" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="BG16" s="102"/>
-      <c r="BH16" s="102"/>
+      <c r="BG16" s="100"/>
+      <c r="BH16" s="100"/>
       <c r="BI16" s="96"/>
-      <c r="BJ16" s="97"/>
-      <c r="BK16" s="97"/>
-      <c r="BL16" s="97"/>
-      <c r="BM16" s="98"/>
-      <c r="BN16" s="95"/>
-      <c r="BO16" s="95"/>
-      <c r="BP16" s="95"/>
-      <c r="BQ16" s="95"/>
-      <c r="BR16" s="95"/>
-      <c r="BS16" s="95"/>
-      <c r="BT16" s="95"/>
-      <c r="BU16" s="95"/>
-      <c r="BV16" s="95"/>
-      <c r="BW16" s="95"/>
-      <c r="BX16" s="100"/>
+      <c r="BJ16" s="94"/>
+      <c r="BK16" s="94"/>
+      <c r="BL16" s="94"/>
+      <c r="BM16" s="95"/>
+      <c r="BN16" s="101"/>
+      <c r="BO16" s="101"/>
+      <c r="BP16" s="101"/>
+      <c r="BQ16" s="101"/>
+      <c r="BR16" s="101"/>
+      <c r="BS16" s="101"/>
+      <c r="BT16" s="101"/>
+      <c r="BU16" s="101"/>
+      <c r="BV16" s="101"/>
+      <c r="BW16" s="101"/>
+      <c r="BX16" s="102"/>
     </row>
     <row r="17" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B17" s="91">
+      <c r="B17" s="103">
         <v>12</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="106" t="s">
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="108"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="109"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="111"/>
-      <c r="S17" s="109"/>
-      <c r="T17" s="109"/>
-      <c r="U17" s="109"/>
-      <c r="V17" s="110"/>
-      <c r="W17" s="111"/>
-      <c r="X17" s="109"/>
-      <c r="Y17" s="109"/>
-      <c r="Z17" s="109"/>
-      <c r="AA17" s="110"/>
-      <c r="AB17" s="111"/>
-      <c r="AC17" s="109"/>
-      <c r="AD17" s="109"/>
-      <c r="AE17" s="109"/>
-      <c r="AF17" s="110"/>
-      <c r="AG17" s="108"/>
-      <c r="AH17" s="109"/>
-      <c r="AI17" s="109"/>
-      <c r="AJ17" s="109"/>
-      <c r="AK17" s="110"/>
-      <c r="AL17" s="111"/>
-      <c r="AM17" s="109"/>
-      <c r="AN17" s="109"/>
-      <c r="AO17" s="109"/>
-      <c r="AP17" s="110"/>
-      <c r="AQ17" s="111"/>
-      <c r="AR17" s="109"/>
-      <c r="AS17" s="109"/>
-      <c r="AT17" s="109"/>
-      <c r="AU17" s="110"/>
-      <c r="AV17" s="111"/>
-      <c r="AW17" s="109"/>
-      <c r="AX17" s="109"/>
-      <c r="AY17" s="109"/>
-      <c r="AZ17" s="110"/>
-      <c r="BA17" s="111"/>
-      <c r="BB17" s="109"/>
-      <c r="BC17" s="109"/>
-      <c r="BD17" s="109"/>
-      <c r="BE17" s="110"/>
-      <c r="BF17" s="112" t="s">
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="114"/>
+      <c r="R17" s="115"/>
+      <c r="S17" s="113"/>
+      <c r="T17" s="113"/>
+      <c r="U17" s="113"/>
+      <c r="V17" s="114"/>
+      <c r="W17" s="115"/>
+      <c r="X17" s="113"/>
+      <c r="Y17" s="113"/>
+      <c r="Z17" s="113"/>
+      <c r="AA17" s="114"/>
+      <c r="AB17" s="115"/>
+      <c r="AC17" s="113"/>
+      <c r="AD17" s="113"/>
+      <c r="AE17" s="113"/>
+      <c r="AF17" s="114"/>
+      <c r="AG17" s="112"/>
+      <c r="AH17" s="113"/>
+      <c r="AI17" s="113"/>
+      <c r="AJ17" s="113"/>
+      <c r="AK17" s="114"/>
+      <c r="AL17" s="115"/>
+      <c r="AM17" s="113"/>
+      <c r="AN17" s="113"/>
+      <c r="AO17" s="113"/>
+      <c r="AP17" s="114"/>
+      <c r="AQ17" s="115"/>
+      <c r="AR17" s="113"/>
+      <c r="AS17" s="113"/>
+      <c r="AT17" s="113"/>
+      <c r="AU17" s="114"/>
+      <c r="AV17" s="115"/>
+      <c r="AW17" s="113"/>
+      <c r="AX17" s="113"/>
+      <c r="AY17" s="113"/>
+      <c r="AZ17" s="114"/>
+      <c r="BA17" s="115"/>
+      <c r="BB17" s="113"/>
+      <c r="BC17" s="113"/>
+      <c r="BD17" s="113"/>
+      <c r="BE17" s="114"/>
+      <c r="BF17" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="BG17" s="113"/>
-      <c r="BH17" s="113"/>
-      <c r="BI17" s="111"/>
-      <c r="BJ17" s="109"/>
-      <c r="BK17" s="109"/>
-      <c r="BL17" s="109"/>
-      <c r="BM17" s="110"/>
-      <c r="BN17" s="107"/>
-      <c r="BO17" s="107"/>
-      <c r="BP17" s="107"/>
-      <c r="BQ17" s="107"/>
-      <c r="BR17" s="107"/>
-      <c r="BS17" s="107"/>
-      <c r="BT17" s="107"/>
-      <c r="BU17" s="107"/>
-      <c r="BV17" s="107"/>
-      <c r="BW17" s="107"/>
-      <c r="BX17" s="114"/>
+      <c r="BG17" s="118"/>
+      <c r="BH17" s="118"/>
+      <c r="BI17" s="115"/>
+      <c r="BJ17" s="113"/>
+      <c r="BK17" s="113"/>
+      <c r="BL17" s="113"/>
+      <c r="BM17" s="114"/>
+      <c r="BN17" s="111"/>
+      <c r="BO17" s="111"/>
+      <c r="BP17" s="111"/>
+      <c r="BQ17" s="111"/>
+      <c r="BR17" s="111"/>
+      <c r="BS17" s="111"/>
+      <c r="BT17" s="111"/>
+      <c r="BU17" s="111"/>
+      <c r="BV17" s="111"/>
+      <c r="BW17" s="111"/>
+      <c r="BX17" s="116"/>
     </row>
     <row r="18" spans="2:76" ht="16.5">
       <c r="B18" s="44" t="s">
@@ -7588,6 +7577,166 @@
     <row r="22" spans="2:76" ht="9" customHeight="1"/>
   </sheetData>
   <mergeCells count="184">
+    <mergeCell ref="AQ17:AU17"/>
+    <mergeCell ref="AV17:AZ17"/>
+    <mergeCell ref="BA17:BE17"/>
+    <mergeCell ref="BF17:BH17"/>
+    <mergeCell ref="BI17:BM17"/>
+    <mergeCell ref="BN17:BX17"/>
+    <mergeCell ref="BI16:BM16"/>
+    <mergeCell ref="BN16:BX16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="R17:V17"/>
+    <mergeCell ref="W17:AA17"/>
+    <mergeCell ref="AB17:AF17"/>
+    <mergeCell ref="AG17:AK17"/>
+    <mergeCell ref="AL17:AP17"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="AL16:AP16"/>
+    <mergeCell ref="AQ16:AU16"/>
+    <mergeCell ref="AV16:AZ16"/>
+    <mergeCell ref="BA16:BE16"/>
+    <mergeCell ref="BF16:BH16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="BA14:BE14"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="R16:V16"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="BI15:BM15"/>
+    <mergeCell ref="BN15:BX15"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="AL15:AP15"/>
+    <mergeCell ref="AQ15:AU15"/>
+    <mergeCell ref="AV15:AZ15"/>
+    <mergeCell ref="BA15:BE15"/>
+    <mergeCell ref="BF15:BH15"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="R15:V15"/>
+    <mergeCell ref="W15:AA15"/>
+    <mergeCell ref="AB15:AF15"/>
+    <mergeCell ref="AQ14:AU14"/>
+    <mergeCell ref="AV14:AZ14"/>
+    <mergeCell ref="BI10:BM10"/>
+    <mergeCell ref="BF14:BH14"/>
+    <mergeCell ref="BI14:BM14"/>
+    <mergeCell ref="BN14:BX14"/>
+    <mergeCell ref="BI13:BM13"/>
+    <mergeCell ref="BN13:BX13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="R14:V14"/>
+    <mergeCell ref="W14:AA14"/>
+    <mergeCell ref="AB14:AF14"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AL14:AP14"/>
+    <mergeCell ref="AG13:AK13"/>
+    <mergeCell ref="AL13:AP13"/>
+    <mergeCell ref="AQ13:AU13"/>
+    <mergeCell ref="AV13:AZ13"/>
+    <mergeCell ref="BA13:BE13"/>
+    <mergeCell ref="BF13:BH13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="R13:V13"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="AQ12:AU12"/>
+    <mergeCell ref="AV12:AZ12"/>
+    <mergeCell ref="BA12:BE12"/>
+    <mergeCell ref="BF12:BH12"/>
+    <mergeCell ref="BI12:BM12"/>
+    <mergeCell ref="BN12:BX12"/>
+    <mergeCell ref="BN10:BX10"/>
+    <mergeCell ref="B11:BX11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="R12:V12"/>
+    <mergeCell ref="W12:AA12"/>
+    <mergeCell ref="AB12:AF12"/>
+    <mergeCell ref="AG12:AK12"/>
+    <mergeCell ref="AL12:AP12"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="AQ10:AU10"/>
+    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="BA10:BE10"/>
+    <mergeCell ref="BF10:BH10"/>
+    <mergeCell ref="BN7:BX7"/>
+    <mergeCell ref="AL7:AP7"/>
+    <mergeCell ref="AQ7:AU7"/>
+    <mergeCell ref="AV7:AZ7"/>
+    <mergeCell ref="BA7:BE7"/>
+    <mergeCell ref="BF9:BH9"/>
+    <mergeCell ref="BI9:BM9"/>
+    <mergeCell ref="BN9:BX9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="AL9:AP9"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BA9:BE9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="BN6:BX6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="AG8:AK8"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="BN8:BX8"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BM8"/>
+    <mergeCell ref="BF7:BH7"/>
+    <mergeCell ref="BI7:BM7"/>
+    <mergeCell ref="AQ5:AU5"/>
+    <mergeCell ref="AV5:AZ5"/>
+    <mergeCell ref="BA5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BM5"/>
+    <mergeCell ref="AV6:AZ6"/>
+    <mergeCell ref="BA6:BE6"/>
+    <mergeCell ref="BF6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="AB6:AF6"/>
+    <mergeCell ref="AG6:AK6"/>
+    <mergeCell ref="AL6:AP6"/>
+    <mergeCell ref="AQ6:AU6"/>
     <mergeCell ref="BI3:BM3"/>
     <mergeCell ref="BN3:BX3"/>
     <mergeCell ref="B4:BX4"/>
@@ -7612,166 +7761,6 @@
     <mergeCell ref="AB3:AF3"/>
     <mergeCell ref="BN5:BX5"/>
     <mergeCell ref="AL5:AP5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="AB6:AF6"/>
-    <mergeCell ref="AG6:AK6"/>
-    <mergeCell ref="AL6:AP6"/>
-    <mergeCell ref="AQ6:AU6"/>
-    <mergeCell ref="AQ5:AU5"/>
-    <mergeCell ref="AV5:AZ5"/>
-    <mergeCell ref="BA5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BM5"/>
-    <mergeCell ref="AV6:AZ6"/>
-    <mergeCell ref="BA6:BE6"/>
-    <mergeCell ref="BF6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN6:BX6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AB8:AF8"/>
-    <mergeCell ref="AG8:AK8"/>
-    <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="AG7:AK7"/>
-    <mergeCell ref="BN8:BX8"/>
-    <mergeCell ref="AL8:AP8"/>
-    <mergeCell ref="AQ8:AU8"/>
-    <mergeCell ref="AV8:AZ8"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BM8"/>
-    <mergeCell ref="BF7:BH7"/>
-    <mergeCell ref="BI7:BM7"/>
-    <mergeCell ref="BN7:BX7"/>
-    <mergeCell ref="AL7:AP7"/>
-    <mergeCell ref="AQ7:AU7"/>
-    <mergeCell ref="AV7:AZ7"/>
-    <mergeCell ref="BA7:BE7"/>
-    <mergeCell ref="BF9:BH9"/>
-    <mergeCell ref="BI9:BM9"/>
-    <mergeCell ref="BN9:BX9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB10:AF10"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="AL9:AP9"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="BA9:BE9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="W9:AA9"/>
-    <mergeCell ref="AB13:AF13"/>
-    <mergeCell ref="AQ12:AU12"/>
-    <mergeCell ref="AV12:AZ12"/>
-    <mergeCell ref="BA12:BE12"/>
-    <mergeCell ref="BF12:BH12"/>
-    <mergeCell ref="BI12:BM12"/>
-    <mergeCell ref="BN12:BX12"/>
-    <mergeCell ref="BN10:BX10"/>
-    <mergeCell ref="B11:BX11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="R12:V12"/>
-    <mergeCell ref="W12:AA12"/>
-    <mergeCell ref="AB12:AF12"/>
-    <mergeCell ref="AG12:AK12"/>
-    <mergeCell ref="AL12:AP12"/>
-    <mergeCell ref="AL10:AP10"/>
-    <mergeCell ref="AQ10:AU10"/>
-    <mergeCell ref="AV10:AZ10"/>
-    <mergeCell ref="BA10:BE10"/>
-    <mergeCell ref="BF10:BH10"/>
-    <mergeCell ref="BI10:BM10"/>
-    <mergeCell ref="BF14:BH14"/>
-    <mergeCell ref="BI14:BM14"/>
-    <mergeCell ref="BN14:BX14"/>
-    <mergeCell ref="BI13:BM13"/>
-    <mergeCell ref="BN13:BX13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="R14:V14"/>
-    <mergeCell ref="W14:AA14"/>
-    <mergeCell ref="AB14:AF14"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="AL14:AP14"/>
-    <mergeCell ref="AG13:AK13"/>
-    <mergeCell ref="AL13:AP13"/>
-    <mergeCell ref="AQ13:AU13"/>
-    <mergeCell ref="AV13:AZ13"/>
-    <mergeCell ref="BA13:BE13"/>
-    <mergeCell ref="BF13:BH13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="R13:V13"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="R15:V15"/>
-    <mergeCell ref="W15:AA15"/>
-    <mergeCell ref="AB15:AF15"/>
-    <mergeCell ref="AQ14:AU14"/>
-    <mergeCell ref="AV14:AZ14"/>
-    <mergeCell ref="BA14:BE14"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="R16:V16"/>
-    <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="AB16:AF16"/>
-    <mergeCell ref="BI15:BM15"/>
-    <mergeCell ref="BN15:BX15"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="AL15:AP15"/>
-    <mergeCell ref="AQ15:AU15"/>
-    <mergeCell ref="AV15:AZ15"/>
-    <mergeCell ref="BA15:BE15"/>
-    <mergeCell ref="BF15:BH15"/>
-    <mergeCell ref="AQ17:AU17"/>
-    <mergeCell ref="AV17:AZ17"/>
-    <mergeCell ref="BA17:BE17"/>
-    <mergeCell ref="BF17:BH17"/>
-    <mergeCell ref="BI17:BM17"/>
-    <mergeCell ref="BN17:BX17"/>
-    <mergeCell ref="BI16:BM16"/>
-    <mergeCell ref="BN16:BX16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="R17:V17"/>
-    <mergeCell ref="W17:AA17"/>
-    <mergeCell ref="AB17:AF17"/>
-    <mergeCell ref="AG17:AK17"/>
-    <mergeCell ref="AL17:AP17"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="AL16:AP16"/>
-    <mergeCell ref="AQ16:AU16"/>
-    <mergeCell ref="AV16:AZ16"/>
-    <mergeCell ref="BA16:BE16"/>
-    <mergeCell ref="BF16:BH16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="M5:BE10 BI5:BM10 M12:BE17 BI12:BM17">

--- a/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ8100_消費税率マスタメンテナンス）.xlsx
+++ b/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ8100_消費税率マスタメンテナンス）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\youkei\Documents\50.単体テスト\01_単体テスト設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B9A521-6BC9-4362-B132-50AFADBE2082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7561E9-F545-4FB3-B3C1-A39AC8008179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="880" activeTab="1" xr2:uid="{8AE4BD12-0B13-430A-A994-A2059EDE9970}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="880" xr2:uid="{8AE4BD12-0B13-430A-A994-A2059EDE9970}"/>
   </bookViews>
   <sheets>
     <sheet name="実施結果報告書" sheetId="17" r:id="rId1"/>
@@ -218,7 +218,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">GJ8100_消費税率一覧_項目チェック!$A$1:$CA$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">GJ8101_消費税率マスタメンテナンス_チェックリスト!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">GJ8101_消費税率マスタメンテナンス_項目チェック!$A$1:$CA$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">実施結果報告書!$A$1:$J$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">実施結果報告書!$A$1:$K$20</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">GJ8100_消費税率一覧_項目チェック!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">GJ8101_消費税率マスタメンテナンス_項目チェック!#REF!</definedName>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="159">
   <si>
     <t>新規登録</t>
     <rPh sb="0" eb="4">
@@ -369,13 +369,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>既存バグ</t>
-    <rPh sb="0" eb="2">
-      <t>キゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>比較テスト結果</t>
     <rPh sb="0" eb="2">
       <t>ヒカク</t>
@@ -426,20 +419,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>既存バグ　
-修正完了日</t>
-    <rPh sb="0" eb="2">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>シュウセイカンリョウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>検索画面チェックリスト</t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
@@ -526,16 +505,6 @@
   </si>
   <si>
     <t>Edge</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>解像度1920×1080　ディスプレイ100%　ブラウザ100%で正常に表示すること</t>
-    <rPh sb="33" eb="35">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="12"/>
   </si>
   <si>
@@ -1474,6 +1443,45 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解像度1920×1080　ディスプレイ100%　ブラウザ100%で正常に表示できること</t>
+    <rPh sb="33" eb="35">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>テスト
+再確認</t>
+    <rPh sb="4" eb="5">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バグ記録</t>
+    <rPh sb="2" eb="4">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バグ　
+修正完了日</t>
+    <rPh sb="4" eb="8">
+      <t>シュウセイカンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1682,7 +1690,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -2294,6 +2302,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2310,7 +2327,7 @@
     <xf numFmtId="177" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="177" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2324,9 +2341,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2442,8 +2456,11 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="46" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2490,15 +2507,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2686,6 +2697,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="21" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2698,7 +2721,21 @@
     <cellStyle name="標準 5" xfId="4" xr:uid="{995CF52B-56E0-4E71-A9B5-D761A557A3F5}"/>
     <cellStyle name="標準 6" xfId="5" xr:uid="{5AB37F2C-1356-43C0-A642-8019E4F0971A}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3650,9 +3687,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
@@ -3660,96 +3697,100 @@
   <cols>
     <col min="3" max="3" width="44.625" customWidth="1"/>
     <col min="4" max="4" width="7.75" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="9" max="9" width="17.25" customWidth="1"/>
-    <col min="10" max="10" width="26.875" customWidth="1"/>
-    <col min="12" max="13" width="9" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="5.5" customWidth="1"/>
+    <col min="7" max="7" width="7.75" customWidth="1"/>
+    <col min="10" max="10" width="17.25" customWidth="1"/>
+    <col min="11" max="11" width="26.875" customWidth="1"/>
+    <col min="13" max="14" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1">
       <c r="A1" s="58" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
       <c r="D1" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="51"/>
+        <v>8</v>
+      </c>
+      <c r="E1" s="127"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="51" t="s">
+        <v>148</v>
+      </c>
       <c r="H1" s="51"/>
-      <c r="I1" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
         <v>61</v>
       </c>
-      <c r="M1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:14" ht="18.75" customHeight="1">
       <c r="A2" s="59"/>
       <c r="B2" s="59"/>
       <c r="C2" s="59"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="51"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="51"/>
-      <c r="L2" t="s">
-        <v>62</v>
-      </c>
+      <c r="I2" s="51"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="51"/>
       <c r="M2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1">
       <c r="A3" s="59"/>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
       <c r="D3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="L3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="E3" s="127"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="52"/>
+      <c r="M3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1">
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="53"/>
-      <c r="L4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1">
+      <c r="D4" s="61"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="53"/>
+      <c r="M4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1">
       <c r="A6" s="54" t="s">
         <v>1</v>
       </c>
@@ -3759,27 +3800,30 @@
       <c r="C6" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="125" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="125" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="125" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="125" t="s">
+        <v>158</v>
+      </c>
+      <c r="J6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="48"/>
-    </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1">
+      <c r="K6" s="48"/>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1">
       <c r="A7" s="55"/>
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
@@ -3788,217 +3832,245 @@
       <c r="F7" s="46"/>
       <c r="G7" s="46"/>
       <c r="H7" s="46"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
-    </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1">
+      <c r="I7" s="46"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="50"/>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="51"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="51"/>
-    </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1">
+      <c r="K8" s="51"/>
+    </row>
+    <row r="9" spans="1:14" ht="18" customHeight="1">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="51"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="51"/>
-    </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1">
+      <c r="K9" s="51"/>
+    </row>
+    <row r="10" spans="1:14" ht="18" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="4"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="51"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="51"/>
-    </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1">
+      <c r="K10" s="51"/>
+    </row>
+    <row r="11" spans="1:14" ht="18" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="4"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="51"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="51"/>
-    </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1">
+      <c r="K11" s="51"/>
+    </row>
+    <row r="12" spans="1:14" ht="18" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="4"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="51"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="51"/>
-    </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1">
+      <c r="K12" s="51"/>
+    </row>
+    <row r="13" spans="1:14" ht="18" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="51"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="51"/>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1">
+      <c r="K13" s="51"/>
+    </row>
+    <row r="14" spans="1:14" ht="18" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="51"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="51"/>
-    </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1">
+      <c r="K14" s="51"/>
+    </row>
+    <row r="15" spans="1:14" ht="18" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="51"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="51"/>
-    </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1">
+      <c r="K15" s="51"/>
+    </row>
+    <row r="16" spans="1:14" ht="18" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="51"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="51"/>
-    </row>
-    <row r="17" spans="1:10" ht="18" customHeight="1">
+      <c r="K16" s="51"/>
+    </row>
+    <row r="17" spans="1:11" ht="18" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="51"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="51"/>
-    </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1">
+      <c r="K17" s="51"/>
+    </row>
+    <row r="18" spans="1:11" ht="18" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="51"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="51"/>
-    </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1">
+      <c r="K18" s="51"/>
+    </row>
+    <row r="19" spans="1:11" ht="18" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="51"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="4"/>
       <c r="J19" s="51"/>
-    </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1">
+      <c r="K19" s="51"/>
+    </row>
+    <row r="20" spans="1:11" ht="18" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="51"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="51"/>
-    </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1"/>
-    <row r="22" spans="1:10" ht="18" customHeight="1"/>
-    <row r="23" spans="1:10" ht="18" customHeight="1"/>
+      <c r="K20" s="51"/>
+    </row>
+    <row r="21" spans="1:11" ht="18" customHeight="1"/>
+    <row r="22" spans="1:11" ht="18" customHeight="1"/>
+    <row r="23" spans="1:11" ht="18" customHeight="1"/>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="I20:J20"/>
+  <mergeCells count="32">
+    <mergeCell ref="J20:K20"/>
     <mergeCell ref="A1:C4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
     <mergeCell ref="D1:E2"/>
     <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F1:H2"/>
-    <mergeCell ref="F3:H4"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="G3:I4"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="G8:G20">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"―"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G20" xr:uid="{29D4A5E1-CE52-455C-B84B-E7790B39EEFF}">
+      <formula1>$M$1:$M$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4006,476 +4078,476 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A698B6-0D8F-4E36-894C-FED9BE534031}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.375" style="31" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="44.125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="1.875" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="10.625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="44.125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="1.875" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="24">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="B2" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" ht="24">
-      <c r="A2" s="11" t="s">
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75">
+      <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75">
-      <c r="A3" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="16" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="18.75">
+      <c r="A4" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
+    </row>
+    <row r="5" spans="1:8" ht="37.5">
+      <c r="A5" s="19">
+        <v>1</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="C5" s="20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="18.75">
-      <c r="A4" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
-    </row>
-    <row r="5" spans="1:8" ht="37.5">
-      <c r="A5" s="20">
+      <c r="D5" s="21">
         <v>1</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="22">
-        <v>1</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
+      <c r="E5" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="37.5">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A6, -1, 0)), OFFSET(A6, -1, 0) + 1, OFFSET(A5, -1, 0) + 1)</f>
         <v>2</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="37.5">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <f t="shared" ref="A7:A16" ca="1" si="0">IF(ISNUMBER(OFFSET(A7, -1, 0)), OFFSET(A7, -1, 0) + 1, OFFSET(A6, -1, 0) + 1)</f>
         <v>3</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A8" s="20">
+      <c r="B7" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A8" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A8, -1, 0)), OFFSET(A8, -1, 0) + 1, OFFSET(A15, -1, 0) + 1)</f>
         <v>4</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
+      <c r="B8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" ht="18.75">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A9, -1, 0)), OFFSET(A9, -1, 0) + 1, OFFSET(A7, -1, 0) + 1)</f>
         <v>5</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
+      <c r="B9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:8" ht="18.75">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
+      <c r="B10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="37.5">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A11, -1, 0)), OFFSET(A11, -1, 0) + 1, OFFSET(A10, -1, 0) + 1)</f>
         <v>7</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
+      <c r="B11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="18.75">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
+      <c r="E12" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="18.75">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
+      <c r="B13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="18.75">
-      <c r="A14" s="20">
+      <c r="A14" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A14, -1, 0)), OFFSET(A14, -1, 0) + 1, OFFSET(A12, -1, 0) + 1)</f>
         <v>10</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A15" s="67" t="s">
+      <c r="E14" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="69"/>
-    </row>
-    <row r="16" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A16" s="20">
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A15" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
+    </row>
+    <row r="16" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A16" s="19">
         <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="25"/>
-    </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A17" s="20">
+      <c r="B16" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A17" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A17, -1, 0)), OFFSET(A17, -1, 0) + 1, OFFSET(A16, -1, 0) + 1)</f>
         <v>12</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A18" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="69"/>
-    </row>
-    <row r="19" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A19" s="20">
+      <c r="B17" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A18" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
+    </row>
+    <row r="19" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A19" s="19">
         <f t="shared" ref="A19:A22" ca="1" si="1">IF(ISNUMBER(OFFSET(A19, -1, 0)), OFFSET(A19, -1, 0) + 1, OFFSET(A18, -1, 0) + 1)</f>
         <v>13</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="25"/>
-    </row>
-    <row r="20" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A20" s="20">
+      <c r="D19" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A20" s="19">
         <f t="shared" ca="1" si="1"/>
         <v>14</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="21" t="s">
+      <c r="B20" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35"/>
-    </row>
-    <row r="21" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A21" s="20">
+      <c r="C20" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="34"/>
+    </row>
+    <row r="21" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A21" s="19">
         <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="33" t="s">
+      <c r="B21" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
-    </row>
-    <row r="22" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A22" s="20">
+      <c r="C21" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
+    </row>
+    <row r="22" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A22" s="19">
         <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="33" t="s">
+      <c r="B22" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="35"/>
+      <c r="C22" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
     </row>
     <row r="23" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A23" s="26">
+      <c r="A23" s="25">
         <f ca="1">IF(ISNUMBER(OFFSET(A23, -1, 0)), OFFSET(A23, -1, 0) + 1, OFFSET(A20, -1, 0) + 1)</f>
         <v>17</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29" t="s">
-        <v>142</v>
+      <c r="B23" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="11.25" customHeight="1"/>
@@ -4488,26 +4560,26 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F5:F14">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F17">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F23">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4518,9 +4590,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{447F42BF-688B-4B64-A853-09C2B81229EA}">
           <x14:formula1>
-            <xm:f>実施結果報告書!$L$1:$L$4</xm:f>
+            <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F19:F23 F16:F17 F5:F14</xm:sqref>
+          <xm:sqref>F19:F23 F5:F14 F16:F17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4536,703 +4608,703 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="36"/>
-    <col min="2" max="4" width="1.25" style="36" customWidth="1"/>
-    <col min="5" max="17" width="1.625" style="36"/>
-    <col min="18" max="22" width="2" style="36" customWidth="1"/>
-    <col min="23" max="47" width="1.625" style="36"/>
-    <col min="48" max="57" width="2" style="36" customWidth="1"/>
-    <col min="58" max="58" width="3.5" style="36" customWidth="1"/>
-    <col min="59" max="60" width="3.375" style="36" customWidth="1"/>
-    <col min="61" max="16384" width="1.625" style="36"/>
+    <col min="1" max="1" width="1.625" style="35"/>
+    <col min="2" max="4" width="1.25" style="35" customWidth="1"/>
+    <col min="5" max="17" width="1.625" style="35"/>
+    <col min="18" max="22" width="2" style="35" customWidth="1"/>
+    <col min="23" max="47" width="1.625" style="35"/>
+    <col min="48" max="57" width="2" style="35" customWidth="1"/>
+    <col min="58" max="58" width="3.5" style="35" customWidth="1"/>
+    <col min="59" max="60" width="3.375" style="35" customWidth="1"/>
+    <col min="61" max="16384" width="1.625" style="35"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:76" ht="15" customHeight="1">
-      <c r="B2" s="36" t="s">
-        <v>70</v>
+      <c r="B2" s="35" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:76" ht="15" customHeight="1">
-      <c r="B3" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="86" t="s">
+      <c r="B3" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="92" t="s">
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="85"/>
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="71"/>
+      <c r="AQ3" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR3" s="70"/>
+      <c r="AS3" s="70"/>
+      <c r="AT3" s="70"/>
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW3" s="70"/>
+      <c r="AX3" s="70"/>
+      <c r="AY3" s="70"/>
+      <c r="AZ3" s="71"/>
+      <c r="BA3" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB3" s="85"/>
+      <c r="BC3" s="85"/>
+      <c r="BD3" s="85"/>
+      <c r="BE3" s="86"/>
+      <c r="BF3" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="88"/>
-      <c r="AB3" s="87" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="73"/>
-      <c r="AL3" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="85" t="s">
+      <c r="BG3" s="88"/>
+      <c r="BH3" s="88"/>
+      <c r="BI3" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ3" s="70"/>
+      <c r="BK3" s="70"/>
+      <c r="BL3" s="70"/>
+      <c r="BM3" s="71"/>
+      <c r="BN3" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="BO3" s="72"/>
+      <c r="BP3" s="72"/>
+      <c r="BQ3" s="72"/>
+      <c r="BR3" s="72"/>
+      <c r="BS3" s="72"/>
+      <c r="BT3" s="72"/>
+      <c r="BU3" s="72"/>
+      <c r="BV3" s="72"/>
+      <c r="BW3" s="72"/>
+      <c r="BX3" s="73"/>
+    </row>
+    <row r="4" spans="2:76" ht="16.5">
+      <c r="B4" s="74">
+        <v>1</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="80"/>
+      <c r="AJ4" s="80"/>
+      <c r="AK4" s="81"/>
+      <c r="AL4" s="82"/>
+      <c r="AM4" s="80"/>
+      <c r="AN4" s="80"/>
+      <c r="AO4" s="80"/>
+      <c r="AP4" s="81"/>
+      <c r="AQ4" s="82"/>
+      <c r="AR4" s="80"/>
+      <c r="AS4" s="80"/>
+      <c r="AT4" s="80"/>
+      <c r="AU4" s="81"/>
+      <c r="AV4" s="82"/>
+      <c r="AW4" s="80"/>
+      <c r="AX4" s="80"/>
+      <c r="AY4" s="80"/>
+      <c r="AZ4" s="81"/>
+      <c r="BA4" s="82"/>
+      <c r="BB4" s="80"/>
+      <c r="BC4" s="80"/>
+      <c r="BD4" s="80"/>
+      <c r="BE4" s="81"/>
+      <c r="BF4" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="82"/>
+      <c r="BJ4" s="80"/>
+      <c r="BK4" s="80"/>
+      <c r="BL4" s="80"/>
+      <c r="BM4" s="81"/>
+      <c r="BN4" s="68"/>
+      <c r="BO4" s="68"/>
+      <c r="BP4" s="68"/>
+      <c r="BQ4" s="68"/>
+      <c r="BR4" s="68"/>
+      <c r="BS4" s="68"/>
+      <c r="BT4" s="68"/>
+      <c r="BU4" s="68"/>
+      <c r="BV4" s="68"/>
+      <c r="BW4" s="68"/>
+      <c r="BX4" s="69"/>
+    </row>
+    <row r="5" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B5" s="101">
+        <v>2</v>
+      </c>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="92"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="92"/>
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="92"/>
+      <c r="AF5" s="93"/>
+      <c r="AG5" s="94"/>
+      <c r="AH5" s="92"/>
+      <c r="AI5" s="92"/>
+      <c r="AJ5" s="92"/>
+      <c r="AK5" s="93"/>
+      <c r="AL5" s="94"/>
+      <c r="AM5" s="92"/>
+      <c r="AN5" s="92"/>
+      <c r="AO5" s="92"/>
+      <c r="AP5" s="93"/>
+      <c r="AQ5" s="94"/>
+      <c r="AR5" s="92"/>
+      <c r="AS5" s="92"/>
+      <c r="AT5" s="92"/>
+      <c r="AU5" s="93"/>
+      <c r="AV5" s="94"/>
+      <c r="AW5" s="92"/>
+      <c r="AX5" s="92"/>
+      <c r="AY5" s="92"/>
+      <c r="AZ5" s="93"/>
+      <c r="BA5" s="94"/>
+      <c r="BB5" s="92"/>
+      <c r="BC5" s="92"/>
+      <c r="BD5" s="92"/>
+      <c r="BE5" s="93"/>
+      <c r="BF5" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG5" s="98"/>
+      <c r="BH5" s="98"/>
+      <c r="BI5" s="94"/>
+      <c r="BJ5" s="92"/>
+      <c r="BK5" s="92"/>
+      <c r="BL5" s="92"/>
+      <c r="BM5" s="93"/>
+      <c r="BN5" s="99"/>
+      <c r="BO5" s="99"/>
+      <c r="BP5" s="99"/>
+      <c r="BQ5" s="99"/>
+      <c r="BR5" s="99"/>
+      <c r="BS5" s="99"/>
+      <c r="BT5" s="99"/>
+      <c r="BU5" s="99"/>
+      <c r="BV5" s="99"/>
+      <c r="BW5" s="99"/>
+      <c r="BX5" s="100"/>
+    </row>
+    <row r="6" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B6" s="101">
+        <v>3</v>
+      </c>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="93"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="93"/>
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="92"/>
+      <c r="AF6" s="93"/>
+      <c r="AG6" s="94"/>
+      <c r="AH6" s="92"/>
+      <c r="AI6" s="92"/>
+      <c r="AJ6" s="92"/>
+      <c r="AK6" s="93"/>
+      <c r="AL6" s="94"/>
+      <c r="AM6" s="92"/>
+      <c r="AN6" s="92"/>
+      <c r="AO6" s="92"/>
+      <c r="AP6" s="93"/>
+      <c r="AQ6" s="94"/>
+      <c r="AR6" s="92"/>
+      <c r="AS6" s="92"/>
+      <c r="AT6" s="92"/>
+      <c r="AU6" s="93"/>
+      <c r="AV6" s="94"/>
+      <c r="AW6" s="92"/>
+      <c r="AX6" s="92"/>
+      <c r="AY6" s="92"/>
+      <c r="AZ6" s="93"/>
+      <c r="BA6" s="94"/>
+      <c r="BB6" s="92"/>
+      <c r="BC6" s="92"/>
+      <c r="BD6" s="92"/>
+      <c r="BE6" s="93"/>
+      <c r="BF6" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG6" s="98"/>
+      <c r="BH6" s="98"/>
+      <c r="BI6" s="94"/>
+      <c r="BJ6" s="92"/>
+      <c r="BK6" s="92"/>
+      <c r="BL6" s="92"/>
+      <c r="BM6" s="93"/>
+      <c r="BN6" s="99"/>
+      <c r="BO6" s="99"/>
+      <c r="BP6" s="99"/>
+      <c r="BQ6" s="99"/>
+      <c r="BR6" s="99"/>
+      <c r="BS6" s="99"/>
+      <c r="BT6" s="99"/>
+      <c r="BU6" s="99"/>
+      <c r="BV6" s="99"/>
+      <c r="BW6" s="99"/>
+      <c r="BX6" s="100"/>
+    </row>
+    <row r="7" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B7" s="101">
+        <v>4</v>
+      </c>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="92"/>
+      <c r="AE7" s="92"/>
+      <c r="AF7" s="93"/>
+      <c r="AG7" s="94"/>
+      <c r="AH7" s="92"/>
+      <c r="AI7" s="92"/>
+      <c r="AJ7" s="92"/>
+      <c r="AK7" s="93"/>
+      <c r="AL7" s="94"/>
+      <c r="AM7" s="92"/>
+      <c r="AN7" s="92"/>
+      <c r="AO7" s="92"/>
+      <c r="AP7" s="93"/>
+      <c r="AQ7" s="94"/>
+      <c r="AR7" s="92"/>
+      <c r="AS7" s="92"/>
+      <c r="AT7" s="92"/>
+      <c r="AU7" s="93"/>
+      <c r="AV7" s="94"/>
+      <c r="AW7" s="92"/>
+      <c r="AX7" s="92"/>
+      <c r="AY7" s="92"/>
+      <c r="AZ7" s="93"/>
+      <c r="BA7" s="94"/>
+      <c r="BB7" s="92"/>
+      <c r="BC7" s="92"/>
+      <c r="BD7" s="92"/>
+      <c r="BE7" s="93"/>
+      <c r="BF7" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG7" s="98"/>
+      <c r="BH7" s="98"/>
+      <c r="BI7" s="94"/>
+      <c r="BJ7" s="92"/>
+      <c r="BK7" s="92"/>
+      <c r="BL7" s="92"/>
+      <c r="BM7" s="93"/>
+      <c r="BN7" s="99"/>
+      <c r="BO7" s="99"/>
+      <c r="BP7" s="99"/>
+      <c r="BQ7" s="99"/>
+      <c r="BR7" s="99"/>
+      <c r="BS7" s="99"/>
+      <c r="BT7" s="99"/>
+      <c r="BU7" s="99"/>
+      <c r="BV7" s="99"/>
+      <c r="BW7" s="99"/>
+      <c r="BX7" s="100"/>
+    </row>
+    <row r="8" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B8" s="105">
+        <v>5</v>
+      </c>
+      <c r="C8" s="106"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="113"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="111"/>
+      <c r="Y8" s="111"/>
+      <c r="Z8" s="111"/>
+      <c r="AA8" s="112"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="111"/>
+      <c r="AD8" s="111"/>
+      <c r="AE8" s="111"/>
+      <c r="AF8" s="112"/>
+      <c r="AG8" s="113"/>
+      <c r="AH8" s="111"/>
+      <c r="AI8" s="111"/>
+      <c r="AJ8" s="111"/>
+      <c r="AK8" s="112"/>
+      <c r="AL8" s="113"/>
+      <c r="AM8" s="111"/>
+      <c r="AN8" s="111"/>
+      <c r="AO8" s="111"/>
+      <c r="AP8" s="112"/>
+      <c r="AQ8" s="113"/>
+      <c r="AR8" s="111"/>
+      <c r="AS8" s="111"/>
+      <c r="AT8" s="111"/>
+      <c r="AU8" s="112"/>
+      <c r="AV8" s="113"/>
+      <c r="AW8" s="111"/>
+      <c r="AX8" s="111"/>
+      <c r="AY8" s="111"/>
+      <c r="AZ8" s="112"/>
+      <c r="BA8" s="110"/>
+      <c r="BB8" s="111"/>
+      <c r="BC8" s="111"/>
+      <c r="BD8" s="111"/>
+      <c r="BE8" s="112"/>
+      <c r="BF8" s="115" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG8" s="116"/>
+      <c r="BH8" s="116"/>
+      <c r="BI8" s="113"/>
+      <c r="BJ8" s="111"/>
+      <c r="BK8" s="111"/>
+      <c r="BL8" s="111"/>
+      <c r="BM8" s="112"/>
+      <c r="BN8" s="109"/>
+      <c r="BO8" s="109"/>
+      <c r="BP8" s="109"/>
+      <c r="BQ8" s="109"/>
+      <c r="BR8" s="109"/>
+      <c r="BS8" s="109"/>
+      <c r="BT8" s="109"/>
+      <c r="BU8" s="109"/>
+      <c r="BV8" s="109"/>
+      <c r="BW8" s="109"/>
+      <c r="BX8" s="114"/>
+    </row>
+    <row r="9" spans="2:76" ht="16.5">
+      <c r="B9" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:76" ht="16.5">
+      <c r="I10" s="35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="2:76" ht="16.5">
+      <c r="I11" s="35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="2:76" ht="15" customHeight="1">
+      <c r="B13" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:76" ht="15" customHeight="1">
+      <c r="B14" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="72"/>
-      <c r="AU3" s="73"/>
-      <c r="AV3" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="72"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="BB3" s="87"/>
-      <c r="BC3" s="87"/>
-      <c r="BD3" s="87"/>
-      <c r="BE3" s="88"/>
-      <c r="BF3" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="BG3" s="90"/>
-      <c r="BH3" s="90"/>
-      <c r="BI3" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ3" s="72"/>
-      <c r="BK3" s="72"/>
-      <c r="BL3" s="72"/>
-      <c r="BM3" s="73"/>
-      <c r="BN3" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="BO3" s="74"/>
-      <c r="BP3" s="74"/>
-      <c r="BQ3" s="74"/>
-      <c r="BR3" s="74"/>
-      <c r="BS3" s="74"/>
-      <c r="BT3" s="74"/>
-      <c r="BU3" s="74"/>
-      <c r="BV3" s="74"/>
-      <c r="BW3" s="74"/>
-      <c r="BX3" s="75"/>
-    </row>
-    <row r="4" spans="2:76" ht="16.5">
-      <c r="B4" s="76">
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="85"/>
+      <c r="AC14" s="86"/>
+    </row>
+    <row r="15" spans="2:76" ht="15" customHeight="1">
+      <c r="B15" s="117">
         <v>1</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="82"/>
-      <c r="AE4" s="82"/>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="82"/>
-      <c r="AI4" s="82"/>
-      <c r="AJ4" s="82"/>
-      <c r="AK4" s="83"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="82"/>
-      <c r="AN4" s="82"/>
-      <c r="AO4" s="82"/>
-      <c r="AP4" s="83"/>
-      <c r="AQ4" s="84"/>
-      <c r="AR4" s="82"/>
-      <c r="AS4" s="82"/>
-      <c r="AT4" s="82"/>
-      <c r="AU4" s="83"/>
-      <c r="AV4" s="84"/>
-      <c r="AW4" s="82"/>
-      <c r="AX4" s="82"/>
-      <c r="AY4" s="82"/>
-      <c r="AZ4" s="83"/>
-      <c r="BA4" s="84"/>
-      <c r="BB4" s="82"/>
-      <c r="BC4" s="82"/>
-      <c r="BD4" s="82"/>
-      <c r="BE4" s="83"/>
-      <c r="BF4" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="BG4" s="98"/>
-      <c r="BH4" s="98"/>
-      <c r="BI4" s="84"/>
-      <c r="BJ4" s="82"/>
-      <c r="BK4" s="82"/>
-      <c r="BL4" s="82"/>
-      <c r="BM4" s="83"/>
-      <c r="BN4" s="70"/>
-      <c r="BO4" s="70"/>
-      <c r="BP4" s="70"/>
-      <c r="BQ4" s="70"/>
-      <c r="BR4" s="70"/>
-      <c r="BS4" s="70"/>
-      <c r="BT4" s="70"/>
-      <c r="BU4" s="70"/>
-      <c r="BV4" s="70"/>
-      <c r="BW4" s="70"/>
-      <c r="BX4" s="71"/>
-    </row>
-    <row r="5" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B5" s="103">
+      <c r="C15" s="118"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="120" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="80"/>
+      <c r="AA15" s="80"/>
+      <c r="AB15" s="80"/>
+      <c r="AC15" s="81"/>
+    </row>
+    <row r="16" spans="2:76" ht="15" customHeight="1">
+      <c r="B16" s="101">
         <v>2</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="106" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="96"/>
-      <c r="X5" s="94"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="94"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="96"/>
-      <c r="AC5" s="94"/>
-      <c r="AD5" s="94"/>
-      <c r="AE5" s="94"/>
-      <c r="AF5" s="95"/>
-      <c r="AG5" s="96"/>
-      <c r="AH5" s="94"/>
-      <c r="AI5" s="94"/>
-      <c r="AJ5" s="94"/>
-      <c r="AK5" s="95"/>
-      <c r="AL5" s="96"/>
-      <c r="AM5" s="94"/>
-      <c r="AN5" s="94"/>
-      <c r="AO5" s="94"/>
-      <c r="AP5" s="95"/>
-      <c r="AQ5" s="96"/>
-      <c r="AR5" s="94"/>
-      <c r="AS5" s="94"/>
-      <c r="AT5" s="94"/>
-      <c r="AU5" s="95"/>
-      <c r="AV5" s="96"/>
-      <c r="AW5" s="94"/>
-      <c r="AX5" s="94"/>
-      <c r="AY5" s="94"/>
-      <c r="AZ5" s="95"/>
-      <c r="BA5" s="96"/>
-      <c r="BB5" s="94"/>
-      <c r="BC5" s="94"/>
-      <c r="BD5" s="94"/>
-      <c r="BE5" s="95"/>
-      <c r="BF5" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="BG5" s="100"/>
-      <c r="BH5" s="100"/>
-      <c r="BI5" s="96"/>
-      <c r="BJ5" s="94"/>
-      <c r="BK5" s="94"/>
-      <c r="BL5" s="94"/>
-      <c r="BM5" s="95"/>
-      <c r="BN5" s="101"/>
-      <c r="BO5" s="101"/>
-      <c r="BP5" s="101"/>
-      <c r="BQ5" s="101"/>
-      <c r="BR5" s="101"/>
-      <c r="BS5" s="101"/>
-      <c r="BT5" s="101"/>
-      <c r="BU5" s="101"/>
-      <c r="BV5" s="101"/>
-      <c r="BW5" s="101"/>
-      <c r="BX5" s="102"/>
-    </row>
-    <row r="6" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B6" s="103">
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="93"/>
+    </row>
+    <row r="17" spans="2:29" ht="15" customHeight="1">
+      <c r="B17" s="105">
         <v>3</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="106" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="94"/>
-      <c r="T6" s="94"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="94"/>
-      <c r="Z6" s="94"/>
-      <c r="AA6" s="95"/>
-      <c r="AB6" s="96"/>
-      <c r="AC6" s="94"/>
-      <c r="AD6" s="94"/>
-      <c r="AE6" s="94"/>
-      <c r="AF6" s="95"/>
-      <c r="AG6" s="96"/>
-      <c r="AH6" s="94"/>
-      <c r="AI6" s="94"/>
-      <c r="AJ6" s="94"/>
-      <c r="AK6" s="95"/>
-      <c r="AL6" s="96"/>
-      <c r="AM6" s="94"/>
-      <c r="AN6" s="94"/>
-      <c r="AO6" s="94"/>
-      <c r="AP6" s="95"/>
-      <c r="AQ6" s="96"/>
-      <c r="AR6" s="94"/>
-      <c r="AS6" s="94"/>
-      <c r="AT6" s="94"/>
-      <c r="AU6" s="95"/>
-      <c r="AV6" s="96"/>
-      <c r="AW6" s="94"/>
-      <c r="AX6" s="94"/>
-      <c r="AY6" s="94"/>
-      <c r="AZ6" s="95"/>
-      <c r="BA6" s="96"/>
-      <c r="BB6" s="94"/>
-      <c r="BC6" s="94"/>
-      <c r="BD6" s="94"/>
-      <c r="BE6" s="95"/>
-      <c r="BF6" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="BG6" s="100"/>
-      <c r="BH6" s="100"/>
-      <c r="BI6" s="96"/>
-      <c r="BJ6" s="94"/>
-      <c r="BK6" s="94"/>
-      <c r="BL6" s="94"/>
-      <c r="BM6" s="95"/>
-      <c r="BN6" s="101"/>
-      <c r="BO6" s="101"/>
-      <c r="BP6" s="101"/>
-      <c r="BQ6" s="101"/>
-      <c r="BR6" s="101"/>
-      <c r="BS6" s="101"/>
-      <c r="BT6" s="101"/>
-      <c r="BU6" s="101"/>
-      <c r="BV6" s="101"/>
-      <c r="BW6" s="101"/>
-      <c r="BX6" s="102"/>
-    </row>
-    <row r="7" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B7" s="103">
-        <v>4</v>
-      </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="106" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="95"/>
-      <c r="W7" s="96"/>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="94"/>
-      <c r="Z7" s="94"/>
-      <c r="AA7" s="95"/>
-      <c r="AB7" s="96"/>
-      <c r="AC7" s="94"/>
-      <c r="AD7" s="94"/>
-      <c r="AE7" s="94"/>
-      <c r="AF7" s="95"/>
-      <c r="AG7" s="96"/>
-      <c r="AH7" s="94"/>
-      <c r="AI7" s="94"/>
-      <c r="AJ7" s="94"/>
-      <c r="AK7" s="95"/>
-      <c r="AL7" s="96"/>
-      <c r="AM7" s="94"/>
-      <c r="AN7" s="94"/>
-      <c r="AO7" s="94"/>
-      <c r="AP7" s="95"/>
-      <c r="AQ7" s="96"/>
-      <c r="AR7" s="94"/>
-      <c r="AS7" s="94"/>
-      <c r="AT7" s="94"/>
-      <c r="AU7" s="95"/>
-      <c r="AV7" s="96"/>
-      <c r="AW7" s="94"/>
-      <c r="AX7" s="94"/>
-      <c r="AY7" s="94"/>
-      <c r="AZ7" s="95"/>
-      <c r="BA7" s="96"/>
-      <c r="BB7" s="94"/>
-      <c r="BC7" s="94"/>
-      <c r="BD7" s="94"/>
-      <c r="BE7" s="95"/>
-      <c r="BF7" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="BG7" s="100"/>
-      <c r="BH7" s="100"/>
-      <c r="BI7" s="96"/>
-      <c r="BJ7" s="94"/>
-      <c r="BK7" s="94"/>
-      <c r="BL7" s="94"/>
-      <c r="BM7" s="95"/>
-      <c r="BN7" s="101"/>
-      <c r="BO7" s="101"/>
-      <c r="BP7" s="101"/>
-      <c r="BQ7" s="101"/>
-      <c r="BR7" s="101"/>
-      <c r="BS7" s="101"/>
-      <c r="BT7" s="101"/>
-      <c r="BU7" s="101"/>
-      <c r="BV7" s="101"/>
-      <c r="BW7" s="101"/>
-      <c r="BX7" s="102"/>
-    </row>
-    <row r="8" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B8" s="107">
-        <v>5</v>
-      </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="113"/>
-      <c r="Y8" s="113"/>
-      <c r="Z8" s="113"/>
-      <c r="AA8" s="114"/>
-      <c r="AB8" s="115"/>
-      <c r="AC8" s="113"/>
-      <c r="AD8" s="113"/>
-      <c r="AE8" s="113"/>
-      <c r="AF8" s="114"/>
-      <c r="AG8" s="115"/>
-      <c r="AH8" s="113"/>
-      <c r="AI8" s="113"/>
-      <c r="AJ8" s="113"/>
-      <c r="AK8" s="114"/>
-      <c r="AL8" s="115"/>
-      <c r="AM8" s="113"/>
-      <c r="AN8" s="113"/>
-      <c r="AO8" s="113"/>
-      <c r="AP8" s="114"/>
-      <c r="AQ8" s="115"/>
-      <c r="AR8" s="113"/>
-      <c r="AS8" s="113"/>
-      <c r="AT8" s="113"/>
-      <c r="AU8" s="114"/>
-      <c r="AV8" s="115"/>
-      <c r="AW8" s="113"/>
-      <c r="AX8" s="113"/>
-      <c r="AY8" s="113"/>
-      <c r="AZ8" s="114"/>
-      <c r="BA8" s="112"/>
-      <c r="BB8" s="113"/>
-      <c r="BC8" s="113"/>
-      <c r="BD8" s="113"/>
-      <c r="BE8" s="114"/>
-      <c r="BF8" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="BG8" s="118"/>
-      <c r="BH8" s="118"/>
-      <c r="BI8" s="115"/>
-      <c r="BJ8" s="113"/>
-      <c r="BK8" s="113"/>
-      <c r="BL8" s="113"/>
-      <c r="BM8" s="114"/>
-      <c r="BN8" s="111"/>
-      <c r="BO8" s="111"/>
-      <c r="BP8" s="111"/>
-      <c r="BQ8" s="111"/>
-      <c r="BR8" s="111"/>
-      <c r="BS8" s="111"/>
-      <c r="BT8" s="111"/>
-      <c r="BU8" s="111"/>
-      <c r="BV8" s="111"/>
-      <c r="BW8" s="111"/>
-      <c r="BX8" s="116"/>
-    </row>
-    <row r="9" spans="2:76" ht="16.5">
-      <c r="B9" s="36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="2:76" ht="16.5">
-      <c r="I10" s="36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="2:76" ht="16.5">
-      <c r="I11" s="36" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="2:76" ht="15" customHeight="1">
-      <c r="B13" s="36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="2:76" ht="15" customHeight="1">
-      <c r="B14" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="87" t="s">
-        <v>67</v>
-      </c>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="88"/>
-      <c r="Y14" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="87"/>
-      <c r="AB14" s="87"/>
-      <c r="AC14" s="88"/>
-    </row>
-    <row r="15" spans="2:76" ht="15" customHeight="1">
-      <c r="B15" s="119">
-        <v>1</v>
-      </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="122" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="83"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="84"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="82"/>
-      <c r="AB15" s="82"/>
-      <c r="AC15" s="83"/>
-    </row>
-    <row r="16" spans="2:76" ht="15" customHeight="1">
-      <c r="B16" s="103">
-        <v>2</v>
-      </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="106" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="94"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="94"/>
-      <c r="AA16" s="94"/>
-      <c r="AB16" s="94"/>
-      <c r="AC16" s="95"/>
-    </row>
-    <row r="17" spans="2:29" ht="15" customHeight="1">
-      <c r="B17" s="107">
-        <v>3</v>
-      </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="110" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="113"/>
-      <c r="Q17" s="113"/>
-      <c r="R17" s="113"/>
-      <c r="S17" s="114"/>
-      <c r="T17" s="115"/>
-      <c r="U17" s="113"/>
-      <c r="V17" s="113"/>
-      <c r="W17" s="113"/>
-      <c r="X17" s="114"/>
-      <c r="Y17" s="115"/>
-      <c r="Z17" s="113"/>
-      <c r="AA17" s="113"/>
-      <c r="AB17" s="113"/>
-      <c r="AC17" s="114"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="112"/>
+      <c r="T17" s="113"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="111"/>
+      <c r="W17" s="111"/>
+      <c r="X17" s="112"/>
+      <c r="Y17" s="113"/>
+      <c r="Z17" s="111"/>
+      <c r="AA17" s="111"/>
+      <c r="AB17" s="111"/>
+      <c r="AC17" s="112"/>
     </row>
     <row r="18" spans="2:29" ht="9" customHeight="1"/>
     <row r="19" spans="2:29" ht="9" customHeight="1"/>
@@ -5345,18 +5417,18 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="M4:BE8 BI4:BM8 M15:M17">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:AC17">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5370,9 +5442,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C7C93556-AA81-421D-93DA-682534367D2E}">
           <x14:formula1>
-            <xm:f>実施結果報告書!$L$1:$L$4</xm:f>
+            <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
           </x14:formula1>
-          <xm:sqref>BI4:BM8 M4:BE8 T15:AC17 M15:M17</xm:sqref>
+          <xm:sqref>BI4:BM8 M15:M17 T15:AC17 M4:BE8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5388,839 +5460,839 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="30.75" style="30" customWidth="1"/>
-    <col min="5" max="5" width="65.375" style="31" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="56.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.875" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="10.625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="30.75" style="29" customWidth="1"/>
+    <col min="5" max="5" width="65.375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="56.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.875" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="24">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="B2" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" ht="24">
-      <c r="A2" s="11" t="s">
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75">
+      <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75">
-      <c r="A3" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="16" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="18.75">
+      <c r="A4" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
+    </row>
+    <row r="5" spans="1:8" ht="37.5">
+      <c r="A5" s="19">
+        <v>1</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="C5" s="20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="18.75">
-      <c r="A4" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
-    </row>
-    <row r="5" spans="1:8" ht="37.5">
-      <c r="A5" s="20">
+      <c r="D5" s="21">
         <v>1</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="22">
-        <v>1</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
+      <c r="E5" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="37.5">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A6, -1, 0)), OFFSET(A6, -1, 0) + 1, OFFSET(A5, -1, 0) + 1)</f>
         <v>2</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="37.5">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <f t="shared" ref="A7:A8" ca="1" si="0">IF(ISNUMBER(OFFSET(A7, -1, 0)), OFFSET(A7, -1, 0) + 1, OFFSET(A6, -1, 0) + 1)</f>
         <v>3</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A8" s="20">
+      <c r="B7" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A8" s="19">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A9" s="20">
+      <c r="B8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A9" s="19">
         <f t="shared" ref="A9" ca="1" si="1">IF(ISNUMBER(OFFSET(A9, -1, 0)), OFFSET(A9, -1, 0) + 1, OFFSET(A6, -1, 0) + 1)</f>
         <v>5</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
+      <c r="B9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="18.75">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A10, -1, 0)), OFFSET(A10, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
         <v>6</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
+      <c r="B10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="18.75">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <f t="shared" ref="A11:A13" ca="1" si="2">IF(ISNUMBER(OFFSET(A11, -1, 0)), OFFSET(A11, -1, 0) + 1, OFFSET(A10, -1, 0) + 1)</f>
         <v>7</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-    </row>
-    <row r="12" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A12" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
-    </row>
-    <row r="13" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A13" s="20">
+      <c r="B11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A12" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
+    </row>
+    <row r="13" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A13" s="19">
         <f t="shared" ca="1" si="2"/>
         <v>8</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A14" s="20">
+      <c r="B13" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A14" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A14, -1, 0)), OFFSET(A14, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
         <v>9</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A15" s="20">
+      <c r="B14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A15" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A15, -1, 0)), OFFSET(A15, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
         <v>10</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="25"/>
-    </row>
-    <row r="16" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A16" s="20">
+      <c r="B15" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A16" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A16, -1, 0)), OFFSET(A16, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
         <v>11</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" ht="37.5">
-      <c r="A17" s="20">
+      <c r="B16" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="8" customFormat="1" ht="37.5">
+      <c r="A17" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A17, -1, 0)), OFFSET(A17, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
         <v>12</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="1:8" s="9" customFormat="1" ht="93.75">
-      <c r="A18" s="20">
+      <c r="B17" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:8" s="8" customFormat="1" ht="93.75">
+      <c r="A18" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A18, -1, 0)), OFFSET(A18, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
         <v>13</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="25"/>
-    </row>
-    <row r="19" spans="1:8" s="9" customFormat="1" ht="75">
-      <c r="A19" s="20">
+      <c r="B18" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" s="8" customFormat="1" ht="75">
+      <c r="A19" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A19, -1, 0)), OFFSET(A19, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
         <v>14</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="25"/>
-    </row>
-    <row r="20" spans="1:8" s="9" customFormat="1" ht="75">
-      <c r="A20" s="20">
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" s="8" customFormat="1" ht="75">
+      <c r="A20" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A20, -1, 0)), OFFSET(A20, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
         <v>15</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="25"/>
-    </row>
-    <row r="21" spans="1:8" s="9" customFormat="1" ht="37.5">
-      <c r="A21" s="20">
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:8" s="8" customFormat="1" ht="37.5">
+      <c r="A21" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A21, -1, 0)), OFFSET(A21, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
         <v>16</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="25"/>
-    </row>
-    <row r="22" spans="1:8" s="9" customFormat="1" ht="93.75">
-      <c r="A22" s="20">
+      <c r="B21" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" s="8" customFormat="1" ht="93.75">
+      <c r="A22" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A22, -1, 0)), OFFSET(A22, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
         <v>17</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="25"/>
-    </row>
-    <row r="23" spans="1:8" s="9" customFormat="1" ht="93.75">
-      <c r="A23" s="20">
+      <c r="B22" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" s="8" customFormat="1" ht="93.75">
+      <c r="A23" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A23, -1, 0)), OFFSET(A23, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
         <v>18</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="25"/>
-    </row>
-    <row r="24" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A24" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="69"/>
-    </row>
-    <row r="25" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A25" s="20">
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A24" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+    </row>
+    <row r="25" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A25" s="19">
         <f t="shared" ref="A25:A40" ca="1" si="3">IF(ISNUMBER(OFFSET(A25, -1, 0)), OFFSET(A25, -1, 0) + 1, OFFSET(A24, -1, 0) + 1)</f>
         <v>19</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="25"/>
-    </row>
-    <row r="26" spans="1:8" s="9" customFormat="1" ht="37.5">
-      <c r="A26" s="42">
+      <c r="B25" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:8" s="8" customFormat="1" ht="37.5">
+      <c r="A26" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>20</v>
       </c>
-      <c r="B26" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="43" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A27" s="20">
+      <c r="B26" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A27" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>21</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="39"/>
-    </row>
-    <row r="28" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A28" s="20">
+      <c r="B27" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="38"/>
+    </row>
+    <row r="28" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A28" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>22</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="25"/>
-    </row>
-    <row r="29" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A29" s="20">
+      <c r="B28" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="24"/>
+    </row>
+    <row r="29" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A29" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>23</v>
       </c>
-      <c r="B29" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="25"/>
-    </row>
-    <row r="30" spans="1:8" s="9" customFormat="1" ht="37.5">
-      <c r="A30" s="20">
+      <c r="B29" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="1:8" s="8" customFormat="1" ht="37.5">
+      <c r="A30" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>24</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="9" customFormat="1" ht="37.5">
-      <c r="A31" s="20">
+      <c r="B30" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="8" customFormat="1" ht="37.5">
+      <c r="A31" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>25</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="40"/>
-    </row>
-    <row r="32" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A32" s="20">
+      <c r="B31" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="39"/>
+    </row>
+    <row r="32" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A32" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>26</v>
       </c>
-      <c r="B32" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="21" t="s">
+      <c r="B32" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="35"/>
-    </row>
-    <row r="33" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A33" s="20">
+      <c r="D32" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="34"/>
+    </row>
+    <row r="33" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A33" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>27</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="9" customFormat="1" ht="37.5">
-      <c r="A34" s="20">
+      <c r="E33" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="8" customFormat="1" ht="37.5">
+      <c r="A34" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>28</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="39"/>
-    </row>
-    <row r="35" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A35" s="20">
+      <c r="E34" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="38"/>
+    </row>
+    <row r="35" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A35" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>29</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="39"/>
-    </row>
-    <row r="36" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A36" s="20">
+      <c r="E35" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38"/>
+    </row>
+    <row r="36" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A36" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>30</v>
       </c>
-      <c r="B36" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="33" t="s">
+      <c r="B36" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="35"/>
-    </row>
-    <row r="37" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A37" s="20">
+      <c r="C36" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="22"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="34"/>
+    </row>
+    <row r="37" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A37" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>31</v>
       </c>
-      <c r="B37" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="37" t="s">
+      <c r="B37" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="39" t="s">
+      <c r="C37" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="36" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A38" s="20">
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A38" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>32</v>
       </c>
-      <c r="B38" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A39" s="20">
+      <c r="B38" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A39" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>33</v>
       </c>
-      <c r="B39" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="D39" s="37" t="s">
+      <c r="B39" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="39" t="s">
+      <c r="C39" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="36" t="s">
         <v>142</v>
       </c>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="38" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A40" s="20">
+      <c r="A40" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>34</v>
       </c>
-      <c r="B40" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="27" t="s">
+      <c r="B40" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="29" t="s">
-        <v>142</v>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="11.25" customHeight="1"/>
@@ -6233,26 +6305,26 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F5:F11">
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F23">
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:F40">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6263,9 +6335,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A3975C19-33D2-4592-8E50-2753B0EDC3A7}">
           <x14:formula1>
-            <xm:f>実施結果報告書!$L$1:$L$4</xm:f>
+            <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F11 F13:F23 F25:F40</xm:sqref>
+          <xm:sqref>F5:F11 F25:F40 F13:F23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6281,1296 +6353,1296 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="36"/>
-    <col min="2" max="4" width="1.25" style="36" customWidth="1"/>
-    <col min="5" max="17" width="1.625" style="36"/>
-    <col min="18" max="22" width="2" style="36" customWidth="1"/>
-    <col min="23" max="47" width="1.625" style="36"/>
-    <col min="48" max="57" width="2" style="36" customWidth="1"/>
-    <col min="58" max="59" width="5.25" style="36" customWidth="1"/>
-    <col min="60" max="60" width="22.125" style="36" customWidth="1"/>
-    <col min="61" max="16384" width="1.625" style="36"/>
+    <col min="1" max="1" width="1.625" style="35"/>
+    <col min="2" max="4" width="1.25" style="35" customWidth="1"/>
+    <col min="5" max="17" width="1.625" style="35"/>
+    <col min="18" max="22" width="2" style="35" customWidth="1"/>
+    <col min="23" max="47" width="1.625" style="35"/>
+    <col min="48" max="57" width="2" style="35" customWidth="1"/>
+    <col min="58" max="59" width="5.25" style="35" customWidth="1"/>
+    <col min="60" max="60" width="22.125" style="35" customWidth="1"/>
+    <col min="61" max="16384" width="1.625" style="35"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:76" ht="15" customHeight="1">
-      <c r="B2" s="36" t="s">
-        <v>70</v>
+      <c r="B2" s="35" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:76" ht="15" customHeight="1">
-      <c r="B3" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="86" t="s">
+      <c r="B3" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="92" t="s">
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="85"/>
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="71"/>
+      <c r="AQ3" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR3" s="70"/>
+      <c r="AS3" s="70"/>
+      <c r="AT3" s="70"/>
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW3" s="70"/>
+      <c r="AX3" s="70"/>
+      <c r="AY3" s="70"/>
+      <c r="AZ3" s="71"/>
+      <c r="BA3" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB3" s="85"/>
+      <c r="BC3" s="85"/>
+      <c r="BD3" s="85"/>
+      <c r="BE3" s="86"/>
+      <c r="BF3" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="88"/>
-      <c r="AB3" s="87" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="85" t="s">
+      <c r="BG3" s="88"/>
+      <c r="BH3" s="88"/>
+      <c r="BI3" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ3" s="70"/>
+      <c r="BK3" s="70"/>
+      <c r="BL3" s="70"/>
+      <c r="BM3" s="71"/>
+      <c r="BN3" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="BO3" s="72"/>
+      <c r="BP3" s="72"/>
+      <c r="BQ3" s="72"/>
+      <c r="BR3" s="72"/>
+      <c r="BS3" s="72"/>
+      <c r="BT3" s="72"/>
+      <c r="BU3" s="72"/>
+      <c r="BV3" s="72"/>
+      <c r="BW3" s="72"/>
+      <c r="BX3" s="73"/>
+    </row>
+    <row r="4" spans="2:76" ht="15" customHeight="1">
+      <c r="B4" s="121" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="122"/>
+      <c r="W4" s="122"/>
+      <c r="X4" s="122"/>
+      <c r="Y4" s="122"/>
+      <c r="Z4" s="122"/>
+      <c r="AA4" s="122"/>
+      <c r="AB4" s="122"/>
+      <c r="AC4" s="122"/>
+      <c r="AD4" s="122"/>
+      <c r="AE4" s="122"/>
+      <c r="AF4" s="122"/>
+      <c r="AG4" s="122"/>
+      <c r="AH4" s="122"/>
+      <c r="AI4" s="122"/>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="122"/>
+      <c r="AL4" s="122"/>
+      <c r="AM4" s="122"/>
+      <c r="AN4" s="122"/>
+      <c r="AO4" s="122"/>
+      <c r="AP4" s="122"/>
+      <c r="AQ4" s="122"/>
+      <c r="AR4" s="122"/>
+      <c r="AS4" s="122"/>
+      <c r="AT4" s="122"/>
+      <c r="AU4" s="122"/>
+      <c r="AV4" s="122"/>
+      <c r="AW4" s="122"/>
+      <c r="AX4" s="122"/>
+      <c r="AY4" s="122"/>
+      <c r="AZ4" s="122"/>
+      <c r="BA4" s="122"/>
+      <c r="BB4" s="122"/>
+      <c r="BC4" s="122"/>
+      <c r="BD4" s="122"/>
+      <c r="BE4" s="122"/>
+      <c r="BF4" s="122"/>
+      <c r="BG4" s="122"/>
+      <c r="BH4" s="122"/>
+      <c r="BI4" s="122"/>
+      <c r="BJ4" s="122"/>
+      <c r="BK4" s="122"/>
+      <c r="BL4" s="122"/>
+      <c r="BM4" s="122"/>
+      <c r="BN4" s="122"/>
+      <c r="BO4" s="122"/>
+      <c r="BP4" s="122"/>
+      <c r="BQ4" s="122"/>
+      <c r="BR4" s="122"/>
+      <c r="BS4" s="122"/>
+      <c r="BT4" s="122"/>
+      <c r="BU4" s="122"/>
+      <c r="BV4" s="122"/>
+      <c r="BW4" s="122"/>
+      <c r="BX4" s="123"/>
+    </row>
+    <row r="5" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B5" s="117">
+        <v>1</v>
+      </c>
+      <c r="C5" s="118"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="120" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="81"/>
+      <c r="AG5" s="82"/>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="80"/>
+      <c r="AJ5" s="80"/>
+      <c r="AK5" s="81"/>
+      <c r="AL5" s="82"/>
+      <c r="AM5" s="80"/>
+      <c r="AN5" s="80"/>
+      <c r="AO5" s="80"/>
+      <c r="AP5" s="81"/>
+      <c r="AQ5" s="82"/>
+      <c r="AR5" s="80"/>
+      <c r="AS5" s="80"/>
+      <c r="AT5" s="80"/>
+      <c r="AU5" s="81"/>
+      <c r="AV5" s="82"/>
+      <c r="AW5" s="80"/>
+      <c r="AX5" s="80"/>
+      <c r="AY5" s="80"/>
+      <c r="AZ5" s="81"/>
+      <c r="BA5" s="82"/>
+      <c r="BB5" s="80"/>
+      <c r="BC5" s="80"/>
+      <c r="BD5" s="80"/>
+      <c r="BE5" s="81"/>
+      <c r="BF5" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="73"/>
-      <c r="AL3" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="72"/>
-      <c r="AU3" s="73"/>
-      <c r="AV3" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="72"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="86" t="s">
+      <c r="BG5" s="96"/>
+      <c r="BH5" s="96"/>
+      <c r="BI5" s="82"/>
+      <c r="BJ5" s="80"/>
+      <c r="BK5" s="80"/>
+      <c r="BL5" s="80"/>
+      <c r="BM5" s="81"/>
+      <c r="BN5" s="68"/>
+      <c r="BO5" s="68"/>
+      <c r="BP5" s="68"/>
+      <c r="BQ5" s="68"/>
+      <c r="BR5" s="68"/>
+      <c r="BS5" s="68"/>
+      <c r="BT5" s="68"/>
+      <c r="BU5" s="68"/>
+      <c r="BV5" s="68"/>
+      <c r="BW5" s="68"/>
+      <c r="BX5" s="69"/>
+    </row>
+    <row r="6" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B6" s="101">
+        <v>2</v>
+      </c>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="93"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="93"/>
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="92"/>
+      <c r="AF6" s="93"/>
+      <c r="AG6" s="94"/>
+      <c r="AH6" s="92"/>
+      <c r="AI6" s="92"/>
+      <c r="AJ6" s="92"/>
+      <c r="AK6" s="93"/>
+      <c r="AL6" s="94"/>
+      <c r="AM6" s="92"/>
+      <c r="AN6" s="92"/>
+      <c r="AO6" s="92"/>
+      <c r="AP6" s="93"/>
+      <c r="AQ6" s="94"/>
+      <c r="AR6" s="92"/>
+      <c r="AS6" s="92"/>
+      <c r="AT6" s="92"/>
+      <c r="AU6" s="93"/>
+      <c r="AV6" s="94"/>
+      <c r="AW6" s="92"/>
+      <c r="AX6" s="92"/>
+      <c r="AY6" s="92"/>
+      <c r="AZ6" s="93"/>
+      <c r="BA6" s="94"/>
+      <c r="BB6" s="92"/>
+      <c r="BC6" s="92"/>
+      <c r="BD6" s="92"/>
+      <c r="BE6" s="93"/>
+      <c r="BF6" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG6" s="98"/>
+      <c r="BH6" s="98"/>
+      <c r="BI6" s="94"/>
+      <c r="BJ6" s="92"/>
+      <c r="BK6" s="92"/>
+      <c r="BL6" s="92"/>
+      <c r="BM6" s="93"/>
+      <c r="BN6" s="99"/>
+      <c r="BO6" s="99"/>
+      <c r="BP6" s="99"/>
+      <c r="BQ6" s="99"/>
+      <c r="BR6" s="99"/>
+      <c r="BS6" s="99"/>
+      <c r="BT6" s="99"/>
+      <c r="BU6" s="99"/>
+      <c r="BV6" s="99"/>
+      <c r="BW6" s="99"/>
+      <c r="BX6" s="100"/>
+    </row>
+    <row r="7" spans="2:76" ht="16.5">
+      <c r="B7" s="101">
+        <v>3</v>
+      </c>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="92"/>
+      <c r="AE7" s="92"/>
+      <c r="AF7" s="93"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="92"/>
+      <c r="AI7" s="92"/>
+      <c r="AJ7" s="92"/>
+      <c r="AK7" s="93"/>
+      <c r="AL7" s="94"/>
+      <c r="AM7" s="92"/>
+      <c r="AN7" s="92"/>
+      <c r="AO7" s="92"/>
+      <c r="AP7" s="93"/>
+      <c r="AQ7" s="94"/>
+      <c r="AR7" s="92"/>
+      <c r="AS7" s="92"/>
+      <c r="AT7" s="92"/>
+      <c r="AU7" s="93"/>
+      <c r="AV7" s="94"/>
+      <c r="AW7" s="92"/>
+      <c r="AX7" s="92"/>
+      <c r="AY7" s="92"/>
+      <c r="AZ7" s="93"/>
+      <c r="BA7" s="94"/>
+      <c r="BB7" s="92"/>
+      <c r="BC7" s="92"/>
+      <c r="BD7" s="92"/>
+      <c r="BE7" s="93"/>
+      <c r="BF7" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG7" s="98"/>
+      <c r="BH7" s="98"/>
+      <c r="BI7" s="94"/>
+      <c r="BJ7" s="92"/>
+      <c r="BK7" s="92"/>
+      <c r="BL7" s="92"/>
+      <c r="BM7" s="93"/>
+      <c r="BN7" s="99"/>
+      <c r="BO7" s="99"/>
+      <c r="BP7" s="99"/>
+      <c r="BQ7" s="99"/>
+      <c r="BR7" s="99"/>
+      <c r="BS7" s="99"/>
+      <c r="BT7" s="99"/>
+      <c r="BU7" s="99"/>
+      <c r="BV7" s="99"/>
+      <c r="BW7" s="99"/>
+      <c r="BX7" s="100"/>
+    </row>
+    <row r="8" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B8" s="101">
+        <v>4</v>
+      </c>
+      <c r="C8" s="102"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="93"/>
+      <c r="AB8" s="94"/>
+      <c r="AC8" s="92"/>
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="93"/>
+      <c r="AG8" s="91"/>
+      <c r="AH8" s="92"/>
+      <c r="AI8" s="92"/>
+      <c r="AJ8" s="92"/>
+      <c r="AK8" s="93"/>
+      <c r="AL8" s="94"/>
+      <c r="AM8" s="92"/>
+      <c r="AN8" s="92"/>
+      <c r="AO8" s="92"/>
+      <c r="AP8" s="93"/>
+      <c r="AQ8" s="94"/>
+      <c r="AR8" s="92"/>
+      <c r="AS8" s="92"/>
+      <c r="AT8" s="92"/>
+      <c r="AU8" s="93"/>
+      <c r="AV8" s="94"/>
+      <c r="AW8" s="92"/>
+      <c r="AX8" s="92"/>
+      <c r="AY8" s="92"/>
+      <c r="AZ8" s="93"/>
+      <c r="BA8" s="94"/>
+      <c r="BB8" s="92"/>
+      <c r="BC8" s="92"/>
+      <c r="BD8" s="92"/>
+      <c r="BE8" s="93"/>
+      <c r="BF8" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG8" s="98"/>
+      <c r="BH8" s="98"/>
+      <c r="BI8" s="94"/>
+      <c r="BJ8" s="92"/>
+      <c r="BK8" s="92"/>
+      <c r="BL8" s="92"/>
+      <c r="BM8" s="93"/>
+      <c r="BN8" s="99"/>
+      <c r="BO8" s="99"/>
+      <c r="BP8" s="99"/>
+      <c r="BQ8" s="99"/>
+      <c r="BR8" s="99"/>
+      <c r="BS8" s="99"/>
+      <c r="BT8" s="99"/>
+      <c r="BU8" s="99"/>
+      <c r="BV8" s="99"/>
+      <c r="BW8" s="99"/>
+      <c r="BX8" s="100"/>
+    </row>
+    <row r="9" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B9" s="101">
+        <v>5</v>
+      </c>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="92"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="92"/>
+      <c r="AJ9" s="92"/>
+      <c r="AK9" s="93"/>
+      <c r="AL9" s="94"/>
+      <c r="AM9" s="92"/>
+      <c r="AN9" s="92"/>
+      <c r="AO9" s="92"/>
+      <c r="AP9" s="93"/>
+      <c r="AQ9" s="94"/>
+      <c r="AR9" s="92"/>
+      <c r="AS9" s="92"/>
+      <c r="AT9" s="92"/>
+      <c r="AU9" s="93"/>
+      <c r="AV9" s="94"/>
+      <c r="AW9" s="92"/>
+      <c r="AX9" s="92"/>
+      <c r="AY9" s="92"/>
+      <c r="AZ9" s="93"/>
+      <c r="BA9" s="94"/>
+      <c r="BB9" s="92"/>
+      <c r="BC9" s="92"/>
+      <c r="BD9" s="92"/>
+      <c r="BE9" s="93"/>
+      <c r="BF9" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG9" s="98"/>
+      <c r="BH9" s="98"/>
+      <c r="BI9" s="94"/>
+      <c r="BJ9" s="92"/>
+      <c r="BK9" s="92"/>
+      <c r="BL9" s="92"/>
+      <c r="BM9" s="93"/>
+      <c r="BN9" s="99"/>
+      <c r="BO9" s="99"/>
+      <c r="BP9" s="99"/>
+      <c r="BQ9" s="99"/>
+      <c r="BR9" s="99"/>
+      <c r="BS9" s="99"/>
+      <c r="BT9" s="99"/>
+      <c r="BU9" s="99"/>
+      <c r="BV9" s="99"/>
+      <c r="BW9" s="99"/>
+      <c r="BX9" s="100"/>
+    </row>
+    <row r="10" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B10" s="101">
+        <v>6</v>
+      </c>
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="113"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="111"/>
+      <c r="Y10" s="111"/>
+      <c r="Z10" s="111"/>
+      <c r="AA10" s="112"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="111"/>
+      <c r="AD10" s="111"/>
+      <c r="AE10" s="111"/>
+      <c r="AF10" s="112"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="111"/>
+      <c r="AI10" s="111"/>
+      <c r="AJ10" s="111"/>
+      <c r="AK10" s="112"/>
+      <c r="AL10" s="113"/>
+      <c r="AM10" s="111"/>
+      <c r="AN10" s="111"/>
+      <c r="AO10" s="111"/>
+      <c r="AP10" s="112"/>
+      <c r="AQ10" s="113"/>
+      <c r="AR10" s="111"/>
+      <c r="AS10" s="111"/>
+      <c r="AT10" s="111"/>
+      <c r="AU10" s="112"/>
+      <c r="AV10" s="113"/>
+      <c r="AW10" s="111"/>
+      <c r="AX10" s="111"/>
+      <c r="AY10" s="111"/>
+      <c r="AZ10" s="112"/>
+      <c r="BA10" s="113"/>
+      <c r="BB10" s="111"/>
+      <c r="BC10" s="111"/>
+      <c r="BD10" s="111"/>
+      <c r="BE10" s="112"/>
+      <c r="BF10" s="115" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG10" s="116"/>
+      <c r="BH10" s="116"/>
+      <c r="BI10" s="113"/>
+      <c r="BJ10" s="111"/>
+      <c r="BK10" s="111"/>
+      <c r="BL10" s="111"/>
+      <c r="BM10" s="112"/>
+      <c r="BN10" s="109"/>
+      <c r="BO10" s="109"/>
+      <c r="BP10" s="109"/>
+      <c r="BQ10" s="109"/>
+      <c r="BR10" s="109"/>
+      <c r="BS10" s="109"/>
+      <c r="BT10" s="109"/>
+      <c r="BU10" s="109"/>
+      <c r="BV10" s="109"/>
+      <c r="BW10" s="109"/>
+      <c r="BX10" s="114"/>
+    </row>
+    <row r="11" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B11" s="124" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="122"/>
+      <c r="T11" s="122"/>
+      <c r="U11" s="122"/>
+      <c r="V11" s="122"/>
+      <c r="W11" s="122"/>
+      <c r="X11" s="122"/>
+      <c r="Y11" s="122"/>
+      <c r="Z11" s="122"/>
+      <c r="AA11" s="122"/>
+      <c r="AB11" s="122"/>
+      <c r="AC11" s="122"/>
+      <c r="AD11" s="122"/>
+      <c r="AE11" s="122"/>
+      <c r="AF11" s="122"/>
+      <c r="AG11" s="122"/>
+      <c r="AH11" s="122"/>
+      <c r="AI11" s="122"/>
+      <c r="AJ11" s="122"/>
+      <c r="AK11" s="122"/>
+      <c r="AL11" s="122"/>
+      <c r="AM11" s="122"/>
+      <c r="AN11" s="122"/>
+      <c r="AO11" s="122"/>
+      <c r="AP11" s="122"/>
+      <c r="AQ11" s="122"/>
+      <c r="AR11" s="122"/>
+      <c r="AS11" s="122"/>
+      <c r="AT11" s="122"/>
+      <c r="AU11" s="122"/>
+      <c r="AV11" s="122"/>
+      <c r="AW11" s="122"/>
+      <c r="AX11" s="122"/>
+      <c r="AY11" s="122"/>
+      <c r="AZ11" s="122"/>
+      <c r="BA11" s="122"/>
+      <c r="BB11" s="122"/>
+      <c r="BC11" s="122"/>
+      <c r="BD11" s="122"/>
+      <c r="BE11" s="122"/>
+      <c r="BF11" s="122"/>
+      <c r="BG11" s="122"/>
+      <c r="BH11" s="122"/>
+      <c r="BI11" s="122"/>
+      <c r="BJ11" s="122"/>
+      <c r="BK11" s="122"/>
+      <c r="BL11" s="122"/>
+      <c r="BM11" s="122"/>
+      <c r="BN11" s="122"/>
+      <c r="BO11" s="122"/>
+      <c r="BP11" s="122"/>
+      <c r="BQ11" s="122"/>
+      <c r="BR11" s="122"/>
+      <c r="BS11" s="122"/>
+      <c r="BT11" s="122"/>
+      <c r="BU11" s="122"/>
+      <c r="BV11" s="122"/>
+      <c r="BW11" s="122"/>
+      <c r="BX11" s="123"/>
+    </row>
+    <row r="12" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B12" s="117">
+        <v>7</v>
+      </c>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="120" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="80"/>
+      <c r="AD12" s="80"/>
+      <c r="AE12" s="80"/>
+      <c r="AF12" s="81"/>
+      <c r="AG12" s="82"/>
+      <c r="AH12" s="80"/>
+      <c r="AI12" s="80"/>
+      <c r="AJ12" s="80"/>
+      <c r="AK12" s="81"/>
+      <c r="AL12" s="82"/>
+      <c r="AM12" s="80"/>
+      <c r="AN12" s="80"/>
+      <c r="AO12" s="80"/>
+      <c r="AP12" s="81"/>
+      <c r="AQ12" s="82"/>
+      <c r="AR12" s="80"/>
+      <c r="AS12" s="80"/>
+      <c r="AT12" s="80"/>
+      <c r="AU12" s="81"/>
+      <c r="AV12" s="82"/>
+      <c r="AW12" s="80"/>
+      <c r="AX12" s="80"/>
+      <c r="AY12" s="80"/>
+      <c r="AZ12" s="81"/>
+      <c r="BA12" s="82"/>
+      <c r="BB12" s="80"/>
+      <c r="BC12" s="80"/>
+      <c r="BD12" s="80"/>
+      <c r="BE12" s="81"/>
+      <c r="BF12" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG12" s="96"/>
+      <c r="BH12" s="96"/>
+      <c r="BI12" s="82"/>
+      <c r="BJ12" s="80"/>
+      <c r="BK12" s="80"/>
+      <c r="BL12" s="80"/>
+      <c r="BM12" s="81"/>
+      <c r="BN12" s="68"/>
+      <c r="BO12" s="68"/>
+      <c r="BP12" s="68"/>
+      <c r="BQ12" s="68"/>
+      <c r="BR12" s="68"/>
+      <c r="BS12" s="68"/>
+      <c r="BT12" s="68"/>
+      <c r="BU12" s="68"/>
+      <c r="BV12" s="68"/>
+      <c r="BW12" s="68"/>
+      <c r="BX12" s="69"/>
+    </row>
+    <row r="13" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B13" s="101">
+        <v>8</v>
+      </c>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="92"/>
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="92"/>
+      <c r="AA13" s="93"/>
+      <c r="AB13" s="94"/>
+      <c r="AC13" s="92"/>
+      <c r="AD13" s="92"/>
+      <c r="AE13" s="92"/>
+      <c r="AF13" s="93"/>
+      <c r="AG13" s="94"/>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="92"/>
+      <c r="AJ13" s="92"/>
+      <c r="AK13" s="93"/>
+      <c r="AL13" s="94"/>
+      <c r="AM13" s="92"/>
+      <c r="AN13" s="92"/>
+      <c r="AO13" s="92"/>
+      <c r="AP13" s="93"/>
+      <c r="AQ13" s="94"/>
+      <c r="AR13" s="92"/>
+      <c r="AS13" s="92"/>
+      <c r="AT13" s="92"/>
+      <c r="AU13" s="93"/>
+      <c r="AV13" s="94"/>
+      <c r="AW13" s="92"/>
+      <c r="AX13" s="92"/>
+      <c r="AY13" s="92"/>
+      <c r="AZ13" s="93"/>
+      <c r="BA13" s="94"/>
+      <c r="BB13" s="92"/>
+      <c r="BC13" s="92"/>
+      <c r="BD13" s="92"/>
+      <c r="BE13" s="93"/>
+      <c r="BF13" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG13" s="98"/>
+      <c r="BH13" s="98"/>
+      <c r="BI13" s="94"/>
+      <c r="BJ13" s="92"/>
+      <c r="BK13" s="92"/>
+      <c r="BL13" s="92"/>
+      <c r="BM13" s="93"/>
+      <c r="BN13" s="99"/>
+      <c r="BO13" s="99"/>
+      <c r="BP13" s="99"/>
+      <c r="BQ13" s="99"/>
+      <c r="BR13" s="99"/>
+      <c r="BS13" s="99"/>
+      <c r="BT13" s="99"/>
+      <c r="BU13" s="99"/>
+      <c r="BV13" s="99"/>
+      <c r="BW13" s="99"/>
+      <c r="BX13" s="100"/>
+    </row>
+    <row r="14" spans="2:76" ht="16.5">
+      <c r="B14" s="101">
+        <v>9</v>
+      </c>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="92"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="92"/>
+      <c r="Y14" s="92"/>
+      <c r="Z14" s="92"/>
+      <c r="AA14" s="93"/>
+      <c r="AB14" s="94"/>
+      <c r="AC14" s="92"/>
+      <c r="AD14" s="92"/>
+      <c r="AE14" s="92"/>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="91"/>
+      <c r="AH14" s="92"/>
+      <c r="AI14" s="92"/>
+      <c r="AJ14" s="92"/>
+      <c r="AK14" s="93"/>
+      <c r="AL14" s="94"/>
+      <c r="AM14" s="92"/>
+      <c r="AN14" s="92"/>
+      <c r="AO14" s="92"/>
+      <c r="AP14" s="93"/>
+      <c r="AQ14" s="94"/>
+      <c r="AR14" s="92"/>
+      <c r="AS14" s="92"/>
+      <c r="AT14" s="92"/>
+      <c r="AU14" s="93"/>
+      <c r="AV14" s="94"/>
+      <c r="AW14" s="92"/>
+      <c r="AX14" s="92"/>
+      <c r="AY14" s="92"/>
+      <c r="AZ14" s="93"/>
+      <c r="BA14" s="94"/>
+      <c r="BB14" s="92"/>
+      <c r="BC14" s="92"/>
+      <c r="BD14" s="92"/>
+      <c r="BE14" s="93"/>
+      <c r="BF14" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG14" s="98"/>
+      <c r="BH14" s="98"/>
+      <c r="BI14" s="94"/>
+      <c r="BJ14" s="92"/>
+      <c r="BK14" s="92"/>
+      <c r="BL14" s="92"/>
+      <c r="BM14" s="93"/>
+      <c r="BN14" s="99"/>
+      <c r="BO14" s="99"/>
+      <c r="BP14" s="99"/>
+      <c r="BQ14" s="99"/>
+      <c r="BR14" s="99"/>
+      <c r="BS14" s="99"/>
+      <c r="BT14" s="99"/>
+      <c r="BU14" s="99"/>
+      <c r="BV14" s="99"/>
+      <c r="BW14" s="99"/>
+      <c r="BX14" s="100"/>
+    </row>
+    <row r="15" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B15" s="101">
+        <v>10</v>
+      </c>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="92"/>
+      <c r="AA15" s="93"/>
+      <c r="AB15" s="94"/>
+      <c r="AC15" s="92"/>
+      <c r="AD15" s="92"/>
+      <c r="AE15" s="92"/>
+      <c r="AF15" s="93"/>
+      <c r="AG15" s="91"/>
+      <c r="AH15" s="92"/>
+      <c r="AI15" s="92"/>
+      <c r="AJ15" s="92"/>
+      <c r="AK15" s="93"/>
+      <c r="AL15" s="94"/>
+      <c r="AM15" s="92"/>
+      <c r="AN15" s="92"/>
+      <c r="AO15" s="92"/>
+      <c r="AP15" s="93"/>
+      <c r="AQ15" s="94"/>
+      <c r="AR15" s="92"/>
+      <c r="AS15" s="92"/>
+      <c r="AT15" s="92"/>
+      <c r="AU15" s="93"/>
+      <c r="AV15" s="94"/>
+      <c r="AW15" s="92"/>
+      <c r="AX15" s="92"/>
+      <c r="AY15" s="92"/>
+      <c r="AZ15" s="93"/>
+      <c r="BA15" s="94"/>
+      <c r="BB15" s="92"/>
+      <c r="BC15" s="92"/>
+      <c r="BD15" s="92"/>
+      <c r="BE15" s="93"/>
+      <c r="BF15" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG15" s="98"/>
+      <c r="BH15" s="98"/>
+      <c r="BI15" s="94"/>
+      <c r="BJ15" s="92"/>
+      <c r="BK15" s="92"/>
+      <c r="BL15" s="92"/>
+      <c r="BM15" s="93"/>
+      <c r="BN15" s="99"/>
+      <c r="BO15" s="99"/>
+      <c r="BP15" s="99"/>
+      <c r="BQ15" s="99"/>
+      <c r="BR15" s="99"/>
+      <c r="BS15" s="99"/>
+      <c r="BT15" s="99"/>
+      <c r="BU15" s="99"/>
+      <c r="BV15" s="99"/>
+      <c r="BW15" s="99"/>
+      <c r="BX15" s="100"/>
+    </row>
+    <row r="16" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B16" s="101">
+        <v>11</v>
+      </c>
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="93"/>
+      <c r="AB16" s="94"/>
+      <c r="AC16" s="92"/>
+      <c r="AD16" s="92"/>
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="91"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="92"/>
+      <c r="AJ16" s="92"/>
+      <c r="AK16" s="93"/>
+      <c r="AL16" s="94"/>
+      <c r="AM16" s="92"/>
+      <c r="AN16" s="92"/>
+      <c r="AO16" s="92"/>
+      <c r="AP16" s="93"/>
+      <c r="AQ16" s="94"/>
+      <c r="AR16" s="92"/>
+      <c r="AS16" s="92"/>
+      <c r="AT16" s="92"/>
+      <c r="AU16" s="93"/>
+      <c r="AV16" s="94"/>
+      <c r="AW16" s="92"/>
+      <c r="AX16" s="92"/>
+      <c r="AY16" s="92"/>
+      <c r="AZ16" s="93"/>
+      <c r="BA16" s="94"/>
+      <c r="BB16" s="92"/>
+      <c r="BC16" s="92"/>
+      <c r="BD16" s="92"/>
+      <c r="BE16" s="93"/>
+      <c r="BF16" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG16" s="98"/>
+      <c r="BH16" s="98"/>
+      <c r="BI16" s="94"/>
+      <c r="BJ16" s="92"/>
+      <c r="BK16" s="92"/>
+      <c r="BL16" s="92"/>
+      <c r="BM16" s="93"/>
+      <c r="BN16" s="99"/>
+      <c r="BO16" s="99"/>
+      <c r="BP16" s="99"/>
+      <c r="BQ16" s="99"/>
+      <c r="BR16" s="99"/>
+      <c r="BS16" s="99"/>
+      <c r="BT16" s="99"/>
+      <c r="BU16" s="99"/>
+      <c r="BV16" s="99"/>
+      <c r="BW16" s="99"/>
+      <c r="BX16" s="100"/>
+    </row>
+    <row r="17" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B17" s="101">
+        <v>12</v>
+      </c>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="113"/>
+      <c r="S17" s="111"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="112"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="111"/>
+      <c r="Y17" s="111"/>
+      <c r="Z17" s="111"/>
+      <c r="AA17" s="112"/>
+      <c r="AB17" s="113"/>
+      <c r="AC17" s="111"/>
+      <c r="AD17" s="111"/>
+      <c r="AE17" s="111"/>
+      <c r="AF17" s="112"/>
+      <c r="AG17" s="110"/>
+      <c r="AH17" s="111"/>
+      <c r="AI17" s="111"/>
+      <c r="AJ17" s="111"/>
+      <c r="AK17" s="112"/>
+      <c r="AL17" s="113"/>
+      <c r="AM17" s="111"/>
+      <c r="AN17" s="111"/>
+      <c r="AO17" s="111"/>
+      <c r="AP17" s="112"/>
+      <c r="AQ17" s="113"/>
+      <c r="AR17" s="111"/>
+      <c r="AS17" s="111"/>
+      <c r="AT17" s="111"/>
+      <c r="AU17" s="112"/>
+      <c r="AV17" s="113"/>
+      <c r="AW17" s="111"/>
+      <c r="AX17" s="111"/>
+      <c r="AY17" s="111"/>
+      <c r="AZ17" s="112"/>
+      <c r="BA17" s="113"/>
+      <c r="BB17" s="111"/>
+      <c r="BC17" s="111"/>
+      <c r="BD17" s="111"/>
+      <c r="BE17" s="112"/>
+      <c r="BF17" s="115" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG17" s="116"/>
+      <c r="BH17" s="116"/>
+      <c r="BI17" s="113"/>
+      <c r="BJ17" s="111"/>
+      <c r="BK17" s="111"/>
+      <c r="BL17" s="111"/>
+      <c r="BM17" s="112"/>
+      <c r="BN17" s="109"/>
+      <c r="BO17" s="109"/>
+      <c r="BP17" s="109"/>
+      <c r="BQ17" s="109"/>
+      <c r="BR17" s="109"/>
+      <c r="BS17" s="109"/>
+      <c r="BT17" s="109"/>
+      <c r="BU17" s="109"/>
+      <c r="BV17" s="109"/>
+      <c r="BW17" s="109"/>
+      <c r="BX17" s="114"/>
+    </row>
+    <row r="18" spans="2:76" ht="16.5">
+      <c r="B18" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="BB3" s="87"/>
-      <c r="BC3" s="87"/>
-      <c r="BD3" s="87"/>
-      <c r="BE3" s="88"/>
-      <c r="BF3" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="BG3" s="90"/>
-      <c r="BH3" s="90"/>
-      <c r="BI3" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ3" s="72"/>
-      <c r="BK3" s="72"/>
-      <c r="BL3" s="72"/>
-      <c r="BM3" s="73"/>
-      <c r="BN3" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="BO3" s="74"/>
-      <c r="BP3" s="74"/>
-      <c r="BQ3" s="74"/>
-      <c r="BR3" s="74"/>
-      <c r="BS3" s="74"/>
-      <c r="BT3" s="74"/>
-      <c r="BU3" s="74"/>
-      <c r="BV3" s="74"/>
-      <c r="BW3" s="74"/>
-      <c r="BX3" s="75"/>
-    </row>
-    <row r="4" spans="2:76" ht="15" customHeight="1">
-      <c r="B4" s="123" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="124"/>
-      <c r="Z4" s="124"/>
-      <c r="AA4" s="124"/>
-      <c r="AB4" s="124"/>
-      <c r="AC4" s="124"/>
-      <c r="AD4" s="124"/>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="124"/>
-      <c r="AG4" s="124"/>
-      <c r="AH4" s="124"/>
-      <c r="AI4" s="124"/>
-      <c r="AJ4" s="124"/>
-      <c r="AK4" s="124"/>
-      <c r="AL4" s="124"/>
-      <c r="AM4" s="124"/>
-      <c r="AN4" s="124"/>
-      <c r="AO4" s="124"/>
-      <c r="AP4" s="124"/>
-      <c r="AQ4" s="124"/>
-      <c r="AR4" s="124"/>
-      <c r="AS4" s="124"/>
-      <c r="AT4" s="124"/>
-      <c r="AU4" s="124"/>
-      <c r="AV4" s="124"/>
-      <c r="AW4" s="124"/>
-      <c r="AX4" s="124"/>
-      <c r="AY4" s="124"/>
-      <c r="AZ4" s="124"/>
-      <c r="BA4" s="124"/>
-      <c r="BB4" s="124"/>
-      <c r="BC4" s="124"/>
-      <c r="BD4" s="124"/>
-      <c r="BE4" s="124"/>
-      <c r="BF4" s="124"/>
-      <c r="BG4" s="124"/>
-      <c r="BH4" s="124"/>
-      <c r="BI4" s="124"/>
-      <c r="BJ4" s="124"/>
-      <c r="BK4" s="124"/>
-      <c r="BL4" s="124"/>
-      <c r="BM4" s="124"/>
-      <c r="BN4" s="124"/>
-      <c r="BO4" s="124"/>
-      <c r="BP4" s="124"/>
-      <c r="BQ4" s="124"/>
-      <c r="BR4" s="124"/>
-      <c r="BS4" s="124"/>
-      <c r="BT4" s="124"/>
-      <c r="BU4" s="124"/>
-      <c r="BV4" s="124"/>
-      <c r="BW4" s="124"/>
-      <c r="BX4" s="125"/>
-    </row>
-    <row r="5" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B5" s="119">
-        <v>1</v>
-      </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="122" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="82"/>
-      <c r="AF5" s="83"/>
-      <c r="AG5" s="84"/>
-      <c r="AH5" s="82"/>
-      <c r="AI5" s="82"/>
-      <c r="AJ5" s="82"/>
-      <c r="AK5" s="83"/>
-      <c r="AL5" s="84"/>
-      <c r="AM5" s="82"/>
-      <c r="AN5" s="82"/>
-      <c r="AO5" s="82"/>
-      <c r="AP5" s="83"/>
-      <c r="AQ5" s="84"/>
-      <c r="AR5" s="82"/>
-      <c r="AS5" s="82"/>
-      <c r="AT5" s="82"/>
-      <c r="AU5" s="83"/>
-      <c r="AV5" s="84"/>
-      <c r="AW5" s="82"/>
-      <c r="AX5" s="82"/>
-      <c r="AY5" s="82"/>
-      <c r="AZ5" s="83"/>
-      <c r="BA5" s="84"/>
-      <c r="BB5" s="82"/>
-      <c r="BC5" s="82"/>
-      <c r="BD5" s="82"/>
-      <c r="BE5" s="83"/>
-      <c r="BF5" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG5" s="98"/>
-      <c r="BH5" s="98"/>
-      <c r="BI5" s="84"/>
-      <c r="BJ5" s="82"/>
-      <c r="BK5" s="82"/>
-      <c r="BL5" s="82"/>
-      <c r="BM5" s="83"/>
-      <c r="BN5" s="70"/>
-      <c r="BO5" s="70"/>
-      <c r="BP5" s="70"/>
-      <c r="BQ5" s="70"/>
-      <c r="BR5" s="70"/>
-      <c r="BS5" s="70"/>
-      <c r="BT5" s="70"/>
-      <c r="BU5" s="70"/>
-      <c r="BV5" s="70"/>
-      <c r="BW5" s="70"/>
-      <c r="BX5" s="71"/>
-    </row>
-    <row r="6" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B6" s="103">
-        <v>2</v>
-      </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="106" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="94"/>
-      <c r="T6" s="94"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="94"/>
-      <c r="Z6" s="94"/>
-      <c r="AA6" s="95"/>
-      <c r="AB6" s="96"/>
-      <c r="AC6" s="94"/>
-      <c r="AD6" s="94"/>
-      <c r="AE6" s="94"/>
-      <c r="AF6" s="95"/>
-      <c r="AG6" s="96"/>
-      <c r="AH6" s="94"/>
-      <c r="AI6" s="94"/>
-      <c r="AJ6" s="94"/>
-      <c r="AK6" s="95"/>
-      <c r="AL6" s="96"/>
-      <c r="AM6" s="94"/>
-      <c r="AN6" s="94"/>
-      <c r="AO6" s="94"/>
-      <c r="AP6" s="95"/>
-      <c r="AQ6" s="96"/>
-      <c r="AR6" s="94"/>
-      <c r="AS6" s="94"/>
-      <c r="AT6" s="94"/>
-      <c r="AU6" s="95"/>
-      <c r="AV6" s="96"/>
-      <c r="AW6" s="94"/>
-      <c r="AX6" s="94"/>
-      <c r="AY6" s="94"/>
-      <c r="AZ6" s="95"/>
-      <c r="BA6" s="96"/>
-      <c r="BB6" s="94"/>
-      <c r="BC6" s="94"/>
-      <c r="BD6" s="94"/>
-      <c r="BE6" s="95"/>
-      <c r="BF6" s="99" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG6" s="100"/>
-      <c r="BH6" s="100"/>
-      <c r="BI6" s="96"/>
-      <c r="BJ6" s="94"/>
-      <c r="BK6" s="94"/>
-      <c r="BL6" s="94"/>
-      <c r="BM6" s="95"/>
-      <c r="BN6" s="101"/>
-      <c r="BO6" s="101"/>
-      <c r="BP6" s="101"/>
-      <c r="BQ6" s="101"/>
-      <c r="BR6" s="101"/>
-      <c r="BS6" s="101"/>
-      <c r="BT6" s="101"/>
-      <c r="BU6" s="101"/>
-      <c r="BV6" s="101"/>
-      <c r="BW6" s="101"/>
-      <c r="BX6" s="102"/>
-    </row>
-    <row r="7" spans="2:76" ht="16.5">
-      <c r="B7" s="103">
-        <v>3</v>
-      </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="106" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+    </row>
+    <row r="19" spans="2:76" ht="16.5">
+      <c r="I19" s="35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="2:76" ht="16.5">
+      <c r="I20" s="35" t="s">
         <v>109</v>
-      </c>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="95"/>
-      <c r="W7" s="96"/>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="94"/>
-      <c r="Z7" s="94"/>
-      <c r="AA7" s="95"/>
-      <c r="AB7" s="96"/>
-      <c r="AC7" s="94"/>
-      <c r="AD7" s="94"/>
-      <c r="AE7" s="94"/>
-      <c r="AF7" s="95"/>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="94"/>
-      <c r="AI7" s="94"/>
-      <c r="AJ7" s="94"/>
-      <c r="AK7" s="95"/>
-      <c r="AL7" s="96"/>
-      <c r="AM7" s="94"/>
-      <c r="AN7" s="94"/>
-      <c r="AO7" s="94"/>
-      <c r="AP7" s="95"/>
-      <c r="AQ7" s="96"/>
-      <c r="AR7" s="94"/>
-      <c r="AS7" s="94"/>
-      <c r="AT7" s="94"/>
-      <c r="AU7" s="95"/>
-      <c r="AV7" s="96"/>
-      <c r="AW7" s="94"/>
-      <c r="AX7" s="94"/>
-      <c r="AY7" s="94"/>
-      <c r="AZ7" s="95"/>
-      <c r="BA7" s="96"/>
-      <c r="BB7" s="94"/>
-      <c r="BC7" s="94"/>
-      <c r="BD7" s="94"/>
-      <c r="BE7" s="95"/>
-      <c r="BF7" s="99" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG7" s="100"/>
-      <c r="BH7" s="100"/>
-      <c r="BI7" s="96"/>
-      <c r="BJ7" s="94"/>
-      <c r="BK7" s="94"/>
-      <c r="BL7" s="94"/>
-      <c r="BM7" s="95"/>
-      <c r="BN7" s="101"/>
-      <c r="BO7" s="101"/>
-      <c r="BP7" s="101"/>
-      <c r="BQ7" s="101"/>
-      <c r="BR7" s="101"/>
-      <c r="BS7" s="101"/>
-      <c r="BT7" s="101"/>
-      <c r="BU7" s="101"/>
-      <c r="BV7" s="101"/>
-      <c r="BW7" s="101"/>
-      <c r="BX7" s="102"/>
-    </row>
-    <row r="8" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B8" s="103">
-        <v>4</v>
-      </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="94"/>
-      <c r="T8" s="94"/>
-      <c r="U8" s="94"/>
-      <c r="V8" s="95"/>
-      <c r="W8" s="96"/>
-      <c r="X8" s="94"/>
-      <c r="Y8" s="94"/>
-      <c r="Z8" s="94"/>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="96"/>
-      <c r="AC8" s="94"/>
-      <c r="AD8" s="94"/>
-      <c r="AE8" s="94"/>
-      <c r="AF8" s="95"/>
-      <c r="AG8" s="93"/>
-      <c r="AH8" s="94"/>
-      <c r="AI8" s="94"/>
-      <c r="AJ8" s="94"/>
-      <c r="AK8" s="95"/>
-      <c r="AL8" s="96"/>
-      <c r="AM8" s="94"/>
-      <c r="AN8" s="94"/>
-      <c r="AO8" s="94"/>
-      <c r="AP8" s="95"/>
-      <c r="AQ8" s="96"/>
-      <c r="AR8" s="94"/>
-      <c r="AS8" s="94"/>
-      <c r="AT8" s="94"/>
-      <c r="AU8" s="95"/>
-      <c r="AV8" s="96"/>
-      <c r="AW8" s="94"/>
-      <c r="AX8" s="94"/>
-      <c r="AY8" s="94"/>
-      <c r="AZ8" s="95"/>
-      <c r="BA8" s="96"/>
-      <c r="BB8" s="94"/>
-      <c r="BC8" s="94"/>
-      <c r="BD8" s="94"/>
-      <c r="BE8" s="95"/>
-      <c r="BF8" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="BG8" s="100"/>
-      <c r="BH8" s="100"/>
-      <c r="BI8" s="96"/>
-      <c r="BJ8" s="94"/>
-      <c r="BK8" s="94"/>
-      <c r="BL8" s="94"/>
-      <c r="BM8" s="95"/>
-      <c r="BN8" s="101"/>
-      <c r="BO8" s="101"/>
-      <c r="BP8" s="101"/>
-      <c r="BQ8" s="101"/>
-      <c r="BR8" s="101"/>
-      <c r="BS8" s="101"/>
-      <c r="BT8" s="101"/>
-      <c r="BU8" s="101"/>
-      <c r="BV8" s="101"/>
-      <c r="BW8" s="101"/>
-      <c r="BX8" s="102"/>
-    </row>
-    <row r="9" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B9" s="103">
-        <v>5</v>
-      </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="95"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="94"/>
-      <c r="V9" s="95"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="94"/>
-      <c r="Y9" s="94"/>
-      <c r="Z9" s="94"/>
-      <c r="AA9" s="95"/>
-      <c r="AB9" s="96"/>
-      <c r="AC9" s="94"/>
-      <c r="AD9" s="94"/>
-      <c r="AE9" s="94"/>
-      <c r="AF9" s="95"/>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="94"/>
-      <c r="AI9" s="94"/>
-      <c r="AJ9" s="94"/>
-      <c r="AK9" s="95"/>
-      <c r="AL9" s="96"/>
-      <c r="AM9" s="94"/>
-      <c r="AN9" s="94"/>
-      <c r="AO9" s="94"/>
-      <c r="AP9" s="95"/>
-      <c r="AQ9" s="96"/>
-      <c r="AR9" s="94"/>
-      <c r="AS9" s="94"/>
-      <c r="AT9" s="94"/>
-      <c r="AU9" s="95"/>
-      <c r="AV9" s="96"/>
-      <c r="AW9" s="94"/>
-      <c r="AX9" s="94"/>
-      <c r="AY9" s="94"/>
-      <c r="AZ9" s="95"/>
-      <c r="BA9" s="96"/>
-      <c r="BB9" s="94"/>
-      <c r="BC9" s="94"/>
-      <c r="BD9" s="94"/>
-      <c r="BE9" s="95"/>
-      <c r="BF9" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="BG9" s="100"/>
-      <c r="BH9" s="100"/>
-      <c r="BI9" s="96"/>
-      <c r="BJ9" s="94"/>
-      <c r="BK9" s="94"/>
-      <c r="BL9" s="94"/>
-      <c r="BM9" s="95"/>
-      <c r="BN9" s="101"/>
-      <c r="BO9" s="101"/>
-      <c r="BP9" s="101"/>
-      <c r="BQ9" s="101"/>
-      <c r="BR9" s="101"/>
-      <c r="BS9" s="101"/>
-      <c r="BT9" s="101"/>
-      <c r="BU9" s="101"/>
-      <c r="BV9" s="101"/>
-      <c r="BW9" s="101"/>
-      <c r="BX9" s="102"/>
-    </row>
-    <row r="10" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B10" s="103">
-        <v>6</v>
-      </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="115"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="114"/>
-      <c r="AB10" s="115"/>
-      <c r="AC10" s="113"/>
-      <c r="AD10" s="113"/>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="112"/>
-      <c r="AH10" s="113"/>
-      <c r="AI10" s="113"/>
-      <c r="AJ10" s="113"/>
-      <c r="AK10" s="114"/>
-      <c r="AL10" s="115"/>
-      <c r="AM10" s="113"/>
-      <c r="AN10" s="113"/>
-      <c r="AO10" s="113"/>
-      <c r="AP10" s="114"/>
-      <c r="AQ10" s="115"/>
-      <c r="AR10" s="113"/>
-      <c r="AS10" s="113"/>
-      <c r="AT10" s="113"/>
-      <c r="AU10" s="114"/>
-      <c r="AV10" s="115"/>
-      <c r="AW10" s="113"/>
-      <c r="AX10" s="113"/>
-      <c r="AY10" s="113"/>
-      <c r="AZ10" s="114"/>
-      <c r="BA10" s="115"/>
-      <c r="BB10" s="113"/>
-      <c r="BC10" s="113"/>
-      <c r="BD10" s="113"/>
-      <c r="BE10" s="114"/>
-      <c r="BF10" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="BG10" s="118"/>
-      <c r="BH10" s="118"/>
-      <c r="BI10" s="115"/>
-      <c r="BJ10" s="113"/>
-      <c r="BK10" s="113"/>
-      <c r="BL10" s="113"/>
-      <c r="BM10" s="114"/>
-      <c r="BN10" s="111"/>
-      <c r="BO10" s="111"/>
-      <c r="BP10" s="111"/>
-      <c r="BQ10" s="111"/>
-      <c r="BR10" s="111"/>
-      <c r="BS10" s="111"/>
-      <c r="BT10" s="111"/>
-      <c r="BU10" s="111"/>
-      <c r="BV10" s="111"/>
-      <c r="BW10" s="111"/>
-      <c r="BX10" s="116"/>
-    </row>
-    <row r="11" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B11" s="126" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="124"/>
-      <c r="Q11" s="124"/>
-      <c r="R11" s="124"/>
-      <c r="S11" s="124"/>
-      <c r="T11" s="124"/>
-      <c r="U11" s="124"/>
-      <c r="V11" s="124"/>
-      <c r="W11" s="124"/>
-      <c r="X11" s="124"/>
-      <c r="Y11" s="124"/>
-      <c r="Z11" s="124"/>
-      <c r="AA11" s="124"/>
-      <c r="AB11" s="124"/>
-      <c r="AC11" s="124"/>
-      <c r="AD11" s="124"/>
-      <c r="AE11" s="124"/>
-      <c r="AF11" s="124"/>
-      <c r="AG11" s="124"/>
-      <c r="AH11" s="124"/>
-      <c r="AI11" s="124"/>
-      <c r="AJ11" s="124"/>
-      <c r="AK11" s="124"/>
-      <c r="AL11" s="124"/>
-      <c r="AM11" s="124"/>
-      <c r="AN11" s="124"/>
-      <c r="AO11" s="124"/>
-      <c r="AP11" s="124"/>
-      <c r="AQ11" s="124"/>
-      <c r="AR11" s="124"/>
-      <c r="AS11" s="124"/>
-      <c r="AT11" s="124"/>
-      <c r="AU11" s="124"/>
-      <c r="AV11" s="124"/>
-      <c r="AW11" s="124"/>
-      <c r="AX11" s="124"/>
-      <c r="AY11" s="124"/>
-      <c r="AZ11" s="124"/>
-      <c r="BA11" s="124"/>
-      <c r="BB11" s="124"/>
-      <c r="BC11" s="124"/>
-      <c r="BD11" s="124"/>
-      <c r="BE11" s="124"/>
-      <c r="BF11" s="124"/>
-      <c r="BG11" s="124"/>
-      <c r="BH11" s="124"/>
-      <c r="BI11" s="124"/>
-      <c r="BJ11" s="124"/>
-      <c r="BK11" s="124"/>
-      <c r="BL11" s="124"/>
-      <c r="BM11" s="124"/>
-      <c r="BN11" s="124"/>
-      <c r="BO11" s="124"/>
-      <c r="BP11" s="124"/>
-      <c r="BQ11" s="124"/>
-      <c r="BR11" s="124"/>
-      <c r="BS11" s="124"/>
-      <c r="BT11" s="124"/>
-      <c r="BU11" s="124"/>
-      <c r="BV11" s="124"/>
-      <c r="BW11" s="124"/>
-      <c r="BX11" s="125"/>
-    </row>
-    <row r="12" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B12" s="119">
-        <v>7</v>
-      </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="122" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="82"/>
-      <c r="Y12" s="82"/>
-      <c r="Z12" s="82"/>
-      <c r="AA12" s="83"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="82"/>
-      <c r="AD12" s="82"/>
-      <c r="AE12" s="82"/>
-      <c r="AF12" s="83"/>
-      <c r="AG12" s="84"/>
-      <c r="AH12" s="82"/>
-      <c r="AI12" s="82"/>
-      <c r="AJ12" s="82"/>
-      <c r="AK12" s="83"/>
-      <c r="AL12" s="84"/>
-      <c r="AM12" s="82"/>
-      <c r="AN12" s="82"/>
-      <c r="AO12" s="82"/>
-      <c r="AP12" s="83"/>
-      <c r="AQ12" s="84"/>
-      <c r="AR12" s="82"/>
-      <c r="AS12" s="82"/>
-      <c r="AT12" s="82"/>
-      <c r="AU12" s="83"/>
-      <c r="AV12" s="84"/>
-      <c r="AW12" s="82"/>
-      <c r="AX12" s="82"/>
-      <c r="AY12" s="82"/>
-      <c r="AZ12" s="83"/>
-      <c r="BA12" s="84"/>
-      <c r="BB12" s="82"/>
-      <c r="BC12" s="82"/>
-      <c r="BD12" s="82"/>
-      <c r="BE12" s="83"/>
-      <c r="BF12" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG12" s="98"/>
-      <c r="BH12" s="98"/>
-      <c r="BI12" s="84"/>
-      <c r="BJ12" s="82"/>
-      <c r="BK12" s="82"/>
-      <c r="BL12" s="82"/>
-      <c r="BM12" s="83"/>
-      <c r="BN12" s="70"/>
-      <c r="BO12" s="70"/>
-      <c r="BP12" s="70"/>
-      <c r="BQ12" s="70"/>
-      <c r="BR12" s="70"/>
-      <c r="BS12" s="70"/>
-      <c r="BT12" s="70"/>
-      <c r="BU12" s="70"/>
-      <c r="BV12" s="70"/>
-      <c r="BW12" s="70"/>
-      <c r="BX12" s="71"/>
-    </row>
-    <row r="13" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B13" s="103">
-        <v>8</v>
-      </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="106" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="94"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="94"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="94"/>
-      <c r="AD13" s="94"/>
-      <c r="AE13" s="94"/>
-      <c r="AF13" s="95"/>
-      <c r="AG13" s="96"/>
-      <c r="AH13" s="94"/>
-      <c r="AI13" s="94"/>
-      <c r="AJ13" s="94"/>
-      <c r="AK13" s="95"/>
-      <c r="AL13" s="96"/>
-      <c r="AM13" s="94"/>
-      <c r="AN13" s="94"/>
-      <c r="AO13" s="94"/>
-      <c r="AP13" s="95"/>
-      <c r="AQ13" s="96"/>
-      <c r="AR13" s="94"/>
-      <c r="AS13" s="94"/>
-      <c r="AT13" s="94"/>
-      <c r="AU13" s="95"/>
-      <c r="AV13" s="96"/>
-      <c r="AW13" s="94"/>
-      <c r="AX13" s="94"/>
-      <c r="AY13" s="94"/>
-      <c r="AZ13" s="95"/>
-      <c r="BA13" s="96"/>
-      <c r="BB13" s="94"/>
-      <c r="BC13" s="94"/>
-      <c r="BD13" s="94"/>
-      <c r="BE13" s="95"/>
-      <c r="BF13" s="99" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG13" s="100"/>
-      <c r="BH13" s="100"/>
-      <c r="BI13" s="96"/>
-      <c r="BJ13" s="94"/>
-      <c r="BK13" s="94"/>
-      <c r="BL13" s="94"/>
-      <c r="BM13" s="95"/>
-      <c r="BN13" s="101"/>
-      <c r="BO13" s="101"/>
-      <c r="BP13" s="101"/>
-      <c r="BQ13" s="101"/>
-      <c r="BR13" s="101"/>
-      <c r="BS13" s="101"/>
-      <c r="BT13" s="101"/>
-      <c r="BU13" s="101"/>
-      <c r="BV13" s="101"/>
-      <c r="BW13" s="101"/>
-      <c r="BX13" s="102"/>
-    </row>
-    <row r="14" spans="2:76" ht="16.5">
-      <c r="B14" s="103">
-        <v>9</v>
-      </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="106" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="94"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="94"/>
-      <c r="Y14" s="94"/>
-      <c r="Z14" s="94"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="96"/>
-      <c r="AC14" s="94"/>
-      <c r="AD14" s="94"/>
-      <c r="AE14" s="94"/>
-      <c r="AF14" s="95"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="94"/>
-      <c r="AI14" s="94"/>
-      <c r="AJ14" s="94"/>
-      <c r="AK14" s="95"/>
-      <c r="AL14" s="96"/>
-      <c r="AM14" s="94"/>
-      <c r="AN14" s="94"/>
-      <c r="AO14" s="94"/>
-      <c r="AP14" s="95"/>
-      <c r="AQ14" s="96"/>
-      <c r="AR14" s="94"/>
-      <c r="AS14" s="94"/>
-      <c r="AT14" s="94"/>
-      <c r="AU14" s="95"/>
-      <c r="AV14" s="96"/>
-      <c r="AW14" s="94"/>
-      <c r="AX14" s="94"/>
-      <c r="AY14" s="94"/>
-      <c r="AZ14" s="95"/>
-      <c r="BA14" s="96"/>
-      <c r="BB14" s="94"/>
-      <c r="BC14" s="94"/>
-      <c r="BD14" s="94"/>
-      <c r="BE14" s="95"/>
-      <c r="BF14" s="99" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG14" s="100"/>
-      <c r="BH14" s="100"/>
-      <c r="BI14" s="96"/>
-      <c r="BJ14" s="94"/>
-      <c r="BK14" s="94"/>
-      <c r="BL14" s="94"/>
-      <c r="BM14" s="95"/>
-      <c r="BN14" s="101"/>
-      <c r="BO14" s="101"/>
-      <c r="BP14" s="101"/>
-      <c r="BQ14" s="101"/>
-      <c r="BR14" s="101"/>
-      <c r="BS14" s="101"/>
-      <c r="BT14" s="101"/>
-      <c r="BU14" s="101"/>
-      <c r="BV14" s="101"/>
-      <c r="BW14" s="101"/>
-      <c r="BX14" s="102"/>
-    </row>
-    <row r="15" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B15" s="103">
-        <v>10</v>
-      </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="94"/>
-      <c r="T15" s="94"/>
-      <c r="U15" s="94"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="94"/>
-      <c r="Y15" s="94"/>
-      <c r="Z15" s="94"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="96"/>
-      <c r="AC15" s="94"/>
-      <c r="AD15" s="94"/>
-      <c r="AE15" s="94"/>
-      <c r="AF15" s="95"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="94"/>
-      <c r="AI15" s="94"/>
-      <c r="AJ15" s="94"/>
-      <c r="AK15" s="95"/>
-      <c r="AL15" s="96"/>
-      <c r="AM15" s="94"/>
-      <c r="AN15" s="94"/>
-      <c r="AO15" s="94"/>
-      <c r="AP15" s="95"/>
-      <c r="AQ15" s="96"/>
-      <c r="AR15" s="94"/>
-      <c r="AS15" s="94"/>
-      <c r="AT15" s="94"/>
-      <c r="AU15" s="95"/>
-      <c r="AV15" s="96"/>
-      <c r="AW15" s="94"/>
-      <c r="AX15" s="94"/>
-      <c r="AY15" s="94"/>
-      <c r="AZ15" s="95"/>
-      <c r="BA15" s="96"/>
-      <c r="BB15" s="94"/>
-      <c r="BC15" s="94"/>
-      <c r="BD15" s="94"/>
-      <c r="BE15" s="95"/>
-      <c r="BF15" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="BG15" s="100"/>
-      <c r="BH15" s="100"/>
-      <c r="BI15" s="96"/>
-      <c r="BJ15" s="94"/>
-      <c r="BK15" s="94"/>
-      <c r="BL15" s="94"/>
-      <c r="BM15" s="95"/>
-      <c r="BN15" s="101"/>
-      <c r="BO15" s="101"/>
-      <c r="BP15" s="101"/>
-      <c r="BQ15" s="101"/>
-      <c r="BR15" s="101"/>
-      <c r="BS15" s="101"/>
-      <c r="BT15" s="101"/>
-      <c r="BU15" s="101"/>
-      <c r="BV15" s="101"/>
-      <c r="BW15" s="101"/>
-      <c r="BX15" s="102"/>
-    </row>
-    <row r="16" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B16" s="103">
-        <v>11</v>
-      </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="94"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="94"/>
-      <c r="Z16" s="94"/>
-      <c r="AA16" s="95"/>
-      <c r="AB16" s="96"/>
-      <c r="AC16" s="94"/>
-      <c r="AD16" s="94"/>
-      <c r="AE16" s="94"/>
-      <c r="AF16" s="95"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="94"/>
-      <c r="AI16" s="94"/>
-      <c r="AJ16" s="94"/>
-      <c r="AK16" s="95"/>
-      <c r="AL16" s="96"/>
-      <c r="AM16" s="94"/>
-      <c r="AN16" s="94"/>
-      <c r="AO16" s="94"/>
-      <c r="AP16" s="95"/>
-      <c r="AQ16" s="96"/>
-      <c r="AR16" s="94"/>
-      <c r="AS16" s="94"/>
-      <c r="AT16" s="94"/>
-      <c r="AU16" s="95"/>
-      <c r="AV16" s="96"/>
-      <c r="AW16" s="94"/>
-      <c r="AX16" s="94"/>
-      <c r="AY16" s="94"/>
-      <c r="AZ16" s="95"/>
-      <c r="BA16" s="96"/>
-      <c r="BB16" s="94"/>
-      <c r="BC16" s="94"/>
-      <c r="BD16" s="94"/>
-      <c r="BE16" s="95"/>
-      <c r="BF16" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="BG16" s="100"/>
-      <c r="BH16" s="100"/>
-      <c r="BI16" s="96"/>
-      <c r="BJ16" s="94"/>
-      <c r="BK16" s="94"/>
-      <c r="BL16" s="94"/>
-      <c r="BM16" s="95"/>
-      <c r="BN16" s="101"/>
-      <c r="BO16" s="101"/>
-      <c r="BP16" s="101"/>
-      <c r="BQ16" s="101"/>
-      <c r="BR16" s="101"/>
-      <c r="BS16" s="101"/>
-      <c r="BT16" s="101"/>
-      <c r="BU16" s="101"/>
-      <c r="BV16" s="101"/>
-      <c r="BW16" s="101"/>
-      <c r="BX16" s="102"/>
-    </row>
-    <row r="17" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B17" s="103">
-        <v>12</v>
-      </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="113"/>
-      <c r="Q17" s="114"/>
-      <c r="R17" s="115"/>
-      <c r="S17" s="113"/>
-      <c r="T17" s="113"/>
-      <c r="U17" s="113"/>
-      <c r="V17" s="114"/>
-      <c r="W17" s="115"/>
-      <c r="X17" s="113"/>
-      <c r="Y17" s="113"/>
-      <c r="Z17" s="113"/>
-      <c r="AA17" s="114"/>
-      <c r="AB17" s="115"/>
-      <c r="AC17" s="113"/>
-      <c r="AD17" s="113"/>
-      <c r="AE17" s="113"/>
-      <c r="AF17" s="114"/>
-      <c r="AG17" s="112"/>
-      <c r="AH17" s="113"/>
-      <c r="AI17" s="113"/>
-      <c r="AJ17" s="113"/>
-      <c r="AK17" s="114"/>
-      <c r="AL17" s="115"/>
-      <c r="AM17" s="113"/>
-      <c r="AN17" s="113"/>
-      <c r="AO17" s="113"/>
-      <c r="AP17" s="114"/>
-      <c r="AQ17" s="115"/>
-      <c r="AR17" s="113"/>
-      <c r="AS17" s="113"/>
-      <c r="AT17" s="113"/>
-      <c r="AU17" s="114"/>
-      <c r="AV17" s="115"/>
-      <c r="AW17" s="113"/>
-      <c r="AX17" s="113"/>
-      <c r="AY17" s="113"/>
-      <c r="AZ17" s="114"/>
-      <c r="BA17" s="115"/>
-      <c r="BB17" s="113"/>
-      <c r="BC17" s="113"/>
-      <c r="BD17" s="113"/>
-      <c r="BE17" s="114"/>
-      <c r="BF17" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="BG17" s="118"/>
-      <c r="BH17" s="118"/>
-      <c r="BI17" s="115"/>
-      <c r="BJ17" s="113"/>
-      <c r="BK17" s="113"/>
-      <c r="BL17" s="113"/>
-      <c r="BM17" s="114"/>
-      <c r="BN17" s="111"/>
-      <c r="BO17" s="111"/>
-      <c r="BP17" s="111"/>
-      <c r="BQ17" s="111"/>
-      <c r="BR17" s="111"/>
-      <c r="BS17" s="111"/>
-      <c r="BT17" s="111"/>
-      <c r="BU17" s="111"/>
-      <c r="BV17" s="111"/>
-      <c r="BW17" s="111"/>
-      <c r="BX17" s="116"/>
-    </row>
-    <row r="18" spans="2:76" ht="16.5">
-      <c r="B18" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-    </row>
-    <row r="19" spans="2:76" ht="16.5">
-      <c r="I19" s="36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="2:76" ht="16.5">
-      <c r="I20" s="36" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="21" spans="2:76" ht="9" customHeight="1"/>
@@ -7764,10 +7836,10 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="M5:BE10 BI5:BM10 M12:BE17 BI12:BM17">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7781,9 +7853,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EDE58D5F-9890-4395-BC0A-71DFCB4A617B}">
           <x14:formula1>
-            <xm:f>実施結果報告書!$L$1:$L$4</xm:f>
+            <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
           </x14:formula1>
-          <xm:sqref>BI12:BM17 M12:BE17 BI5:BM10 M5:BE10</xm:sqref>
+          <xm:sqref>BI12:BM17 M5:BE10 BI5:BM10 M12:BE17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ8100_消費税率マスタメンテナンス）.xlsx
+++ b/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ8100_消費税率マスタメンテナンス）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\youkei\Documents\50.単体テスト\01_単体テスト設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\AIplus_NAS\養鶏-互助防疫システム\backup\12_Documents\50.単体テスト\01_単体テスト設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7561E9-F545-4FB3-B3C1-A39AC8008179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07165ED1-8A69-45EB-8DAB-792288EC8BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="880" xr2:uid="{8AE4BD12-0B13-430A-A994-A2059EDE9970}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="880" activeTab="1" xr2:uid="{8AE4BD12-0B13-430A-A994-A2059EDE9970}"/>
   </bookViews>
   <sheets>
     <sheet name="実施結果報告書" sheetId="17" r:id="rId1"/>
@@ -216,7 +216,7 @@
     <definedName name="P.3">'[3]プロセス（課税明細書）'!$A$129</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GJ8100_消費税率一覧_チェックリスト!$A$1:$I$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">GJ8100_消費税率一覧_項目チェック!$A$1:$CA$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">GJ8101_消費税率マスタメンテナンス_チェックリスト!$A$1:$I$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">GJ8101_消費税率マスタメンテナンス_チェックリスト!$A$1:$I$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">GJ8101_消費税率マスタメンテナンス_項目チェック!$A$1:$CA$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">実施結果報告書!$A$1:$K$20</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="153">
   <si>
     <t>新規登録</t>
     <rPh sb="0" eb="4">
@@ -1185,25 +1185,150 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データが他のユーザによって更新している場合、エラーメッセージ※が表示されること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データが他のユーザによって更新している場合、現行システムと一致すること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト方法不明</t>
+    <t>新規モード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費税率マスタメンテナンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現行システム画面名：消費税率マスタメンテナンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GJ8101_消費税率マスタメンテナンス_項目チェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非活性化の状態で表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目制御</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除(新規モード)</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
     <rPh sb="3" eb="5">
-      <t>ホウホウ</t>
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作確認/メッセージ確認</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>現行システム※と一致すること</t>
+    <rPh sb="8" eb="10">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>※現行システムの戻るボタンを参照</t>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>閉じる(変更モード)</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>閉じる(新規モード)</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集なしの場合、現行システム※と一致すること</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
     </rPh>
     <rPh sb="5" eb="7">
-      <t>フメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規モード</t>
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>編集ありの場合、現行システム※と一致すること</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>中央揃えで表示されること</t>
+    <rPh sb="0" eb="2">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソロ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダー部</t>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>比較テスト仕様書（GJ8100_消費税率マスタメンテナンス）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスタメンテナンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GJ8100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GJ8100</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>GJ8101</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1211,277 +1336,78 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>現行システム画面名：消費税率マスタメンテナンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GJ8101_消費税率マスタメンテナンス_項目チェック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非活性化の状態で表示されること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>適用開始日/適用終了日
-(新規モード)</t>
-    <rPh sb="0" eb="2">
-      <t>テキヨウ</t>
-    </rPh>
+    <t>消費税率一覧</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>解像度1920×1080　ディスプレイ100%　ブラウザ100%で正常に表示できること</t>
+    <rPh sb="33" eb="35">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>テスト
+再確認</t>
+    <rPh sb="4" eb="5">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バグ記録</t>
     <rPh sb="2" eb="4">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>適用開始日/適用終了日
-(変更モード)</t>
-    <rPh sb="0" eb="2">
-      <t>テキヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DBに下記のいずれにも該当するデータが存在する場合、保存ボタンを押下すると現行システムと一致すること
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バグ　
+修正完了日</t>
+    <rPh sb="4" eb="8">
+      <t>シュウセイカンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適用終了日が適用開始日より前の場合、現行システムと一致すること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに下記のいずれにも該当するデータが存在する場合、現行システムと一致すること
 ・DB.適用開始日　&lt;&gt;　画面.適用開始日
 ・DB.適用開始日　&gt;=　画面.適用開始日
 ・DB.適用終了日　&lt;=　画面.適用終了日</t>
     <rPh sb="19" eb="21">
       <t>ソンザイ</t>
     </rPh>
-    <rPh sb="26" eb="28">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DBに下記のいずれにも該当するデータが存在する場合、保存ボタンを押下すると現行システムと一致すること
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに下記のいずれにも該当するデータが存在する場合、現行システムと一致すること
 ・DB.適用開始日　&lt;=　画面.適用開始日
 ・DB.適用終了日　&gt;=　画面.適用開始日</t>
     <rPh sb="19" eb="21">
       <t>ソンザイ</t>
     </rPh>
-    <rPh sb="26" eb="28">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DBに下記のいずれにも該当するデータが存在する場合、保存ボタンを押下すると現行システムと一致すること
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに下記のいずれにも該当するデータが存在する場合、現行システムと一致すること
 ・DB適用開始日　&lt;&gt;　画面.適用開始日
 ・DB適用開始日　&lt;=　画面.適用終了日
 ・DB適用終了日　&gt;=　画面.適用終了日</t>
     <rPh sb="19" eb="21">
       <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目制御</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイギョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除(新規モード)</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>動作確認/メッセージ確認</t>
-    <rPh sb="0" eb="2">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>現行システム※と一致すること</t>
-    <rPh sb="8" eb="10">
-      <t>イッチ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>※現行システムの戻るボタンを参照</t>
-    <rPh sb="8" eb="9">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>閉じる(変更モード)</t>
-    <rPh sb="0" eb="1">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>閉じる(新規モード)</t>
-    <rPh sb="0" eb="1">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>編集なしの場合、現行システム※と一致すること</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イッチ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>編集ありの場合、現行システム※と一致すること</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イッチ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>終了日が開始日より前の場合、保存ボタンを押下すると現行システムと一致すること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中央揃えで表示されること</t>
-    <rPh sb="0" eb="2">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ソロ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ヘッダー部</t>
-    <rPh sb="4" eb="5">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>比較テスト仕様書（GJ8100_消費税率マスタメンテナンス）</t>
-    <rPh sb="0" eb="2">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>シヨウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マスタメンテナンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GJ8100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GJ8100</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>GJ8101</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>消費税率マスタメンテナンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>消費税率一覧</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ネットが切れている場合、現行システムと一致すること</t>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>解像度1920×1080　ディスプレイ100%　ブラウザ100%で正常に表示できること</t>
-    <rPh sb="33" eb="35">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>テスト
-再確認</t>
-    <rPh sb="4" eb="5">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バグ記録</t>
-    <rPh sb="2" eb="4">
-      <t>キロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バグ　
-修正完了日</t>
-    <rPh sb="4" eb="8">
-      <t>シュウセイカンリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2327,7 +2253,7 @@
     <xf numFmtId="177" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="177" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2444,15 +2370,6 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="46" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2462,6 +2379,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2507,9 +2430,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2697,18 +2626,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="21" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2721,7 +2638,21 @@
     <cellStyle name="標準 5" xfId="4" xr:uid="{995CF52B-56E0-4E71-A9B5-D761A557A3F5}"/>
     <cellStyle name="標準 6" xfId="5" xr:uid="{5AB37F2C-1356-43C0-A642-8019E4F0971A}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3689,7 +3620,7 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
@@ -3705,26 +3636,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A1" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="60" t="s">
+      <c r="A1" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="127"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="63" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="51" t="s">
-        <v>149</v>
+      <c r="K1" s="50" t="s">
+        <v>140</v>
       </c>
       <c r="M1" t="s">
         <v>58</v>
@@ -3734,17 +3665,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="61"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="51"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="50"/>
       <c r="M2" t="s">
         <v>59</v>
       </c>
@@ -3753,126 +3684,126 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="62" t="s">
+      <c r="E3" s="60"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63" t="s">
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="52"/>
+      <c r="K3" s="51"/>
       <c r="M3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="61"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="53"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="52"/>
       <c r="M4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="125" t="s">
+      <c r="E6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="125" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="125" t="s">
+      <c r="F6" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="125" t="s">
-        <v>157</v>
-      </c>
-      <c r="I6" s="125" t="s">
-        <v>158</v>
-      </c>
-      <c r="J6" s="47" t="s">
+      <c r="H6" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="48"/>
+      <c r="K6" s="47"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="55"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="49"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="126"/>
+      <c r="G8" s="43"/>
       <c r="H8" s="1"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="126"/>
+      <c r="G9" s="43"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1">
       <c r="A10" s="1"/>
@@ -3881,11 +3812,11 @@
       <c r="D10" s="4"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="126"/>
+      <c r="G10" s="43"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1">
       <c r="A11" s="1"/>
@@ -3894,11 +3825,11 @@
       <c r="D11" s="4"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="126"/>
+      <c r="G11" s="43"/>
       <c r="H11" s="1"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1">
       <c r="A12" s="1"/>
@@ -3907,11 +3838,11 @@
       <c r="D12" s="4"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="126"/>
+      <c r="G12" s="43"/>
       <c r="H12" s="1"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1">
       <c r="A13" s="1"/>
@@ -3920,11 +3851,11 @@
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="126"/>
+      <c r="G13" s="43"/>
       <c r="H13" s="1"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1">
       <c r="A14" s="1"/>
@@ -3933,11 +3864,11 @@
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="126"/>
+      <c r="G14" s="43"/>
       <c r="H14" s="1"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1">
       <c r="A15" s="1"/>
@@ -3946,11 +3877,11 @@
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="126"/>
+      <c r="G15" s="43"/>
       <c r="H15" s="1"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
       <c r="A16" s="1"/>
@@ -3959,11 +3890,11 @@
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="126"/>
+      <c r="G16" s="43"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1">
       <c r="A17" s="1"/>
@@ -3972,11 +3903,11 @@
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="126"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="1"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1">
       <c r="A18" s="1"/>
@@ -3985,11 +3916,11 @@
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="126"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="1"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1">
       <c r="A19" s="1"/>
@@ -3998,11 +3929,11 @@
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="126"/>
+      <c r="G19" s="43"/>
       <c r="H19" s="1"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1">
       <c r="A20" s="1"/>
@@ -4011,11 +3942,11 @@
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="126"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="1"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
     </row>
     <row r="21" spans="1:11" ht="18" customHeight="1"/>
     <row r="22" spans="1:11" ht="18" customHeight="1"/>
@@ -4057,10 +3988,10 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G8:G20">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4078,7 +4009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A698B6-0D8F-4E36-894C-FED9BE534031}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
@@ -4112,13 +4043,13 @@
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="11" t="s">
         <v>15</v>
       </c>
@@ -4151,16 +4082,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="1:8" ht="37.5">
       <c r="A5" s="19">
@@ -4176,7 +4107,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="23"/>
@@ -4343,10 +4274,10 @@
         <v>31</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
@@ -4376,16 +4307,16 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
     </row>
     <row r="16" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A16" s="19">
@@ -4432,16 +4363,16 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="68"/>
     </row>
     <row r="19" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A19" s="19">
@@ -4539,15 +4470,15 @@
         <v>38</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="11.25" customHeight="1"/>
@@ -4625,524 +4556,524 @@
       </c>
     </row>
     <row r="3" spans="2:76" ht="15" customHeight="1">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="89" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="84" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="90" t="s">
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="90" t="s">
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="85" t="s">
+      <c r="X3" s="86"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="86"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="83" t="s">
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="83" t="s">
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="71"/>
+      <c r="AJ3" s="71"/>
+      <c r="AK3" s="72"/>
+      <c r="AL3" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="AM3" s="70"/>
-      <c r="AN3" s="70"/>
-      <c r="AO3" s="70"/>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="83" t="s">
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="71"/>
+      <c r="AO3" s="71"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="AR3" s="70"/>
-      <c r="AS3" s="70"/>
-      <c r="AT3" s="70"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="70" t="s">
+      <c r="AR3" s="71"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="AW3" s="70"/>
-      <c r="AX3" s="70"/>
-      <c r="AY3" s="70"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="84" t="s">
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="71"/>
+      <c r="AY3" s="71"/>
+      <c r="AZ3" s="72"/>
+      <c r="BA3" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="BB3" s="85"/>
-      <c r="BC3" s="85"/>
-      <c r="BD3" s="85"/>
-      <c r="BE3" s="86"/>
-      <c r="BF3" s="87" t="s">
+      <c r="BB3" s="86"/>
+      <c r="BC3" s="86"/>
+      <c r="BD3" s="86"/>
+      <c r="BE3" s="87"/>
+      <c r="BF3" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="BG3" s="88"/>
-      <c r="BH3" s="88"/>
-      <c r="BI3" s="70" t="s">
+      <c r="BG3" s="89"/>
+      <c r="BH3" s="89"/>
+      <c r="BI3" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="BJ3" s="70"/>
-      <c r="BK3" s="70"/>
-      <c r="BL3" s="70"/>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="72" t="s">
+      <c r="BJ3" s="71"/>
+      <c r="BK3" s="71"/>
+      <c r="BL3" s="71"/>
+      <c r="BM3" s="72"/>
+      <c r="BN3" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="BO3" s="72"/>
-      <c r="BP3" s="72"/>
-      <c r="BQ3" s="72"/>
-      <c r="BR3" s="72"/>
-      <c r="BS3" s="72"/>
-      <c r="BT3" s="72"/>
-      <c r="BU3" s="72"/>
-      <c r="BV3" s="72"/>
-      <c r="BW3" s="72"/>
-      <c r="BX3" s="73"/>
+      <c r="BO3" s="73"/>
+      <c r="BP3" s="73"/>
+      <c r="BQ3" s="73"/>
+      <c r="BR3" s="73"/>
+      <c r="BS3" s="73"/>
+      <c r="BT3" s="73"/>
+      <c r="BU3" s="73"/>
+      <c r="BV3" s="73"/>
+      <c r="BW3" s="73"/>
+      <c r="BX3" s="74"/>
     </row>
     <row r="4" spans="2:76" ht="16.5">
-      <c r="B4" s="74">
+      <c r="B4" s="75">
         <v>1</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="80"/>
-      <c r="AE4" s="80"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="82"/>
-      <c r="AH4" s="80"/>
-      <c r="AI4" s="80"/>
-      <c r="AJ4" s="80"/>
-      <c r="AK4" s="81"/>
-      <c r="AL4" s="82"/>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="80"/>
-      <c r="AO4" s="80"/>
-      <c r="AP4" s="81"/>
-      <c r="AQ4" s="82"/>
-      <c r="AR4" s="80"/>
-      <c r="AS4" s="80"/>
-      <c r="AT4" s="80"/>
-      <c r="AU4" s="81"/>
-      <c r="AV4" s="82"/>
-      <c r="AW4" s="80"/>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="80"/>
-      <c r="AZ4" s="81"/>
-      <c r="BA4" s="82"/>
-      <c r="BB4" s="80"/>
-      <c r="BC4" s="80"/>
-      <c r="BD4" s="80"/>
-      <c r="BE4" s="81"/>
-      <c r="BF4" s="95" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="81"/>
+      <c r="AI4" s="81"/>
+      <c r="AJ4" s="81"/>
+      <c r="AK4" s="82"/>
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="81"/>
+      <c r="AN4" s="81"/>
+      <c r="AO4" s="81"/>
+      <c r="AP4" s="82"/>
+      <c r="AQ4" s="83"/>
+      <c r="AR4" s="81"/>
+      <c r="AS4" s="81"/>
+      <c r="AT4" s="81"/>
+      <c r="AU4" s="82"/>
+      <c r="AV4" s="83"/>
+      <c r="AW4" s="81"/>
+      <c r="AX4" s="81"/>
+      <c r="AY4" s="81"/>
+      <c r="AZ4" s="82"/>
+      <c r="BA4" s="83"/>
+      <c r="BB4" s="81"/>
+      <c r="BC4" s="81"/>
+      <c r="BD4" s="81"/>
+      <c r="BE4" s="82"/>
+      <c r="BF4" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="82"/>
-      <c r="BJ4" s="80"/>
-      <c r="BK4" s="80"/>
-      <c r="BL4" s="80"/>
-      <c r="BM4" s="81"/>
-      <c r="BN4" s="68"/>
-      <c r="BO4" s="68"/>
-      <c r="BP4" s="68"/>
-      <c r="BQ4" s="68"/>
-      <c r="BR4" s="68"/>
-      <c r="BS4" s="68"/>
-      <c r="BT4" s="68"/>
-      <c r="BU4" s="68"/>
-      <c r="BV4" s="68"/>
-      <c r="BW4" s="68"/>
-      <c r="BX4" s="69"/>
+      <c r="BG4" s="97"/>
+      <c r="BH4" s="97"/>
+      <c r="BI4" s="83"/>
+      <c r="BJ4" s="81"/>
+      <c r="BK4" s="81"/>
+      <c r="BL4" s="81"/>
+      <c r="BM4" s="82"/>
+      <c r="BN4" s="69"/>
+      <c r="BO4" s="69"/>
+      <c r="BP4" s="69"/>
+      <c r="BQ4" s="69"/>
+      <c r="BR4" s="69"/>
+      <c r="BS4" s="69"/>
+      <c r="BT4" s="69"/>
+      <c r="BU4" s="69"/>
+      <c r="BV4" s="69"/>
+      <c r="BW4" s="69"/>
+      <c r="BX4" s="70"/>
     </row>
     <row r="5" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B5" s="101">
+      <c r="B5" s="102">
         <v>2</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="104" t="s">
+      <c r="C5" s="103"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="93"/>
-      <c r="AB5" s="94"/>
-      <c r="AC5" s="92"/>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="92"/>
-      <c r="AF5" s="93"/>
-      <c r="AG5" s="94"/>
-      <c r="AH5" s="92"/>
-      <c r="AI5" s="92"/>
-      <c r="AJ5" s="92"/>
-      <c r="AK5" s="93"/>
-      <c r="AL5" s="94"/>
-      <c r="AM5" s="92"/>
-      <c r="AN5" s="92"/>
-      <c r="AO5" s="92"/>
-      <c r="AP5" s="93"/>
-      <c r="AQ5" s="94"/>
-      <c r="AR5" s="92"/>
-      <c r="AS5" s="92"/>
-      <c r="AT5" s="92"/>
-      <c r="AU5" s="93"/>
-      <c r="AV5" s="94"/>
-      <c r="AW5" s="92"/>
-      <c r="AX5" s="92"/>
-      <c r="AY5" s="92"/>
-      <c r="AZ5" s="93"/>
-      <c r="BA5" s="94"/>
-      <c r="BB5" s="92"/>
-      <c r="BC5" s="92"/>
-      <c r="BD5" s="92"/>
-      <c r="BE5" s="93"/>
-      <c r="BF5" s="97" t="s">
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="95"/>
+      <c r="AH5" s="93"/>
+      <c r="AI5" s="93"/>
+      <c r="AJ5" s="93"/>
+      <c r="AK5" s="94"/>
+      <c r="AL5" s="95"/>
+      <c r="AM5" s="93"/>
+      <c r="AN5" s="93"/>
+      <c r="AO5" s="93"/>
+      <c r="AP5" s="94"/>
+      <c r="AQ5" s="95"/>
+      <c r="AR5" s="93"/>
+      <c r="AS5" s="93"/>
+      <c r="AT5" s="93"/>
+      <c r="AU5" s="94"/>
+      <c r="AV5" s="95"/>
+      <c r="AW5" s="93"/>
+      <c r="AX5" s="93"/>
+      <c r="AY5" s="93"/>
+      <c r="AZ5" s="94"/>
+      <c r="BA5" s="95"/>
+      <c r="BB5" s="93"/>
+      <c r="BC5" s="93"/>
+      <c r="BD5" s="93"/>
+      <c r="BE5" s="94"/>
+      <c r="BF5" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="BG5" s="98"/>
-      <c r="BH5" s="98"/>
-      <c r="BI5" s="94"/>
-      <c r="BJ5" s="92"/>
-      <c r="BK5" s="92"/>
-      <c r="BL5" s="92"/>
-      <c r="BM5" s="93"/>
-      <c r="BN5" s="99"/>
-      <c r="BO5" s="99"/>
-      <c r="BP5" s="99"/>
-      <c r="BQ5" s="99"/>
-      <c r="BR5" s="99"/>
-      <c r="BS5" s="99"/>
-      <c r="BT5" s="99"/>
-      <c r="BU5" s="99"/>
-      <c r="BV5" s="99"/>
-      <c r="BW5" s="99"/>
-      <c r="BX5" s="100"/>
+      <c r="BG5" s="99"/>
+      <c r="BH5" s="99"/>
+      <c r="BI5" s="95"/>
+      <c r="BJ5" s="93"/>
+      <c r="BK5" s="93"/>
+      <c r="BL5" s="93"/>
+      <c r="BM5" s="94"/>
+      <c r="BN5" s="100"/>
+      <c r="BO5" s="100"/>
+      <c r="BP5" s="100"/>
+      <c r="BQ5" s="100"/>
+      <c r="BR5" s="100"/>
+      <c r="BS5" s="100"/>
+      <c r="BT5" s="100"/>
+      <c r="BU5" s="100"/>
+      <c r="BV5" s="100"/>
+      <c r="BW5" s="100"/>
+      <c r="BX5" s="101"/>
     </row>
     <row r="6" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B6" s="101">
+      <c r="B6" s="102">
         <v>3</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="104" t="s">
+      <c r="C6" s="103"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="93"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="92"/>
-      <c r="Y6" s="92"/>
-      <c r="Z6" s="92"/>
-      <c r="AA6" s="93"/>
-      <c r="AB6" s="94"/>
-      <c r="AC6" s="92"/>
-      <c r="AD6" s="92"/>
-      <c r="AE6" s="92"/>
-      <c r="AF6" s="93"/>
-      <c r="AG6" s="94"/>
-      <c r="AH6" s="92"/>
-      <c r="AI6" s="92"/>
-      <c r="AJ6" s="92"/>
-      <c r="AK6" s="93"/>
-      <c r="AL6" s="94"/>
-      <c r="AM6" s="92"/>
-      <c r="AN6" s="92"/>
-      <c r="AO6" s="92"/>
-      <c r="AP6" s="93"/>
-      <c r="AQ6" s="94"/>
-      <c r="AR6" s="92"/>
-      <c r="AS6" s="92"/>
-      <c r="AT6" s="92"/>
-      <c r="AU6" s="93"/>
-      <c r="AV6" s="94"/>
-      <c r="AW6" s="92"/>
-      <c r="AX6" s="92"/>
-      <c r="AY6" s="92"/>
-      <c r="AZ6" s="93"/>
-      <c r="BA6" s="94"/>
-      <c r="BB6" s="92"/>
-      <c r="BC6" s="92"/>
-      <c r="BD6" s="92"/>
-      <c r="BE6" s="93"/>
-      <c r="BF6" s="97" t="s">
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="93"/>
+      <c r="Y6" s="93"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="95"/>
+      <c r="AC6" s="93"/>
+      <c r="AD6" s="93"/>
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="94"/>
+      <c r="AG6" s="95"/>
+      <c r="AH6" s="93"/>
+      <c r="AI6" s="93"/>
+      <c r="AJ6" s="93"/>
+      <c r="AK6" s="94"/>
+      <c r="AL6" s="95"/>
+      <c r="AM6" s="93"/>
+      <c r="AN6" s="93"/>
+      <c r="AO6" s="93"/>
+      <c r="AP6" s="94"/>
+      <c r="AQ6" s="95"/>
+      <c r="AR6" s="93"/>
+      <c r="AS6" s="93"/>
+      <c r="AT6" s="93"/>
+      <c r="AU6" s="94"/>
+      <c r="AV6" s="95"/>
+      <c r="AW6" s="93"/>
+      <c r="AX6" s="93"/>
+      <c r="AY6" s="93"/>
+      <c r="AZ6" s="94"/>
+      <c r="BA6" s="95"/>
+      <c r="BB6" s="93"/>
+      <c r="BC6" s="93"/>
+      <c r="BD6" s="93"/>
+      <c r="BE6" s="94"/>
+      <c r="BF6" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="BG6" s="98"/>
-      <c r="BH6" s="98"/>
-      <c r="BI6" s="94"/>
-      <c r="BJ6" s="92"/>
-      <c r="BK6" s="92"/>
-      <c r="BL6" s="92"/>
-      <c r="BM6" s="93"/>
-      <c r="BN6" s="99"/>
-      <c r="BO6" s="99"/>
-      <c r="BP6" s="99"/>
-      <c r="BQ6" s="99"/>
-      <c r="BR6" s="99"/>
-      <c r="BS6" s="99"/>
-      <c r="BT6" s="99"/>
-      <c r="BU6" s="99"/>
-      <c r="BV6" s="99"/>
-      <c r="BW6" s="99"/>
-      <c r="BX6" s="100"/>
+      <c r="BG6" s="99"/>
+      <c r="BH6" s="99"/>
+      <c r="BI6" s="95"/>
+      <c r="BJ6" s="93"/>
+      <c r="BK6" s="93"/>
+      <c r="BL6" s="93"/>
+      <c r="BM6" s="94"/>
+      <c r="BN6" s="100"/>
+      <c r="BO6" s="100"/>
+      <c r="BP6" s="100"/>
+      <c r="BQ6" s="100"/>
+      <c r="BR6" s="100"/>
+      <c r="BS6" s="100"/>
+      <c r="BT6" s="100"/>
+      <c r="BU6" s="100"/>
+      <c r="BV6" s="100"/>
+      <c r="BW6" s="100"/>
+      <c r="BX6" s="101"/>
     </row>
     <row r="7" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B7" s="101">
+      <c r="B7" s="102">
         <v>4</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="104" t="s">
+      <c r="C7" s="103"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="92"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="94"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="92"/>
-      <c r="Z7" s="92"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="94"/>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="92"/>
-      <c r="AE7" s="92"/>
-      <c r="AF7" s="93"/>
-      <c r="AG7" s="94"/>
-      <c r="AH7" s="92"/>
-      <c r="AI7" s="92"/>
-      <c r="AJ7" s="92"/>
-      <c r="AK7" s="93"/>
-      <c r="AL7" s="94"/>
-      <c r="AM7" s="92"/>
-      <c r="AN7" s="92"/>
-      <c r="AO7" s="92"/>
-      <c r="AP7" s="93"/>
-      <c r="AQ7" s="94"/>
-      <c r="AR7" s="92"/>
-      <c r="AS7" s="92"/>
-      <c r="AT7" s="92"/>
-      <c r="AU7" s="93"/>
-      <c r="AV7" s="94"/>
-      <c r="AW7" s="92"/>
-      <c r="AX7" s="92"/>
-      <c r="AY7" s="92"/>
-      <c r="AZ7" s="93"/>
-      <c r="BA7" s="94"/>
-      <c r="BB7" s="92"/>
-      <c r="BC7" s="92"/>
-      <c r="BD7" s="92"/>
-      <c r="BE7" s="93"/>
-      <c r="BF7" s="97" t="s">
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="94"/>
+      <c r="AB7" s="95"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="94"/>
+      <c r="AG7" s="95"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="94"/>
+      <c r="AL7" s="95"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="93"/>
+      <c r="AO7" s="93"/>
+      <c r="AP7" s="94"/>
+      <c r="AQ7" s="95"/>
+      <c r="AR7" s="93"/>
+      <c r="AS7" s="93"/>
+      <c r="AT7" s="93"/>
+      <c r="AU7" s="94"/>
+      <c r="AV7" s="95"/>
+      <c r="AW7" s="93"/>
+      <c r="AX7" s="93"/>
+      <c r="AY7" s="93"/>
+      <c r="AZ7" s="94"/>
+      <c r="BA7" s="95"/>
+      <c r="BB7" s="93"/>
+      <c r="BC7" s="93"/>
+      <c r="BD7" s="93"/>
+      <c r="BE7" s="94"/>
+      <c r="BF7" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="BG7" s="98"/>
-      <c r="BH7" s="98"/>
-      <c r="BI7" s="94"/>
-      <c r="BJ7" s="92"/>
-      <c r="BK7" s="92"/>
-      <c r="BL7" s="92"/>
-      <c r="BM7" s="93"/>
-      <c r="BN7" s="99"/>
-      <c r="BO7" s="99"/>
-      <c r="BP7" s="99"/>
-      <c r="BQ7" s="99"/>
-      <c r="BR7" s="99"/>
-      <c r="BS7" s="99"/>
-      <c r="BT7" s="99"/>
-      <c r="BU7" s="99"/>
-      <c r="BV7" s="99"/>
-      <c r="BW7" s="99"/>
-      <c r="BX7" s="100"/>
+      <c r="BG7" s="99"/>
+      <c r="BH7" s="99"/>
+      <c r="BI7" s="95"/>
+      <c r="BJ7" s="93"/>
+      <c r="BK7" s="93"/>
+      <c r="BL7" s="93"/>
+      <c r="BM7" s="94"/>
+      <c r="BN7" s="100"/>
+      <c r="BO7" s="100"/>
+      <c r="BP7" s="100"/>
+      <c r="BQ7" s="100"/>
+      <c r="BR7" s="100"/>
+      <c r="BS7" s="100"/>
+      <c r="BT7" s="100"/>
+      <c r="BU7" s="100"/>
+      <c r="BV7" s="100"/>
+      <c r="BW7" s="100"/>
+      <c r="BX7" s="101"/>
     </row>
     <row r="8" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B8" s="105">
+      <c r="B8" s="106">
         <v>5</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="108" t="s">
+      <c r="C8" s="107"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="113"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="113"/>
-      <c r="X8" s="111"/>
-      <c r="Y8" s="111"/>
-      <c r="Z8" s="111"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="113"/>
-      <c r="AC8" s="111"/>
-      <c r="AD8" s="111"/>
-      <c r="AE8" s="111"/>
-      <c r="AF8" s="112"/>
-      <c r="AG8" s="113"/>
-      <c r="AH8" s="111"/>
-      <c r="AI8" s="111"/>
-      <c r="AJ8" s="111"/>
-      <c r="AK8" s="112"/>
-      <c r="AL8" s="113"/>
-      <c r="AM8" s="111"/>
-      <c r="AN8" s="111"/>
-      <c r="AO8" s="111"/>
-      <c r="AP8" s="112"/>
-      <c r="AQ8" s="113"/>
-      <c r="AR8" s="111"/>
-      <c r="AS8" s="111"/>
-      <c r="AT8" s="111"/>
-      <c r="AU8" s="112"/>
-      <c r="AV8" s="113"/>
-      <c r="AW8" s="111"/>
-      <c r="AX8" s="111"/>
-      <c r="AY8" s="111"/>
-      <c r="AZ8" s="112"/>
-      <c r="BA8" s="110"/>
-      <c r="BB8" s="111"/>
-      <c r="BC8" s="111"/>
-      <c r="BD8" s="111"/>
-      <c r="BE8" s="112"/>
-      <c r="BF8" s="115" t="s">
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="112"/>
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="114"/>
+      <c r="AC8" s="112"/>
+      <c r="AD8" s="112"/>
+      <c r="AE8" s="112"/>
+      <c r="AF8" s="113"/>
+      <c r="AG8" s="114"/>
+      <c r="AH8" s="112"/>
+      <c r="AI8" s="112"/>
+      <c r="AJ8" s="112"/>
+      <c r="AK8" s="113"/>
+      <c r="AL8" s="114"/>
+      <c r="AM8" s="112"/>
+      <c r="AN8" s="112"/>
+      <c r="AO8" s="112"/>
+      <c r="AP8" s="113"/>
+      <c r="AQ8" s="114"/>
+      <c r="AR8" s="112"/>
+      <c r="AS8" s="112"/>
+      <c r="AT8" s="112"/>
+      <c r="AU8" s="113"/>
+      <c r="AV8" s="114"/>
+      <c r="AW8" s="112"/>
+      <c r="AX8" s="112"/>
+      <c r="AY8" s="112"/>
+      <c r="AZ8" s="113"/>
+      <c r="BA8" s="111"/>
+      <c r="BB8" s="112"/>
+      <c r="BC8" s="112"/>
+      <c r="BD8" s="112"/>
+      <c r="BE8" s="113"/>
+      <c r="BF8" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="BG8" s="116"/>
-      <c r="BH8" s="116"/>
-      <c r="BI8" s="113"/>
-      <c r="BJ8" s="111"/>
-      <c r="BK8" s="111"/>
-      <c r="BL8" s="111"/>
-      <c r="BM8" s="112"/>
-      <c r="BN8" s="109"/>
-      <c r="BO8" s="109"/>
-      <c r="BP8" s="109"/>
-      <c r="BQ8" s="109"/>
-      <c r="BR8" s="109"/>
-      <c r="BS8" s="109"/>
-      <c r="BT8" s="109"/>
-      <c r="BU8" s="109"/>
-      <c r="BV8" s="109"/>
-      <c r="BW8" s="109"/>
-      <c r="BX8" s="114"/>
+      <c r="BG8" s="117"/>
+      <c r="BH8" s="117"/>
+      <c r="BI8" s="114"/>
+      <c r="BJ8" s="112"/>
+      <c r="BK8" s="112"/>
+      <c r="BL8" s="112"/>
+      <c r="BM8" s="113"/>
+      <c r="BN8" s="110"/>
+      <c r="BO8" s="110"/>
+      <c r="BP8" s="110"/>
+      <c r="BQ8" s="110"/>
+      <c r="BR8" s="110"/>
+      <c r="BS8" s="110"/>
+      <c r="BT8" s="110"/>
+      <c r="BU8" s="110"/>
+      <c r="BV8" s="110"/>
+      <c r="BW8" s="110"/>
+      <c r="BX8" s="115"/>
     </row>
     <row r="9" spans="2:76" ht="16.5">
       <c r="B9" s="35" t="s">
@@ -5165,146 +5096,146 @@
       </c>
     </row>
     <row r="14" spans="2:76" ht="15" customHeight="1">
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="89" t="s">
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="84" t="s">
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="85" t="s">
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="U14" s="85"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="90" t="s">
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="87"/>
+      <c r="Y14" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="85"/>
-      <c r="AC14" s="86"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="86"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="87"/>
     </row>
     <row r="15" spans="2:76" ht="15" customHeight="1">
-      <c r="B15" s="117">
+      <c r="B15" s="118">
         <v>1</v>
       </c>
-      <c r="C15" s="118"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="120" t="s">
+      <c r="C15" s="119"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="121" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="82"/>
-      <c r="Z15" s="80"/>
-      <c r="AA15" s="80"/>
-      <c r="AB15" s="80"/>
-      <c r="AC15" s="81"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="81"/>
+      <c r="AC15" s="82"/>
     </row>
     <row r="16" spans="2:76" ht="15" customHeight="1">
-      <c r="B16" s="101">
+      <c r="B16" s="102">
         <v>2</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="104" t="s">
+      <c r="C16" s="103"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="92"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="92"/>
-      <c r="V16" s="92"/>
-      <c r="W16" s="92"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="94"/>
-      <c r="Z16" s="92"/>
-      <c r="AA16" s="92"/>
-      <c r="AB16" s="92"/>
-      <c r="AC16" s="93"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="93"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="94"/>
     </row>
     <row r="17" spans="2:29" ht="15" customHeight="1">
-      <c r="B17" s="105">
+      <c r="B17" s="106">
         <v>3</v>
       </c>
-      <c r="C17" s="106"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="108" t="s">
+      <c r="C17" s="107"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="111"/>
-      <c r="P17" s="111"/>
-      <c r="Q17" s="111"/>
-      <c r="R17" s="111"/>
-      <c r="S17" s="112"/>
-      <c r="T17" s="113"/>
-      <c r="U17" s="111"/>
-      <c r="V17" s="111"/>
-      <c r="W17" s="111"/>
-      <c r="X17" s="112"/>
-      <c r="Y17" s="113"/>
-      <c r="Z17" s="111"/>
-      <c r="AA17" s="111"/>
-      <c r="AB17" s="111"/>
-      <c r="AC17" s="112"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="112"/>
+      <c r="S17" s="113"/>
+      <c r="T17" s="114"/>
+      <c r="U17" s="112"/>
+      <c r="V17" s="112"/>
+      <c r="W17" s="112"/>
+      <c r="X17" s="113"/>
+      <c r="Y17" s="114"/>
+      <c r="Z17" s="112"/>
+      <c r="AA17" s="112"/>
+      <c r="AB17" s="112"/>
+      <c r="AC17" s="113"/>
     </row>
     <row r="18" spans="2:29" ht="9" customHeight="1"/>
     <row r="19" spans="2:29" ht="9" customHeight="1"/>
@@ -5454,7 +5385,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D59DE-45F0-4360-BA4B-E7A61DDBA5EE}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -5490,13 +5421,13 @@
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="B2" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="11" t="s">
         <v>15</v>
       </c>
@@ -5529,16 +5460,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="1:8" ht="37.5">
       <c r="A5" s="19">
@@ -5554,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="23"/>
@@ -5601,7 +5532,7 @@
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
       <c r="H7" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -5689,16 +5620,16 @@
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
     </row>
     <row r="13" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A13" s="19">
@@ -5751,13 +5682,13 @@
         <v>67</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
@@ -5783,276 +5714,276 @@
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="8" customFormat="1" ht="37.5">
-      <c r="A17" s="19">
-        <f ca="1">IF(ISNUMBER(OFFSET(A17, -1, 0)), OFFSET(A17, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A17" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+    </row>
+    <row r="18" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A18" s="19">
+        <f t="shared" ref="A18:A35" ca="1" si="3">IF(ISNUMBER(OFFSET(A18, -1, 0)), OFFSET(A18, -1, 0) + 1, OFFSET(A17, -1, 0) + 1)</f>
         <v>12</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="1:8" s="8" customFormat="1" ht="93.75">
-      <c r="A18" s="19">
-        <f ca="1">IF(ISNUMBER(OFFSET(A18, -1, 0)), OFFSET(A18, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
-        <v>13</v>
-      </c>
       <c r="B18" s="20" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="24"/>
     </row>
-    <row r="19" spans="1:8" s="8" customFormat="1" ht="75">
+    <row r="19" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A19" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A19, -1, 0)), OFFSET(A19, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="24"/>
     </row>
-    <row r="20" spans="1:8" s="8" customFormat="1" ht="75">
+    <row r="20" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A20" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A20, -1, 0)), OFFSET(A20, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>71</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="24"/>
     </row>
-    <row r="21" spans="1:8" s="8" customFormat="1" ht="37.5">
+    <row r="21" spans="1:8" s="8" customFormat="1" ht="93.75">
       <c r="A21" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A21, -1, 0)), OFFSET(A21, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>67</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>71</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="24"/>
     </row>
-    <row r="22" spans="1:8" s="8" customFormat="1" ht="93.75">
+    <row r="22" spans="1:8" s="8" customFormat="1" ht="75">
       <c r="A22" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A22, -1, 0)), OFFSET(A22, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>71</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="24"/>
     </row>
-    <row r="23" spans="1:8" s="8" customFormat="1" ht="93.75">
+    <row r="23" spans="1:8" s="8" customFormat="1" ht="75">
       <c r="A23" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A23, -1, 0)), OFFSET(A23, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>71</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="24"/>
     </row>
     <row r="24" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A24" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-    </row>
-    <row r="25" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A24" s="19">
+        <f ca="1">IF(ISNUMBER(OFFSET(A24, -1, 0)), OFFSET(A24, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
+        <v>18</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" s="8" customFormat="1" ht="93.75">
       <c r="A25" s="19">
-        <f t="shared" ref="A25:A40" ca="1" si="3">IF(ISNUMBER(OFFSET(A25, -1, 0)), OFFSET(A25, -1, 0) + 1, OFFSET(A24, -1, 0) + 1)</f>
+        <f ca="1">IF(ISNUMBER(OFFSET(A25, -1, 0)), OFFSET(A25, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
         <v>19</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" s="8" customFormat="1" ht="37.5">
-      <c r="A26" s="41">
-        <f t="shared" ca="1" si="3"/>
+    <row r="26" spans="1:8" s="8" customFormat="1" ht="93.75">
+      <c r="A26" s="19">
+        <f ca="1">IF(ISNUMBER(OFFSET(A26, -1, 0)), OFFSET(A26, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
         <v>20</v>
       </c>
-      <c r="B26" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>122</v>
+      <c r="B26" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="F26" s="22"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="42" t="s">
-        <v>124</v>
-      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="24"/>
     </row>
     <row r="27" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A27" s="19">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISNUMBER(OFFSET(A27, -1, 0)), OFFSET(A27, -1, 0) + 1, OFFSET(A19, -1, 0) + 1)</f>
         <v>21</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>113</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="36" t="s">
-        <v>154</v>
+      <c r="E27" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="38"/>
-    </row>
-    <row r="28" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:8" s="8" customFormat="1" ht="37.5">
       <c r="A28" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>22</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>95</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="24"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="39" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="29" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A29" s="19">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISNUMBER(OFFSET(A29, -1, 0)), OFFSET(A29, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
         <v>23</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>95</v>
+      <c r="B29" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="24"/>
-    </row>
-    <row r="30" spans="1:8" s="8" customFormat="1" ht="37.5">
+      <c r="G29" s="33"/>
+      <c r="H29" s="34"/>
+    </row>
+    <row r="30" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A30" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>24</v>
@@ -6060,276 +5991,169 @@
       <c r="B30" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>95</v>
+      <c r="C30" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F30" s="22"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="8" customFormat="1" ht="37.5">
+      <c r="G30" s="22"/>
+      <c r="H30" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A31" s="19">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISNUMBER(OFFSET(A31, -1, 0)), OFFSET(A31, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
         <v>25</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>123</v>
+      <c r="B31" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>74</v>
       </c>
       <c r="F31" s="22"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="39"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="34"/>
     </row>
     <row r="32" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A32" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>26</v>
       </c>
-      <c r="B32" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
+      <c r="B32" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="38" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="33" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A33" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>27</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="8" customFormat="1" ht="37.5">
+      <c r="B33" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A34" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>28</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" s="22"/>
+      <c r="B34" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="37"/>
       <c r="G34" s="37"/>
-      <c r="H34" s="38"/>
-    </row>
-    <row r="35" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="H34" s="38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="19.5" thickBot="1">
       <c r="A35" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>29</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="38"/>
-    </row>
-    <row r="36" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A36" s="19">
-        <f t="shared" ca="1" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="B36" s="32" t="s">
+      <c r="B35" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-    </row>
-    <row r="37" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A37" s="19">
-        <f t="shared" ca="1" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A38" s="19">
-        <f t="shared" ca="1" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A39" s="19">
-        <f t="shared" ca="1" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="D39" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A40" s="19">
-        <f t="shared" ca="1" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="11.25" customHeight="1"/>
+      <c r="C35" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="11.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F5:F11">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+  <conditionalFormatting sqref="F5:F11 F18:F19 F27:F35">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F23">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+  <conditionalFormatting sqref="F13:F16">
+    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:F40">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="F20:F26">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="36" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="35" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -6337,7 +6161,7 @@
           <x14:formula1>
             <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F11 F25:F40 F13:F23</xm:sqref>
+          <xm:sqref>F5:F11 F13:F16 F18:F35</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6370,1270 +6194,1270 @@
       </c>
     </row>
     <row r="3" spans="2:76" ht="15" customHeight="1">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="89" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="84" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="90" t="s">
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="90" t="s">
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="85" t="s">
+      <c r="X3" s="86"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="86"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="83" t="s">
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="83" t="s">
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="71"/>
+      <c r="AJ3" s="71"/>
+      <c r="AK3" s="72"/>
+      <c r="AL3" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="AM3" s="70"/>
-      <c r="AN3" s="70"/>
-      <c r="AO3" s="70"/>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="83" t="s">
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="71"/>
+      <c r="AO3" s="71"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="AR3" s="70"/>
-      <c r="AS3" s="70"/>
-      <c r="AT3" s="70"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="70" t="s">
+      <c r="AR3" s="71"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="AW3" s="70"/>
-      <c r="AX3" s="70"/>
-      <c r="AY3" s="70"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="84" t="s">
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="71"/>
+      <c r="AY3" s="71"/>
+      <c r="AZ3" s="72"/>
+      <c r="BA3" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="BB3" s="85"/>
-      <c r="BC3" s="85"/>
-      <c r="BD3" s="85"/>
-      <c r="BE3" s="86"/>
-      <c r="BF3" s="87" t="s">
+      <c r="BB3" s="86"/>
+      <c r="BC3" s="86"/>
+      <c r="BD3" s="86"/>
+      <c r="BE3" s="87"/>
+      <c r="BF3" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="BG3" s="88"/>
-      <c r="BH3" s="88"/>
-      <c r="BI3" s="70" t="s">
+      <c r="BG3" s="89"/>
+      <c r="BH3" s="89"/>
+      <c r="BI3" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="BJ3" s="70"/>
-      <c r="BK3" s="70"/>
-      <c r="BL3" s="70"/>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="72" t="s">
+      <c r="BJ3" s="71"/>
+      <c r="BK3" s="71"/>
+      <c r="BL3" s="71"/>
+      <c r="BM3" s="72"/>
+      <c r="BN3" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="BO3" s="72"/>
-      <c r="BP3" s="72"/>
-      <c r="BQ3" s="72"/>
-      <c r="BR3" s="72"/>
-      <c r="BS3" s="72"/>
-      <c r="BT3" s="72"/>
-      <c r="BU3" s="72"/>
-      <c r="BV3" s="72"/>
-      <c r="BW3" s="72"/>
-      <c r="BX3" s="73"/>
+      <c r="BO3" s="73"/>
+      <c r="BP3" s="73"/>
+      <c r="BQ3" s="73"/>
+      <c r="BR3" s="73"/>
+      <c r="BS3" s="73"/>
+      <c r="BT3" s="73"/>
+      <c r="BU3" s="73"/>
+      <c r="BV3" s="73"/>
+      <c r="BW3" s="73"/>
+      <c r="BX3" s="74"/>
     </row>
     <row r="4" spans="2:76" ht="15" customHeight="1">
-      <c r="B4" s="121" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122"/>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="122"/>
-      <c r="AB4" s="122"/>
-      <c r="AC4" s="122"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="122"/>
-      <c r="AF4" s="122"/>
-      <c r="AG4" s="122"/>
-      <c r="AH4" s="122"/>
-      <c r="AI4" s="122"/>
-      <c r="AJ4" s="122"/>
-      <c r="AK4" s="122"/>
-      <c r="AL4" s="122"/>
-      <c r="AM4" s="122"/>
-      <c r="AN4" s="122"/>
-      <c r="AO4" s="122"/>
-      <c r="AP4" s="122"/>
-      <c r="AQ4" s="122"/>
-      <c r="AR4" s="122"/>
-      <c r="AS4" s="122"/>
-      <c r="AT4" s="122"/>
-      <c r="AU4" s="122"/>
-      <c r="AV4" s="122"/>
-      <c r="AW4" s="122"/>
-      <c r="AX4" s="122"/>
-      <c r="AY4" s="122"/>
-      <c r="AZ4" s="122"/>
-      <c r="BA4" s="122"/>
-      <c r="BB4" s="122"/>
-      <c r="BC4" s="122"/>
-      <c r="BD4" s="122"/>
-      <c r="BE4" s="122"/>
-      <c r="BF4" s="122"/>
-      <c r="BG4" s="122"/>
-      <c r="BH4" s="122"/>
-      <c r="BI4" s="122"/>
-      <c r="BJ4" s="122"/>
-      <c r="BK4" s="122"/>
-      <c r="BL4" s="122"/>
-      <c r="BM4" s="122"/>
-      <c r="BN4" s="122"/>
-      <c r="BO4" s="122"/>
-      <c r="BP4" s="122"/>
-      <c r="BQ4" s="122"/>
-      <c r="BR4" s="122"/>
-      <c r="BS4" s="122"/>
-      <c r="BT4" s="122"/>
-      <c r="BU4" s="122"/>
-      <c r="BV4" s="122"/>
-      <c r="BW4" s="122"/>
-      <c r="BX4" s="123"/>
+      <c r="B4" s="122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="123"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="123"/>
+      <c r="X4" s="123"/>
+      <c r="Y4" s="123"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="123"/>
+      <c r="AB4" s="123"/>
+      <c r="AC4" s="123"/>
+      <c r="AD4" s="123"/>
+      <c r="AE4" s="123"/>
+      <c r="AF4" s="123"/>
+      <c r="AG4" s="123"/>
+      <c r="AH4" s="123"/>
+      <c r="AI4" s="123"/>
+      <c r="AJ4" s="123"/>
+      <c r="AK4" s="123"/>
+      <c r="AL4" s="123"/>
+      <c r="AM4" s="123"/>
+      <c r="AN4" s="123"/>
+      <c r="AO4" s="123"/>
+      <c r="AP4" s="123"/>
+      <c r="AQ4" s="123"/>
+      <c r="AR4" s="123"/>
+      <c r="AS4" s="123"/>
+      <c r="AT4" s="123"/>
+      <c r="AU4" s="123"/>
+      <c r="AV4" s="123"/>
+      <c r="AW4" s="123"/>
+      <c r="AX4" s="123"/>
+      <c r="AY4" s="123"/>
+      <c r="AZ4" s="123"/>
+      <c r="BA4" s="123"/>
+      <c r="BB4" s="123"/>
+      <c r="BC4" s="123"/>
+      <c r="BD4" s="123"/>
+      <c r="BE4" s="123"/>
+      <c r="BF4" s="123"/>
+      <c r="BG4" s="123"/>
+      <c r="BH4" s="123"/>
+      <c r="BI4" s="123"/>
+      <c r="BJ4" s="123"/>
+      <c r="BK4" s="123"/>
+      <c r="BL4" s="123"/>
+      <c r="BM4" s="123"/>
+      <c r="BN4" s="123"/>
+      <c r="BO4" s="123"/>
+      <c r="BP4" s="123"/>
+      <c r="BQ4" s="123"/>
+      <c r="BR4" s="123"/>
+      <c r="BS4" s="123"/>
+      <c r="BT4" s="123"/>
+      <c r="BU4" s="123"/>
+      <c r="BV4" s="123"/>
+      <c r="BW4" s="123"/>
+      <c r="BX4" s="124"/>
     </row>
     <row r="5" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B5" s="117">
+      <c r="B5" s="118">
         <v>1</v>
       </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="120" t="s">
+      <c r="C5" s="119"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="121" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="81"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="80"/>
-      <c r="AD5" s="80"/>
-      <c r="AE5" s="80"/>
-      <c r="AF5" s="81"/>
-      <c r="AG5" s="82"/>
-      <c r="AH5" s="80"/>
-      <c r="AI5" s="80"/>
-      <c r="AJ5" s="80"/>
-      <c r="AK5" s="81"/>
-      <c r="AL5" s="82"/>
-      <c r="AM5" s="80"/>
-      <c r="AN5" s="80"/>
-      <c r="AO5" s="80"/>
-      <c r="AP5" s="81"/>
-      <c r="AQ5" s="82"/>
-      <c r="AR5" s="80"/>
-      <c r="AS5" s="80"/>
-      <c r="AT5" s="80"/>
-      <c r="AU5" s="81"/>
-      <c r="AV5" s="82"/>
-      <c r="AW5" s="80"/>
-      <c r="AX5" s="80"/>
-      <c r="AY5" s="80"/>
-      <c r="AZ5" s="81"/>
-      <c r="BA5" s="82"/>
-      <c r="BB5" s="80"/>
-      <c r="BC5" s="80"/>
-      <c r="BD5" s="80"/>
-      <c r="BE5" s="81"/>
-      <c r="BF5" s="95" t="s">
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="81"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="81"/>
+      <c r="AD5" s="81"/>
+      <c r="AE5" s="81"/>
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="83"/>
+      <c r="AH5" s="81"/>
+      <c r="AI5" s="81"/>
+      <c r="AJ5" s="81"/>
+      <c r="AK5" s="82"/>
+      <c r="AL5" s="83"/>
+      <c r="AM5" s="81"/>
+      <c r="AN5" s="81"/>
+      <c r="AO5" s="81"/>
+      <c r="AP5" s="82"/>
+      <c r="AQ5" s="83"/>
+      <c r="AR5" s="81"/>
+      <c r="AS5" s="81"/>
+      <c r="AT5" s="81"/>
+      <c r="AU5" s="82"/>
+      <c r="AV5" s="83"/>
+      <c r="AW5" s="81"/>
+      <c r="AX5" s="81"/>
+      <c r="AY5" s="81"/>
+      <c r="AZ5" s="82"/>
+      <c r="BA5" s="83"/>
+      <c r="BB5" s="81"/>
+      <c r="BC5" s="81"/>
+      <c r="BD5" s="81"/>
+      <c r="BE5" s="82"/>
+      <c r="BF5" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="BG5" s="96"/>
-      <c r="BH5" s="96"/>
-      <c r="BI5" s="82"/>
-      <c r="BJ5" s="80"/>
-      <c r="BK5" s="80"/>
-      <c r="BL5" s="80"/>
-      <c r="BM5" s="81"/>
-      <c r="BN5" s="68"/>
-      <c r="BO5" s="68"/>
-      <c r="BP5" s="68"/>
-      <c r="BQ5" s="68"/>
-      <c r="BR5" s="68"/>
-      <c r="BS5" s="68"/>
-      <c r="BT5" s="68"/>
-      <c r="BU5" s="68"/>
-      <c r="BV5" s="68"/>
-      <c r="BW5" s="68"/>
-      <c r="BX5" s="69"/>
+      <c r="BG5" s="97"/>
+      <c r="BH5" s="97"/>
+      <c r="BI5" s="83"/>
+      <c r="BJ5" s="81"/>
+      <c r="BK5" s="81"/>
+      <c r="BL5" s="81"/>
+      <c r="BM5" s="82"/>
+      <c r="BN5" s="69"/>
+      <c r="BO5" s="69"/>
+      <c r="BP5" s="69"/>
+      <c r="BQ5" s="69"/>
+      <c r="BR5" s="69"/>
+      <c r="BS5" s="69"/>
+      <c r="BT5" s="69"/>
+      <c r="BU5" s="69"/>
+      <c r="BV5" s="69"/>
+      <c r="BW5" s="69"/>
+      <c r="BX5" s="70"/>
     </row>
     <row r="6" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B6" s="101">
+      <c r="B6" s="102">
         <v>2</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="104" t="s">
+      <c r="C6" s="103"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="93"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="92"/>
-      <c r="Y6" s="92"/>
-      <c r="Z6" s="92"/>
-      <c r="AA6" s="93"/>
-      <c r="AB6" s="94"/>
-      <c r="AC6" s="92"/>
-      <c r="AD6" s="92"/>
-      <c r="AE6" s="92"/>
-      <c r="AF6" s="93"/>
-      <c r="AG6" s="94"/>
-      <c r="AH6" s="92"/>
-      <c r="AI6" s="92"/>
-      <c r="AJ6" s="92"/>
-      <c r="AK6" s="93"/>
-      <c r="AL6" s="94"/>
-      <c r="AM6" s="92"/>
-      <c r="AN6" s="92"/>
-      <c r="AO6" s="92"/>
-      <c r="AP6" s="93"/>
-      <c r="AQ6" s="94"/>
-      <c r="AR6" s="92"/>
-      <c r="AS6" s="92"/>
-      <c r="AT6" s="92"/>
-      <c r="AU6" s="93"/>
-      <c r="AV6" s="94"/>
-      <c r="AW6" s="92"/>
-      <c r="AX6" s="92"/>
-      <c r="AY6" s="92"/>
-      <c r="AZ6" s="93"/>
-      <c r="BA6" s="94"/>
-      <c r="BB6" s="92"/>
-      <c r="BC6" s="92"/>
-      <c r="BD6" s="92"/>
-      <c r="BE6" s="93"/>
-      <c r="BF6" s="97" t="s">
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="93"/>
+      <c r="Y6" s="93"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="95"/>
+      <c r="AC6" s="93"/>
+      <c r="AD6" s="93"/>
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="94"/>
+      <c r="AG6" s="95"/>
+      <c r="AH6" s="93"/>
+      <c r="AI6" s="93"/>
+      <c r="AJ6" s="93"/>
+      <c r="AK6" s="94"/>
+      <c r="AL6" s="95"/>
+      <c r="AM6" s="93"/>
+      <c r="AN6" s="93"/>
+      <c r="AO6" s="93"/>
+      <c r="AP6" s="94"/>
+      <c r="AQ6" s="95"/>
+      <c r="AR6" s="93"/>
+      <c r="AS6" s="93"/>
+      <c r="AT6" s="93"/>
+      <c r="AU6" s="94"/>
+      <c r="AV6" s="95"/>
+      <c r="AW6" s="93"/>
+      <c r="AX6" s="93"/>
+      <c r="AY6" s="93"/>
+      <c r="AZ6" s="94"/>
+      <c r="BA6" s="95"/>
+      <c r="BB6" s="93"/>
+      <c r="BC6" s="93"/>
+      <c r="BD6" s="93"/>
+      <c r="BE6" s="94"/>
+      <c r="BF6" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="BG6" s="98"/>
-      <c r="BH6" s="98"/>
-      <c r="BI6" s="94"/>
-      <c r="BJ6" s="92"/>
-      <c r="BK6" s="92"/>
-      <c r="BL6" s="92"/>
-      <c r="BM6" s="93"/>
-      <c r="BN6" s="99"/>
-      <c r="BO6" s="99"/>
-      <c r="BP6" s="99"/>
-      <c r="BQ6" s="99"/>
-      <c r="BR6" s="99"/>
-      <c r="BS6" s="99"/>
-      <c r="BT6" s="99"/>
-      <c r="BU6" s="99"/>
-      <c r="BV6" s="99"/>
-      <c r="BW6" s="99"/>
-      <c r="BX6" s="100"/>
+      <c r="BG6" s="99"/>
+      <c r="BH6" s="99"/>
+      <c r="BI6" s="95"/>
+      <c r="BJ6" s="93"/>
+      <c r="BK6" s="93"/>
+      <c r="BL6" s="93"/>
+      <c r="BM6" s="94"/>
+      <c r="BN6" s="100"/>
+      <c r="BO6" s="100"/>
+      <c r="BP6" s="100"/>
+      <c r="BQ6" s="100"/>
+      <c r="BR6" s="100"/>
+      <c r="BS6" s="100"/>
+      <c r="BT6" s="100"/>
+      <c r="BU6" s="100"/>
+      <c r="BV6" s="100"/>
+      <c r="BW6" s="100"/>
+      <c r="BX6" s="101"/>
     </row>
     <row r="7" spans="2:76" ht="16.5">
-      <c r="B7" s="101">
+      <c r="B7" s="102">
         <v>3</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="104" t="s">
+      <c r="C7" s="103"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="92"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="94"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="92"/>
-      <c r="Z7" s="92"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="94"/>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="92"/>
-      <c r="AE7" s="92"/>
-      <c r="AF7" s="93"/>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="92"/>
-      <c r="AI7" s="92"/>
-      <c r="AJ7" s="92"/>
-      <c r="AK7" s="93"/>
-      <c r="AL7" s="94"/>
-      <c r="AM7" s="92"/>
-      <c r="AN7" s="92"/>
-      <c r="AO7" s="92"/>
-      <c r="AP7" s="93"/>
-      <c r="AQ7" s="94"/>
-      <c r="AR7" s="92"/>
-      <c r="AS7" s="92"/>
-      <c r="AT7" s="92"/>
-      <c r="AU7" s="93"/>
-      <c r="AV7" s="94"/>
-      <c r="AW7" s="92"/>
-      <c r="AX7" s="92"/>
-      <c r="AY7" s="92"/>
-      <c r="AZ7" s="93"/>
-      <c r="BA7" s="94"/>
-      <c r="BB7" s="92"/>
-      <c r="BC7" s="92"/>
-      <c r="BD7" s="92"/>
-      <c r="BE7" s="93"/>
-      <c r="BF7" s="97" t="s">
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="94"/>
+      <c r="AB7" s="95"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="94"/>
+      <c r="AG7" s="92"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="94"/>
+      <c r="AL7" s="95"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="93"/>
+      <c r="AO7" s="93"/>
+      <c r="AP7" s="94"/>
+      <c r="AQ7" s="95"/>
+      <c r="AR7" s="93"/>
+      <c r="AS7" s="93"/>
+      <c r="AT7" s="93"/>
+      <c r="AU7" s="94"/>
+      <c r="AV7" s="95"/>
+      <c r="AW7" s="93"/>
+      <c r="AX7" s="93"/>
+      <c r="AY7" s="93"/>
+      <c r="AZ7" s="94"/>
+      <c r="BA7" s="95"/>
+      <c r="BB7" s="93"/>
+      <c r="BC7" s="93"/>
+      <c r="BD7" s="93"/>
+      <c r="BE7" s="94"/>
+      <c r="BF7" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="BG7" s="98"/>
-      <c r="BH7" s="98"/>
-      <c r="BI7" s="94"/>
-      <c r="BJ7" s="92"/>
-      <c r="BK7" s="92"/>
-      <c r="BL7" s="92"/>
-      <c r="BM7" s="93"/>
-      <c r="BN7" s="99"/>
-      <c r="BO7" s="99"/>
-      <c r="BP7" s="99"/>
-      <c r="BQ7" s="99"/>
-      <c r="BR7" s="99"/>
-      <c r="BS7" s="99"/>
-      <c r="BT7" s="99"/>
-      <c r="BU7" s="99"/>
-      <c r="BV7" s="99"/>
-      <c r="BW7" s="99"/>
-      <c r="BX7" s="100"/>
+      <c r="BG7" s="99"/>
+      <c r="BH7" s="99"/>
+      <c r="BI7" s="95"/>
+      <c r="BJ7" s="93"/>
+      <c r="BK7" s="93"/>
+      <c r="BL7" s="93"/>
+      <c r="BM7" s="94"/>
+      <c r="BN7" s="100"/>
+      <c r="BO7" s="100"/>
+      <c r="BP7" s="100"/>
+      <c r="BQ7" s="100"/>
+      <c r="BR7" s="100"/>
+      <c r="BS7" s="100"/>
+      <c r="BT7" s="100"/>
+      <c r="BU7" s="100"/>
+      <c r="BV7" s="100"/>
+      <c r="BW7" s="100"/>
+      <c r="BX7" s="101"/>
     </row>
     <row r="8" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>4</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104" t="s">
+      <c r="C8" s="103"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="94"/>
-      <c r="X8" s="92"/>
-      <c r="Y8" s="92"/>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="93"/>
-      <c r="AB8" s="94"/>
-      <c r="AC8" s="92"/>
-      <c r="AD8" s="92"/>
-      <c r="AE8" s="92"/>
-      <c r="AF8" s="93"/>
-      <c r="AG8" s="91"/>
-      <c r="AH8" s="92"/>
-      <c r="AI8" s="92"/>
-      <c r="AJ8" s="92"/>
-      <c r="AK8" s="93"/>
-      <c r="AL8" s="94"/>
-      <c r="AM8" s="92"/>
-      <c r="AN8" s="92"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="93"/>
-      <c r="AQ8" s="94"/>
-      <c r="AR8" s="92"/>
-      <c r="AS8" s="92"/>
-      <c r="AT8" s="92"/>
-      <c r="AU8" s="93"/>
-      <c r="AV8" s="94"/>
-      <c r="AW8" s="92"/>
-      <c r="AX8" s="92"/>
-      <c r="AY8" s="92"/>
-      <c r="AZ8" s="93"/>
-      <c r="BA8" s="94"/>
-      <c r="BB8" s="92"/>
-      <c r="BC8" s="92"/>
-      <c r="BD8" s="92"/>
-      <c r="BE8" s="93"/>
-      <c r="BF8" s="97" t="s">
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="95"/>
+      <c r="X8" s="93"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="94"/>
+      <c r="AB8" s="95"/>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="93"/>
+      <c r="AE8" s="93"/>
+      <c r="AF8" s="94"/>
+      <c r="AG8" s="92"/>
+      <c r="AH8" s="93"/>
+      <c r="AI8" s="93"/>
+      <c r="AJ8" s="93"/>
+      <c r="AK8" s="94"/>
+      <c r="AL8" s="95"/>
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="93"/>
+      <c r="AO8" s="93"/>
+      <c r="AP8" s="94"/>
+      <c r="AQ8" s="95"/>
+      <c r="AR8" s="93"/>
+      <c r="AS8" s="93"/>
+      <c r="AT8" s="93"/>
+      <c r="AU8" s="94"/>
+      <c r="AV8" s="95"/>
+      <c r="AW8" s="93"/>
+      <c r="AX8" s="93"/>
+      <c r="AY8" s="93"/>
+      <c r="AZ8" s="94"/>
+      <c r="BA8" s="95"/>
+      <c r="BB8" s="93"/>
+      <c r="BC8" s="93"/>
+      <c r="BD8" s="93"/>
+      <c r="BE8" s="94"/>
+      <c r="BF8" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="BG8" s="98"/>
-      <c r="BH8" s="98"/>
-      <c r="BI8" s="94"/>
-      <c r="BJ8" s="92"/>
-      <c r="BK8" s="92"/>
-      <c r="BL8" s="92"/>
-      <c r="BM8" s="93"/>
-      <c r="BN8" s="99"/>
-      <c r="BO8" s="99"/>
-      <c r="BP8" s="99"/>
-      <c r="BQ8" s="99"/>
-      <c r="BR8" s="99"/>
-      <c r="BS8" s="99"/>
-      <c r="BT8" s="99"/>
-      <c r="BU8" s="99"/>
-      <c r="BV8" s="99"/>
-      <c r="BW8" s="99"/>
-      <c r="BX8" s="100"/>
+      <c r="BG8" s="99"/>
+      <c r="BH8" s="99"/>
+      <c r="BI8" s="95"/>
+      <c r="BJ8" s="93"/>
+      <c r="BK8" s="93"/>
+      <c r="BL8" s="93"/>
+      <c r="BM8" s="94"/>
+      <c r="BN8" s="100"/>
+      <c r="BO8" s="100"/>
+      <c r="BP8" s="100"/>
+      <c r="BQ8" s="100"/>
+      <c r="BR8" s="100"/>
+      <c r="BS8" s="100"/>
+      <c r="BT8" s="100"/>
+      <c r="BU8" s="100"/>
+      <c r="BV8" s="100"/>
+      <c r="BW8" s="100"/>
+      <c r="BX8" s="101"/>
     </row>
     <row r="9" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B9" s="101">
+      <c r="B9" s="102">
         <v>5</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="104" t="s">
+      <c r="C9" s="103"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="94"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="94"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="92"/>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="91"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="92"/>
-      <c r="AJ9" s="92"/>
-      <c r="AK9" s="93"/>
-      <c r="AL9" s="94"/>
-      <c r="AM9" s="92"/>
-      <c r="AN9" s="92"/>
-      <c r="AO9" s="92"/>
-      <c r="AP9" s="93"/>
-      <c r="AQ9" s="94"/>
-      <c r="AR9" s="92"/>
-      <c r="AS9" s="92"/>
-      <c r="AT9" s="92"/>
-      <c r="AU9" s="93"/>
-      <c r="AV9" s="94"/>
-      <c r="AW9" s="92"/>
-      <c r="AX9" s="92"/>
-      <c r="AY9" s="92"/>
-      <c r="AZ9" s="93"/>
-      <c r="BA9" s="94"/>
-      <c r="BB9" s="92"/>
-      <c r="BC9" s="92"/>
-      <c r="BD9" s="92"/>
-      <c r="BE9" s="93"/>
-      <c r="BF9" s="97" t="s">
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="95"/>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="94"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="93"/>
+      <c r="AJ9" s="93"/>
+      <c r="AK9" s="94"/>
+      <c r="AL9" s="95"/>
+      <c r="AM9" s="93"/>
+      <c r="AN9" s="93"/>
+      <c r="AO9" s="93"/>
+      <c r="AP9" s="94"/>
+      <c r="AQ9" s="95"/>
+      <c r="AR9" s="93"/>
+      <c r="AS9" s="93"/>
+      <c r="AT9" s="93"/>
+      <c r="AU9" s="94"/>
+      <c r="AV9" s="95"/>
+      <c r="AW9" s="93"/>
+      <c r="AX9" s="93"/>
+      <c r="AY9" s="93"/>
+      <c r="AZ9" s="94"/>
+      <c r="BA9" s="95"/>
+      <c r="BB9" s="93"/>
+      <c r="BC9" s="93"/>
+      <c r="BD9" s="93"/>
+      <c r="BE9" s="94"/>
+      <c r="BF9" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="BG9" s="98"/>
-      <c r="BH9" s="98"/>
-      <c r="BI9" s="94"/>
-      <c r="BJ9" s="92"/>
-      <c r="BK9" s="92"/>
-      <c r="BL9" s="92"/>
-      <c r="BM9" s="93"/>
-      <c r="BN9" s="99"/>
-      <c r="BO9" s="99"/>
-      <c r="BP9" s="99"/>
-      <c r="BQ9" s="99"/>
-      <c r="BR9" s="99"/>
-      <c r="BS9" s="99"/>
-      <c r="BT9" s="99"/>
-      <c r="BU9" s="99"/>
-      <c r="BV9" s="99"/>
-      <c r="BW9" s="99"/>
-      <c r="BX9" s="100"/>
+      <c r="BG9" s="99"/>
+      <c r="BH9" s="99"/>
+      <c r="BI9" s="95"/>
+      <c r="BJ9" s="93"/>
+      <c r="BK9" s="93"/>
+      <c r="BL9" s="93"/>
+      <c r="BM9" s="94"/>
+      <c r="BN9" s="100"/>
+      <c r="BO9" s="100"/>
+      <c r="BP9" s="100"/>
+      <c r="BQ9" s="100"/>
+      <c r="BR9" s="100"/>
+      <c r="BS9" s="100"/>
+      <c r="BT9" s="100"/>
+      <c r="BU9" s="100"/>
+      <c r="BV9" s="100"/>
+      <c r="BW9" s="100"/>
+      <c r="BX9" s="101"/>
     </row>
     <row r="10" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B10" s="101">
+      <c r="B10" s="102">
         <v>6</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="108" t="s">
+      <c r="C10" s="103"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="113"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="111"/>
-      <c r="Y10" s="111"/>
-      <c r="Z10" s="111"/>
-      <c r="AA10" s="112"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="111"/>
-      <c r="AD10" s="111"/>
-      <c r="AE10" s="111"/>
-      <c r="AF10" s="112"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="111"/>
-      <c r="AI10" s="111"/>
-      <c r="AJ10" s="111"/>
-      <c r="AK10" s="112"/>
-      <c r="AL10" s="113"/>
-      <c r="AM10" s="111"/>
-      <c r="AN10" s="111"/>
-      <c r="AO10" s="111"/>
-      <c r="AP10" s="112"/>
-      <c r="AQ10" s="113"/>
-      <c r="AR10" s="111"/>
-      <c r="AS10" s="111"/>
-      <c r="AT10" s="111"/>
-      <c r="AU10" s="112"/>
-      <c r="AV10" s="113"/>
-      <c r="AW10" s="111"/>
-      <c r="AX10" s="111"/>
-      <c r="AY10" s="111"/>
-      <c r="AZ10" s="112"/>
-      <c r="BA10" s="113"/>
-      <c r="BB10" s="111"/>
-      <c r="BC10" s="111"/>
-      <c r="BD10" s="111"/>
-      <c r="BE10" s="112"/>
-      <c r="BF10" s="115" t="s">
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="113"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="114"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="112"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="114"/>
+      <c r="AC10" s="112"/>
+      <c r="AD10" s="112"/>
+      <c r="AE10" s="112"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="111"/>
+      <c r="AH10" s="112"/>
+      <c r="AI10" s="112"/>
+      <c r="AJ10" s="112"/>
+      <c r="AK10" s="113"/>
+      <c r="AL10" s="114"/>
+      <c r="AM10" s="112"/>
+      <c r="AN10" s="112"/>
+      <c r="AO10" s="112"/>
+      <c r="AP10" s="113"/>
+      <c r="AQ10" s="114"/>
+      <c r="AR10" s="112"/>
+      <c r="AS10" s="112"/>
+      <c r="AT10" s="112"/>
+      <c r="AU10" s="113"/>
+      <c r="AV10" s="114"/>
+      <c r="AW10" s="112"/>
+      <c r="AX10" s="112"/>
+      <c r="AY10" s="112"/>
+      <c r="AZ10" s="113"/>
+      <c r="BA10" s="114"/>
+      <c r="BB10" s="112"/>
+      <c r="BC10" s="112"/>
+      <c r="BD10" s="112"/>
+      <c r="BE10" s="113"/>
+      <c r="BF10" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="BG10" s="116"/>
-      <c r="BH10" s="116"/>
-      <c r="BI10" s="113"/>
-      <c r="BJ10" s="111"/>
-      <c r="BK10" s="111"/>
-      <c r="BL10" s="111"/>
-      <c r="BM10" s="112"/>
-      <c r="BN10" s="109"/>
-      <c r="BO10" s="109"/>
-      <c r="BP10" s="109"/>
-      <c r="BQ10" s="109"/>
-      <c r="BR10" s="109"/>
-      <c r="BS10" s="109"/>
-      <c r="BT10" s="109"/>
-      <c r="BU10" s="109"/>
-      <c r="BV10" s="109"/>
-      <c r="BW10" s="109"/>
-      <c r="BX10" s="114"/>
+      <c r="BG10" s="117"/>
+      <c r="BH10" s="117"/>
+      <c r="BI10" s="114"/>
+      <c r="BJ10" s="112"/>
+      <c r="BK10" s="112"/>
+      <c r="BL10" s="112"/>
+      <c r="BM10" s="113"/>
+      <c r="BN10" s="110"/>
+      <c r="BO10" s="110"/>
+      <c r="BP10" s="110"/>
+      <c r="BQ10" s="110"/>
+      <c r="BR10" s="110"/>
+      <c r="BS10" s="110"/>
+      <c r="BT10" s="110"/>
+      <c r="BU10" s="110"/>
+      <c r="BV10" s="110"/>
+      <c r="BW10" s="110"/>
+      <c r="BX10" s="115"/>
     </row>
     <row r="11" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="125" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="122"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="122"/>
-      <c r="T11" s="122"/>
-      <c r="U11" s="122"/>
-      <c r="V11" s="122"/>
-      <c r="W11" s="122"/>
-      <c r="X11" s="122"/>
-      <c r="Y11" s="122"/>
-      <c r="Z11" s="122"/>
-      <c r="AA11" s="122"/>
-      <c r="AB11" s="122"/>
-      <c r="AC11" s="122"/>
-      <c r="AD11" s="122"/>
-      <c r="AE11" s="122"/>
-      <c r="AF11" s="122"/>
-      <c r="AG11" s="122"/>
-      <c r="AH11" s="122"/>
-      <c r="AI11" s="122"/>
-      <c r="AJ11" s="122"/>
-      <c r="AK11" s="122"/>
-      <c r="AL11" s="122"/>
-      <c r="AM11" s="122"/>
-      <c r="AN11" s="122"/>
-      <c r="AO11" s="122"/>
-      <c r="AP11" s="122"/>
-      <c r="AQ11" s="122"/>
-      <c r="AR11" s="122"/>
-      <c r="AS11" s="122"/>
-      <c r="AT11" s="122"/>
-      <c r="AU11" s="122"/>
-      <c r="AV11" s="122"/>
-      <c r="AW11" s="122"/>
-      <c r="AX11" s="122"/>
-      <c r="AY11" s="122"/>
-      <c r="AZ11" s="122"/>
-      <c r="BA11" s="122"/>
-      <c r="BB11" s="122"/>
-      <c r="BC11" s="122"/>
-      <c r="BD11" s="122"/>
-      <c r="BE11" s="122"/>
-      <c r="BF11" s="122"/>
-      <c r="BG11" s="122"/>
-      <c r="BH11" s="122"/>
-      <c r="BI11" s="122"/>
-      <c r="BJ11" s="122"/>
-      <c r="BK11" s="122"/>
-      <c r="BL11" s="122"/>
-      <c r="BM11" s="122"/>
-      <c r="BN11" s="122"/>
-      <c r="BO11" s="122"/>
-      <c r="BP11" s="122"/>
-      <c r="BQ11" s="122"/>
-      <c r="BR11" s="122"/>
-      <c r="BS11" s="122"/>
-      <c r="BT11" s="122"/>
-      <c r="BU11" s="122"/>
-      <c r="BV11" s="122"/>
-      <c r="BW11" s="122"/>
-      <c r="BX11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="123"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="123"/>
+      <c r="U11" s="123"/>
+      <c r="V11" s="123"/>
+      <c r="W11" s="123"/>
+      <c r="X11" s="123"/>
+      <c r="Y11" s="123"/>
+      <c r="Z11" s="123"/>
+      <c r="AA11" s="123"/>
+      <c r="AB11" s="123"/>
+      <c r="AC11" s="123"/>
+      <c r="AD11" s="123"/>
+      <c r="AE11" s="123"/>
+      <c r="AF11" s="123"/>
+      <c r="AG11" s="123"/>
+      <c r="AH11" s="123"/>
+      <c r="AI11" s="123"/>
+      <c r="AJ11" s="123"/>
+      <c r="AK11" s="123"/>
+      <c r="AL11" s="123"/>
+      <c r="AM11" s="123"/>
+      <c r="AN11" s="123"/>
+      <c r="AO11" s="123"/>
+      <c r="AP11" s="123"/>
+      <c r="AQ11" s="123"/>
+      <c r="AR11" s="123"/>
+      <c r="AS11" s="123"/>
+      <c r="AT11" s="123"/>
+      <c r="AU11" s="123"/>
+      <c r="AV11" s="123"/>
+      <c r="AW11" s="123"/>
+      <c r="AX11" s="123"/>
+      <c r="AY11" s="123"/>
+      <c r="AZ11" s="123"/>
+      <c r="BA11" s="123"/>
+      <c r="BB11" s="123"/>
+      <c r="BC11" s="123"/>
+      <c r="BD11" s="123"/>
+      <c r="BE11" s="123"/>
+      <c r="BF11" s="123"/>
+      <c r="BG11" s="123"/>
+      <c r="BH11" s="123"/>
+      <c r="BI11" s="123"/>
+      <c r="BJ11" s="123"/>
+      <c r="BK11" s="123"/>
+      <c r="BL11" s="123"/>
+      <c r="BM11" s="123"/>
+      <c r="BN11" s="123"/>
+      <c r="BO11" s="123"/>
+      <c r="BP11" s="123"/>
+      <c r="BQ11" s="123"/>
+      <c r="BR11" s="123"/>
+      <c r="BS11" s="123"/>
+      <c r="BT11" s="123"/>
+      <c r="BU11" s="123"/>
+      <c r="BV11" s="123"/>
+      <c r="BW11" s="123"/>
+      <c r="BX11" s="124"/>
     </row>
     <row r="12" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B12" s="117">
+      <c r="B12" s="118">
         <v>7</v>
       </c>
-      <c r="C12" s="118"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="120" t="s">
+      <c r="C12" s="119"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="121" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="80"/>
-      <c r="U12" s="80"/>
-      <c r="V12" s="81"/>
-      <c r="W12" s="82"/>
-      <c r="X12" s="80"/>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="81"/>
-      <c r="AB12" s="82"/>
-      <c r="AC12" s="80"/>
-      <c r="AD12" s="80"/>
-      <c r="AE12" s="80"/>
-      <c r="AF12" s="81"/>
-      <c r="AG12" s="82"/>
-      <c r="AH12" s="80"/>
-      <c r="AI12" s="80"/>
-      <c r="AJ12" s="80"/>
-      <c r="AK12" s="81"/>
-      <c r="AL12" s="82"/>
-      <c r="AM12" s="80"/>
-      <c r="AN12" s="80"/>
-      <c r="AO12" s="80"/>
-      <c r="AP12" s="81"/>
-      <c r="AQ12" s="82"/>
-      <c r="AR12" s="80"/>
-      <c r="AS12" s="80"/>
-      <c r="AT12" s="80"/>
-      <c r="AU12" s="81"/>
-      <c r="AV12" s="82"/>
-      <c r="AW12" s="80"/>
-      <c r="AX12" s="80"/>
-      <c r="AY12" s="80"/>
-      <c r="AZ12" s="81"/>
-      <c r="BA12" s="82"/>
-      <c r="BB12" s="80"/>
-      <c r="BC12" s="80"/>
-      <c r="BD12" s="80"/>
-      <c r="BE12" s="81"/>
-      <c r="BF12" s="95" t="s">
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="81"/>
+      <c r="U12" s="81"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="83"/>
+      <c r="AC12" s="81"/>
+      <c r="AD12" s="81"/>
+      <c r="AE12" s="81"/>
+      <c r="AF12" s="82"/>
+      <c r="AG12" s="83"/>
+      <c r="AH12" s="81"/>
+      <c r="AI12" s="81"/>
+      <c r="AJ12" s="81"/>
+      <c r="AK12" s="82"/>
+      <c r="AL12" s="83"/>
+      <c r="AM12" s="81"/>
+      <c r="AN12" s="81"/>
+      <c r="AO12" s="81"/>
+      <c r="AP12" s="82"/>
+      <c r="AQ12" s="83"/>
+      <c r="AR12" s="81"/>
+      <c r="AS12" s="81"/>
+      <c r="AT12" s="81"/>
+      <c r="AU12" s="82"/>
+      <c r="AV12" s="83"/>
+      <c r="AW12" s="81"/>
+      <c r="AX12" s="81"/>
+      <c r="AY12" s="81"/>
+      <c r="AZ12" s="82"/>
+      <c r="BA12" s="83"/>
+      <c r="BB12" s="81"/>
+      <c r="BC12" s="81"/>
+      <c r="BD12" s="81"/>
+      <c r="BE12" s="82"/>
+      <c r="BF12" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="BG12" s="96"/>
-      <c r="BH12" s="96"/>
-      <c r="BI12" s="82"/>
-      <c r="BJ12" s="80"/>
-      <c r="BK12" s="80"/>
-      <c r="BL12" s="80"/>
-      <c r="BM12" s="81"/>
-      <c r="BN12" s="68"/>
-      <c r="BO12" s="68"/>
-      <c r="BP12" s="68"/>
-      <c r="BQ12" s="68"/>
-      <c r="BR12" s="68"/>
-      <c r="BS12" s="68"/>
-      <c r="BT12" s="68"/>
-      <c r="BU12" s="68"/>
-      <c r="BV12" s="68"/>
-      <c r="BW12" s="68"/>
-      <c r="BX12" s="69"/>
+      <c r="BG12" s="97"/>
+      <c r="BH12" s="97"/>
+      <c r="BI12" s="83"/>
+      <c r="BJ12" s="81"/>
+      <c r="BK12" s="81"/>
+      <c r="BL12" s="81"/>
+      <c r="BM12" s="82"/>
+      <c r="BN12" s="69"/>
+      <c r="BO12" s="69"/>
+      <c r="BP12" s="69"/>
+      <c r="BQ12" s="69"/>
+      <c r="BR12" s="69"/>
+      <c r="BS12" s="69"/>
+      <c r="BT12" s="69"/>
+      <c r="BU12" s="69"/>
+      <c r="BV12" s="69"/>
+      <c r="BW12" s="69"/>
+      <c r="BX12" s="70"/>
     </row>
     <row r="13" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B13" s="101">
+      <c r="B13" s="102">
         <v>8</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="104" t="s">
+      <c r="C13" s="103"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="94"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="94"/>
-      <c r="AC13" s="92"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="92"/>
-      <c r="AF13" s="93"/>
-      <c r="AG13" s="94"/>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="92"/>
-      <c r="AJ13" s="92"/>
-      <c r="AK13" s="93"/>
-      <c r="AL13" s="94"/>
-      <c r="AM13" s="92"/>
-      <c r="AN13" s="92"/>
-      <c r="AO13" s="92"/>
-      <c r="AP13" s="93"/>
-      <c r="AQ13" s="94"/>
-      <c r="AR13" s="92"/>
-      <c r="AS13" s="92"/>
-      <c r="AT13" s="92"/>
-      <c r="AU13" s="93"/>
-      <c r="AV13" s="94"/>
-      <c r="AW13" s="92"/>
-      <c r="AX13" s="92"/>
-      <c r="AY13" s="92"/>
-      <c r="AZ13" s="93"/>
-      <c r="BA13" s="94"/>
-      <c r="BB13" s="92"/>
-      <c r="BC13" s="92"/>
-      <c r="BD13" s="92"/>
-      <c r="BE13" s="93"/>
-      <c r="BF13" s="97" t="s">
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="94"/>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="93"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="93"/>
+      <c r="AI13" s="93"/>
+      <c r="AJ13" s="93"/>
+      <c r="AK13" s="94"/>
+      <c r="AL13" s="95"/>
+      <c r="AM13" s="93"/>
+      <c r="AN13" s="93"/>
+      <c r="AO13" s="93"/>
+      <c r="AP13" s="94"/>
+      <c r="AQ13" s="95"/>
+      <c r="AR13" s="93"/>
+      <c r="AS13" s="93"/>
+      <c r="AT13" s="93"/>
+      <c r="AU13" s="94"/>
+      <c r="AV13" s="95"/>
+      <c r="AW13" s="93"/>
+      <c r="AX13" s="93"/>
+      <c r="AY13" s="93"/>
+      <c r="AZ13" s="94"/>
+      <c r="BA13" s="95"/>
+      <c r="BB13" s="93"/>
+      <c r="BC13" s="93"/>
+      <c r="BD13" s="93"/>
+      <c r="BE13" s="94"/>
+      <c r="BF13" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="BG13" s="98"/>
-      <c r="BH13" s="98"/>
-      <c r="BI13" s="94"/>
-      <c r="BJ13" s="92"/>
-      <c r="BK13" s="92"/>
-      <c r="BL13" s="92"/>
-      <c r="BM13" s="93"/>
-      <c r="BN13" s="99"/>
-      <c r="BO13" s="99"/>
-      <c r="BP13" s="99"/>
-      <c r="BQ13" s="99"/>
-      <c r="BR13" s="99"/>
-      <c r="BS13" s="99"/>
-      <c r="BT13" s="99"/>
-      <c r="BU13" s="99"/>
-      <c r="BV13" s="99"/>
-      <c r="BW13" s="99"/>
-      <c r="BX13" s="100"/>
+      <c r="BG13" s="99"/>
+      <c r="BH13" s="99"/>
+      <c r="BI13" s="95"/>
+      <c r="BJ13" s="93"/>
+      <c r="BK13" s="93"/>
+      <c r="BL13" s="93"/>
+      <c r="BM13" s="94"/>
+      <c r="BN13" s="100"/>
+      <c r="BO13" s="100"/>
+      <c r="BP13" s="100"/>
+      <c r="BQ13" s="100"/>
+      <c r="BR13" s="100"/>
+      <c r="BS13" s="100"/>
+      <c r="BT13" s="100"/>
+      <c r="BU13" s="100"/>
+      <c r="BV13" s="100"/>
+      <c r="BW13" s="100"/>
+      <c r="BX13" s="101"/>
     </row>
     <row r="14" spans="2:76" ht="16.5">
-      <c r="B14" s="101">
+      <c r="B14" s="102">
         <v>9</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="104" t="s">
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="92"/>
-      <c r="T14" s="92"/>
-      <c r="U14" s="92"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="94"/>
-      <c r="X14" s="92"/>
-      <c r="Y14" s="92"/>
-      <c r="Z14" s="92"/>
-      <c r="AA14" s="93"/>
-      <c r="AB14" s="94"/>
-      <c r="AC14" s="92"/>
-      <c r="AD14" s="92"/>
-      <c r="AE14" s="92"/>
-      <c r="AF14" s="93"/>
-      <c r="AG14" s="91"/>
-      <c r="AH14" s="92"/>
-      <c r="AI14" s="92"/>
-      <c r="AJ14" s="92"/>
-      <c r="AK14" s="93"/>
-      <c r="AL14" s="94"/>
-      <c r="AM14" s="92"/>
-      <c r="AN14" s="92"/>
-      <c r="AO14" s="92"/>
-      <c r="AP14" s="93"/>
-      <c r="AQ14" s="94"/>
-      <c r="AR14" s="92"/>
-      <c r="AS14" s="92"/>
-      <c r="AT14" s="92"/>
-      <c r="AU14" s="93"/>
-      <c r="AV14" s="94"/>
-      <c r="AW14" s="92"/>
-      <c r="AX14" s="92"/>
-      <c r="AY14" s="92"/>
-      <c r="AZ14" s="93"/>
-      <c r="BA14" s="94"/>
-      <c r="BB14" s="92"/>
-      <c r="BC14" s="92"/>
-      <c r="BD14" s="92"/>
-      <c r="BE14" s="93"/>
-      <c r="BF14" s="97" t="s">
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="93"/>
+      <c r="AE14" s="93"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="92"/>
+      <c r="AH14" s="93"/>
+      <c r="AI14" s="93"/>
+      <c r="AJ14" s="93"/>
+      <c r="AK14" s="94"/>
+      <c r="AL14" s="95"/>
+      <c r="AM14" s="93"/>
+      <c r="AN14" s="93"/>
+      <c r="AO14" s="93"/>
+      <c r="AP14" s="94"/>
+      <c r="AQ14" s="95"/>
+      <c r="AR14" s="93"/>
+      <c r="AS14" s="93"/>
+      <c r="AT14" s="93"/>
+      <c r="AU14" s="94"/>
+      <c r="AV14" s="95"/>
+      <c r="AW14" s="93"/>
+      <c r="AX14" s="93"/>
+      <c r="AY14" s="93"/>
+      <c r="AZ14" s="94"/>
+      <c r="BA14" s="95"/>
+      <c r="BB14" s="93"/>
+      <c r="BC14" s="93"/>
+      <c r="BD14" s="93"/>
+      <c r="BE14" s="94"/>
+      <c r="BF14" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="BG14" s="98"/>
-      <c r="BH14" s="98"/>
-      <c r="BI14" s="94"/>
-      <c r="BJ14" s="92"/>
-      <c r="BK14" s="92"/>
-      <c r="BL14" s="92"/>
-      <c r="BM14" s="93"/>
-      <c r="BN14" s="99"/>
-      <c r="BO14" s="99"/>
-      <c r="BP14" s="99"/>
-      <c r="BQ14" s="99"/>
-      <c r="BR14" s="99"/>
-      <c r="BS14" s="99"/>
-      <c r="BT14" s="99"/>
-      <c r="BU14" s="99"/>
-      <c r="BV14" s="99"/>
-      <c r="BW14" s="99"/>
-      <c r="BX14" s="100"/>
+      <c r="BG14" s="99"/>
+      <c r="BH14" s="99"/>
+      <c r="BI14" s="95"/>
+      <c r="BJ14" s="93"/>
+      <c r="BK14" s="93"/>
+      <c r="BL14" s="93"/>
+      <c r="BM14" s="94"/>
+      <c r="BN14" s="100"/>
+      <c r="BO14" s="100"/>
+      <c r="BP14" s="100"/>
+      <c r="BQ14" s="100"/>
+      <c r="BR14" s="100"/>
+      <c r="BS14" s="100"/>
+      <c r="BT14" s="100"/>
+      <c r="BU14" s="100"/>
+      <c r="BV14" s="100"/>
+      <c r="BW14" s="100"/>
+      <c r="BX14" s="101"/>
     </row>
     <row r="15" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B15" s="101">
+      <c r="B15" s="102">
         <v>10</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="104" t="s">
+      <c r="C15" s="103"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="92"/>
-      <c r="T15" s="92"/>
-      <c r="U15" s="92"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="94"/>
-      <c r="X15" s="92"/>
-      <c r="Y15" s="92"/>
-      <c r="Z15" s="92"/>
-      <c r="AA15" s="93"/>
-      <c r="AB15" s="94"/>
-      <c r="AC15" s="92"/>
-      <c r="AD15" s="92"/>
-      <c r="AE15" s="92"/>
-      <c r="AF15" s="93"/>
-      <c r="AG15" s="91"/>
-      <c r="AH15" s="92"/>
-      <c r="AI15" s="92"/>
-      <c r="AJ15" s="92"/>
-      <c r="AK15" s="93"/>
-      <c r="AL15" s="94"/>
-      <c r="AM15" s="92"/>
-      <c r="AN15" s="92"/>
-      <c r="AO15" s="92"/>
-      <c r="AP15" s="93"/>
-      <c r="AQ15" s="94"/>
-      <c r="AR15" s="92"/>
-      <c r="AS15" s="92"/>
-      <c r="AT15" s="92"/>
-      <c r="AU15" s="93"/>
-      <c r="AV15" s="94"/>
-      <c r="AW15" s="92"/>
-      <c r="AX15" s="92"/>
-      <c r="AY15" s="92"/>
-      <c r="AZ15" s="93"/>
-      <c r="BA15" s="94"/>
-      <c r="BB15" s="92"/>
-      <c r="BC15" s="92"/>
-      <c r="BD15" s="92"/>
-      <c r="BE15" s="93"/>
-      <c r="BF15" s="97" t="s">
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="93"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="94"/>
+      <c r="AB15" s="95"/>
+      <c r="AC15" s="93"/>
+      <c r="AD15" s="93"/>
+      <c r="AE15" s="93"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="92"/>
+      <c r="AH15" s="93"/>
+      <c r="AI15" s="93"/>
+      <c r="AJ15" s="93"/>
+      <c r="AK15" s="94"/>
+      <c r="AL15" s="95"/>
+      <c r="AM15" s="93"/>
+      <c r="AN15" s="93"/>
+      <c r="AO15" s="93"/>
+      <c r="AP15" s="94"/>
+      <c r="AQ15" s="95"/>
+      <c r="AR15" s="93"/>
+      <c r="AS15" s="93"/>
+      <c r="AT15" s="93"/>
+      <c r="AU15" s="94"/>
+      <c r="AV15" s="95"/>
+      <c r="AW15" s="93"/>
+      <c r="AX15" s="93"/>
+      <c r="AY15" s="93"/>
+      <c r="AZ15" s="94"/>
+      <c r="BA15" s="95"/>
+      <c r="BB15" s="93"/>
+      <c r="BC15" s="93"/>
+      <c r="BD15" s="93"/>
+      <c r="BE15" s="94"/>
+      <c r="BF15" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="BG15" s="98"/>
-      <c r="BH15" s="98"/>
-      <c r="BI15" s="94"/>
-      <c r="BJ15" s="92"/>
-      <c r="BK15" s="92"/>
-      <c r="BL15" s="92"/>
-      <c r="BM15" s="93"/>
-      <c r="BN15" s="99"/>
-      <c r="BO15" s="99"/>
-      <c r="BP15" s="99"/>
-      <c r="BQ15" s="99"/>
-      <c r="BR15" s="99"/>
-      <c r="BS15" s="99"/>
-      <c r="BT15" s="99"/>
-      <c r="BU15" s="99"/>
-      <c r="BV15" s="99"/>
-      <c r="BW15" s="99"/>
-      <c r="BX15" s="100"/>
+      <c r="BG15" s="99"/>
+      <c r="BH15" s="99"/>
+      <c r="BI15" s="95"/>
+      <c r="BJ15" s="93"/>
+      <c r="BK15" s="93"/>
+      <c r="BL15" s="93"/>
+      <c r="BM15" s="94"/>
+      <c r="BN15" s="100"/>
+      <c r="BO15" s="100"/>
+      <c r="BP15" s="100"/>
+      <c r="BQ15" s="100"/>
+      <c r="BR15" s="100"/>
+      <c r="BS15" s="100"/>
+      <c r="BT15" s="100"/>
+      <c r="BU15" s="100"/>
+      <c r="BV15" s="100"/>
+      <c r="BW15" s="100"/>
+      <c r="BX15" s="101"/>
     </row>
     <row r="16" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B16" s="101">
+      <c r="B16" s="102">
         <v>11</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="104" t="s">
+      <c r="C16" s="103"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="92"/>
-      <c r="T16" s="92"/>
-      <c r="U16" s="92"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="92"/>
-      <c r="Y16" s="92"/>
-      <c r="Z16" s="92"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="94"/>
-      <c r="AC16" s="92"/>
-      <c r="AD16" s="92"/>
-      <c r="AE16" s="92"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="91"/>
-      <c r="AH16" s="92"/>
-      <c r="AI16" s="92"/>
-      <c r="AJ16" s="92"/>
-      <c r="AK16" s="93"/>
-      <c r="AL16" s="94"/>
-      <c r="AM16" s="92"/>
-      <c r="AN16" s="92"/>
-      <c r="AO16" s="92"/>
-      <c r="AP16" s="93"/>
-      <c r="AQ16" s="94"/>
-      <c r="AR16" s="92"/>
-      <c r="AS16" s="92"/>
-      <c r="AT16" s="92"/>
-      <c r="AU16" s="93"/>
-      <c r="AV16" s="94"/>
-      <c r="AW16" s="92"/>
-      <c r="AX16" s="92"/>
-      <c r="AY16" s="92"/>
-      <c r="AZ16" s="93"/>
-      <c r="BA16" s="94"/>
-      <c r="BB16" s="92"/>
-      <c r="BC16" s="92"/>
-      <c r="BD16" s="92"/>
-      <c r="BE16" s="93"/>
-      <c r="BF16" s="97" t="s">
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="94"/>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="93"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="93"/>
+      <c r="AI16" s="93"/>
+      <c r="AJ16" s="93"/>
+      <c r="AK16" s="94"/>
+      <c r="AL16" s="95"/>
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="93"/>
+      <c r="AO16" s="93"/>
+      <c r="AP16" s="94"/>
+      <c r="AQ16" s="95"/>
+      <c r="AR16" s="93"/>
+      <c r="AS16" s="93"/>
+      <c r="AT16" s="93"/>
+      <c r="AU16" s="94"/>
+      <c r="AV16" s="95"/>
+      <c r="AW16" s="93"/>
+      <c r="AX16" s="93"/>
+      <c r="AY16" s="93"/>
+      <c r="AZ16" s="94"/>
+      <c r="BA16" s="95"/>
+      <c r="BB16" s="93"/>
+      <c r="BC16" s="93"/>
+      <c r="BD16" s="93"/>
+      <c r="BE16" s="94"/>
+      <c r="BF16" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="BG16" s="98"/>
-      <c r="BH16" s="98"/>
-      <c r="BI16" s="94"/>
-      <c r="BJ16" s="92"/>
-      <c r="BK16" s="92"/>
-      <c r="BL16" s="92"/>
-      <c r="BM16" s="93"/>
-      <c r="BN16" s="99"/>
-      <c r="BO16" s="99"/>
-      <c r="BP16" s="99"/>
-      <c r="BQ16" s="99"/>
-      <c r="BR16" s="99"/>
-      <c r="BS16" s="99"/>
-      <c r="BT16" s="99"/>
-      <c r="BU16" s="99"/>
-      <c r="BV16" s="99"/>
-      <c r="BW16" s="99"/>
-      <c r="BX16" s="100"/>
+      <c r="BG16" s="99"/>
+      <c r="BH16" s="99"/>
+      <c r="BI16" s="95"/>
+      <c r="BJ16" s="93"/>
+      <c r="BK16" s="93"/>
+      <c r="BL16" s="93"/>
+      <c r="BM16" s="94"/>
+      <c r="BN16" s="100"/>
+      <c r="BO16" s="100"/>
+      <c r="BP16" s="100"/>
+      <c r="BQ16" s="100"/>
+      <c r="BR16" s="100"/>
+      <c r="BS16" s="100"/>
+      <c r="BT16" s="100"/>
+      <c r="BU16" s="100"/>
+      <c r="BV16" s="100"/>
+      <c r="BW16" s="100"/>
+      <c r="BX16" s="101"/>
     </row>
     <row r="17" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B17" s="101">
+      <c r="B17" s="102">
         <v>12</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="108" t="s">
+      <c r="C17" s="103"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="111"/>
-      <c r="P17" s="111"/>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="113"/>
-      <c r="S17" s="111"/>
-      <c r="T17" s="111"/>
-      <c r="U17" s="111"/>
-      <c r="V17" s="112"/>
-      <c r="W17" s="113"/>
-      <c r="X17" s="111"/>
-      <c r="Y17" s="111"/>
-      <c r="Z17" s="111"/>
-      <c r="AA17" s="112"/>
-      <c r="AB17" s="113"/>
-      <c r="AC17" s="111"/>
-      <c r="AD17" s="111"/>
-      <c r="AE17" s="111"/>
-      <c r="AF17" s="112"/>
-      <c r="AG17" s="110"/>
-      <c r="AH17" s="111"/>
-      <c r="AI17" s="111"/>
-      <c r="AJ17" s="111"/>
-      <c r="AK17" s="112"/>
-      <c r="AL17" s="113"/>
-      <c r="AM17" s="111"/>
-      <c r="AN17" s="111"/>
-      <c r="AO17" s="111"/>
-      <c r="AP17" s="112"/>
-      <c r="AQ17" s="113"/>
-      <c r="AR17" s="111"/>
-      <c r="AS17" s="111"/>
-      <c r="AT17" s="111"/>
-      <c r="AU17" s="112"/>
-      <c r="AV17" s="113"/>
-      <c r="AW17" s="111"/>
-      <c r="AX17" s="111"/>
-      <c r="AY17" s="111"/>
-      <c r="AZ17" s="112"/>
-      <c r="BA17" s="113"/>
-      <c r="BB17" s="111"/>
-      <c r="BC17" s="111"/>
-      <c r="BD17" s="111"/>
-      <c r="BE17" s="112"/>
-      <c r="BF17" s="115" t="s">
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="113"/>
+      <c r="R17" s="114"/>
+      <c r="S17" s="112"/>
+      <c r="T17" s="112"/>
+      <c r="U17" s="112"/>
+      <c r="V17" s="113"/>
+      <c r="W17" s="114"/>
+      <c r="X17" s="112"/>
+      <c r="Y17" s="112"/>
+      <c r="Z17" s="112"/>
+      <c r="AA17" s="113"/>
+      <c r="AB17" s="114"/>
+      <c r="AC17" s="112"/>
+      <c r="AD17" s="112"/>
+      <c r="AE17" s="112"/>
+      <c r="AF17" s="113"/>
+      <c r="AG17" s="111"/>
+      <c r="AH17" s="112"/>
+      <c r="AI17" s="112"/>
+      <c r="AJ17" s="112"/>
+      <c r="AK17" s="113"/>
+      <c r="AL17" s="114"/>
+      <c r="AM17" s="112"/>
+      <c r="AN17" s="112"/>
+      <c r="AO17" s="112"/>
+      <c r="AP17" s="113"/>
+      <c r="AQ17" s="114"/>
+      <c r="AR17" s="112"/>
+      <c r="AS17" s="112"/>
+      <c r="AT17" s="112"/>
+      <c r="AU17" s="113"/>
+      <c r="AV17" s="114"/>
+      <c r="AW17" s="112"/>
+      <c r="AX17" s="112"/>
+      <c r="AY17" s="112"/>
+      <c r="AZ17" s="113"/>
+      <c r="BA17" s="114"/>
+      <c r="BB17" s="112"/>
+      <c r="BC17" s="112"/>
+      <c r="BD17" s="112"/>
+      <c r="BE17" s="113"/>
+      <c r="BF17" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="BG17" s="116"/>
-      <c r="BH17" s="116"/>
-      <c r="BI17" s="113"/>
-      <c r="BJ17" s="111"/>
-      <c r="BK17" s="111"/>
-      <c r="BL17" s="111"/>
-      <c r="BM17" s="112"/>
-      <c r="BN17" s="109"/>
-      <c r="BO17" s="109"/>
-      <c r="BP17" s="109"/>
-      <c r="BQ17" s="109"/>
-      <c r="BR17" s="109"/>
-      <c r="BS17" s="109"/>
-      <c r="BT17" s="109"/>
-      <c r="BU17" s="109"/>
-      <c r="BV17" s="109"/>
-      <c r="BW17" s="109"/>
-      <c r="BX17" s="114"/>
+      <c r="BG17" s="117"/>
+      <c r="BH17" s="117"/>
+      <c r="BI17" s="114"/>
+      <c r="BJ17" s="112"/>
+      <c r="BK17" s="112"/>
+      <c r="BL17" s="112"/>
+      <c r="BM17" s="113"/>
+      <c r="BN17" s="110"/>
+      <c r="BO17" s="110"/>
+      <c r="BP17" s="110"/>
+      <c r="BQ17" s="110"/>
+      <c r="BR17" s="110"/>
+      <c r="BS17" s="110"/>
+      <c r="BT17" s="110"/>
+      <c r="BU17" s="110"/>
+      <c r="BV17" s="110"/>
+      <c r="BW17" s="110"/>
+      <c r="BX17" s="115"/>
     </row>
     <row r="18" spans="2:76" ht="16.5">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
     </row>
     <row r="19" spans="2:76" ht="16.5">
       <c r="I19" s="35" t="s">
@@ -7836,10 +7660,10 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="M5:BE10 BI5:BM10 M12:BE17 BI12:BM17">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ8100_消費税率マスタメンテナンス）.xlsx
+++ b/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ8100_消費税率マスタメンテナンス）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\AIplus_NAS\養鶏-互助防疫システム\backup\12_Documents\50.単体テスト\01_単体テスト設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07165ED1-8A69-45EB-8DAB-792288EC8BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64702D69-CED2-488A-A728-7AE60419144B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="880" activeTab="1" xr2:uid="{8AE4BD12-0B13-430A-A994-A2059EDE9970}"/>
   </bookViews>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="154">
   <si>
     <t>新規登録</t>
     <rPh sb="0" eb="4">
@@ -508,16 +508,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>解像度1920×1080　ディスプレイ100%　ブラウザ150%で正常に表示できること</t>
-    <rPh sb="33" eb="35">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t>全体</t>
     <rPh sb="0" eb="2">
       <t>ゼンタイ</t>
@@ -1172,19 +1162,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>※既存システムのGJ8010にての削除ボタンを参照</t>
-    <rPh sb="1" eb="3">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新規モード</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1338,16 +1315,6 @@
   <si>
     <t>消費税率一覧</t>
     <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>解像度1920×1080　ディスプレイ100%　ブラウザ100%で正常に表示できること</t>
-    <rPh sb="33" eb="35">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>テスト
@@ -1408,6 +1375,49 @@
 ・DB適用終了日　&gt;=　画面.適用終了日</t>
     <rPh sb="19" eb="21">
       <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※既存システムの一覧画面にての削除ボタンを参照</t>
+    <rPh sb="1" eb="3">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解像度1920×1080　ディスプレイ150%　ブラウザ100%で正常に表示できること</t>
+    <rPh sb="33" eb="35">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>解像度1920×1080　ディスプレイ200%　ブラウザ100%で正常に表示できること</t>
+    <rPh sb="33" eb="35">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>仕様変更</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2638,21 +2648,7 @@
     <cellStyle name="標準 5" xfId="4" xr:uid="{995CF52B-56E0-4E71-A9B5-D761A557A3F5}"/>
     <cellStyle name="標準 6" xfId="5" xr:uid="{5AB37F2C-1356-43C0-A642-8019E4F0971A}"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
@@ -3637,7 +3633,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1">
       <c r="A1" s="57" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -3647,7 +3643,7 @@
       <c r="E1" s="60"/>
       <c r="F1" s="41"/>
       <c r="G1" s="50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H1" s="50"/>
       <c r="I1" s="50"/>
@@ -3655,13 +3651,13 @@
         <v>10</v>
       </c>
       <c r="K1" s="50" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1">
@@ -3677,10 +3673,10 @@
       <c r="J2" s="64"/>
       <c r="K2" s="50"/>
       <c r="M2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" t="s">
         <v>59</v>
-      </c>
-      <c r="N2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
@@ -3693,7 +3689,7 @@
       <c r="E3" s="60"/>
       <c r="F3" s="41"/>
       <c r="G3" s="63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" s="63"/>
       <c r="I3" s="63"/>
@@ -3702,7 +3698,7 @@
       </c>
       <c r="K3" s="51"/>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1">
@@ -3718,7 +3714,12 @@
       <c r="J4" s="64"/>
       <c r="K4" s="52"/>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="M5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1">
@@ -3738,16 +3739,16 @@
         <v>6</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G6" s="44" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J6" s="46" t="s">
         <v>7</v>
@@ -3772,10 +3773,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
@@ -3791,10 +3792,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="1"/>
@@ -3988,10 +3989,10 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G8:G20">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4044,7 +4045,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
@@ -4083,7 +4084,7 @@
     </row>
     <row r="4" spans="1:8" ht="18.75">
       <c r="A4" s="66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -4104,10 +4105,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="23"/>
@@ -4125,10 +4126,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="23"/>
@@ -4140,21 +4141,21 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>111</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>112</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
       <c r="H7" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -4163,16 +4164,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="17"/>
@@ -4184,16 +4185,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="23"/>
@@ -4205,16 +4206,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="D10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
@@ -4226,16 +4227,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>32</v>
-      </c>
       <c r="E11" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
@@ -4247,16 +4248,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>31</v>
-      </c>
       <c r="D12" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="23"/>
@@ -4268,16 +4269,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>31</v>
-      </c>
       <c r="D13" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
@@ -4289,26 +4290,26 @@
         <v>10</v>
       </c>
       <c r="B14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>31</v>
-      </c>
       <c r="D14" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="23"/>
       <c r="H14" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A15" s="66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
@@ -4324,16 +4325,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
@@ -4345,26 +4346,26 @@
         <v>12</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A18" s="66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
@@ -4380,16 +4381,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>0</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
@@ -4401,16 +4402,16 @@
         <v>14</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="33"/>
@@ -4422,16 +4423,16 @@
         <v>15</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="33"/>
@@ -4443,16 +4444,16 @@
         <v>16</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="33"/>
@@ -4464,21 +4465,21 @@
         <v>17</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="11.25" customHeight="1"/>
@@ -4491,26 +4492,26 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F5:F14">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F17">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F23">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4518,10 +4519,10 @@
   <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{447F42BF-688B-4B64-A853-09C2B81229EA}">
           <x14:formula1>
-            <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
+            <xm:f>実施結果報告書!$M$1:$M$5</xm:f>
           </x14:formula1>
           <xm:sqref>F19:F23 F5:F14 F16:F17</xm:sqref>
         </x14:dataValidation>
@@ -4552,17 +4553,17 @@
   <sheetData>
     <row r="2" spans="2:76" ht="15" customHeight="1">
       <c r="B2" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:76" ht="15" customHeight="1">
       <c r="B3" s="90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="73"/>
       <c r="D3" s="74"/>
       <c r="E3" s="90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" s="73"/>
       <c r="G3" s="73"/>
@@ -4572,82 +4573,82 @@
       <c r="K3" s="73"/>
       <c r="L3" s="73"/>
       <c r="M3" s="85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N3" s="86"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="87"/>
       <c r="R3" s="91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S3" s="86"/>
       <c r="T3" s="86"/>
       <c r="U3" s="86"/>
       <c r="V3" s="87"/>
       <c r="W3" s="91" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X3" s="86"/>
       <c r="Y3" s="86"/>
       <c r="Z3" s="86"/>
       <c r="AA3" s="87"/>
       <c r="AB3" s="86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC3" s="86"/>
       <c r="AD3" s="86"/>
       <c r="AE3" s="86"/>
       <c r="AF3" s="86"/>
       <c r="AG3" s="84" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH3" s="71"/>
       <c r="AI3" s="71"/>
       <c r="AJ3" s="71"/>
       <c r="AK3" s="72"/>
       <c r="AL3" s="84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AM3" s="71"/>
       <c r="AN3" s="71"/>
       <c r="AO3" s="71"/>
       <c r="AP3" s="72"/>
       <c r="AQ3" s="84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR3" s="71"/>
       <c r="AS3" s="71"/>
       <c r="AT3" s="71"/>
       <c r="AU3" s="72"/>
       <c r="AV3" s="71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AW3" s="71"/>
       <c r="AX3" s="71"/>
       <c r="AY3" s="71"/>
       <c r="AZ3" s="72"/>
       <c r="BA3" s="85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BB3" s="86"/>
       <c r="BC3" s="86"/>
       <c r="BD3" s="86"/>
       <c r="BE3" s="87"/>
       <c r="BF3" s="88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BG3" s="89"/>
       <c r="BH3" s="89"/>
       <c r="BI3" s="71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BJ3" s="71"/>
       <c r="BK3" s="71"/>
       <c r="BL3" s="71"/>
       <c r="BM3" s="72"/>
       <c r="BN3" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BO3" s="73"/>
       <c r="BP3" s="73"/>
@@ -4667,7 +4668,7 @@
       <c r="C4" s="76"/>
       <c r="D4" s="77"/>
       <c r="E4" s="78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" s="79"/>
       <c r="G4" s="79"/>
@@ -4722,7 +4723,7 @@
       <c r="BD4" s="81"/>
       <c r="BE4" s="82"/>
       <c r="BF4" s="96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BG4" s="97"/>
       <c r="BH4" s="97"/>
@@ -4750,7 +4751,7 @@
       <c r="C5" s="103"/>
       <c r="D5" s="104"/>
       <c r="E5" s="105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" s="100"/>
       <c r="G5" s="100"/>
@@ -4805,7 +4806,7 @@
       <c r="BD5" s="93"/>
       <c r="BE5" s="94"/>
       <c r="BF5" s="98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BG5" s="99"/>
       <c r="BH5" s="99"/>
@@ -4833,7 +4834,7 @@
       <c r="C6" s="103"/>
       <c r="D6" s="104"/>
       <c r="E6" s="105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" s="100"/>
       <c r="G6" s="100"/>
@@ -4888,7 +4889,7 @@
       <c r="BD6" s="93"/>
       <c r="BE6" s="94"/>
       <c r="BF6" s="98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BG6" s="99"/>
       <c r="BH6" s="99"/>
@@ -4971,7 +4972,7 @@
       <c r="BD7" s="93"/>
       <c r="BE7" s="94"/>
       <c r="BF7" s="98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BG7" s="99"/>
       <c r="BH7" s="99"/>
@@ -4999,7 +5000,7 @@
       <c r="C8" s="107"/>
       <c r="D8" s="108"/>
       <c r="E8" s="109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="110"/>
       <c r="G8" s="110"/>
@@ -5054,7 +5055,7 @@
       <c r="BD8" s="112"/>
       <c r="BE8" s="113"/>
       <c r="BF8" s="116" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BG8" s="117"/>
       <c r="BH8" s="117"/>
@@ -5077,32 +5078,32 @@
     </row>
     <row r="9" spans="2:76" ht="16.5">
       <c r="B9" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:76" ht="16.5">
       <c r="I10" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:76" ht="16.5">
       <c r="I11" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="2:76" ht="15" customHeight="1">
       <c r="B13" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="2:76" ht="15" customHeight="1">
       <c r="B14" s="90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="73"/>
       <c r="D14" s="74"/>
       <c r="E14" s="90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="73"/>
       <c r="G14" s="73"/>
@@ -5112,7 +5113,7 @@
       <c r="K14" s="73"/>
       <c r="L14" s="73"/>
       <c r="M14" s="85" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N14" s="86"/>
       <c r="O14" s="86"/>
@@ -5121,14 +5122,14 @@
       <c r="R14" s="86"/>
       <c r="S14" s="87"/>
       <c r="T14" s="86" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U14" s="86"/>
       <c r="V14" s="86"/>
       <c r="W14" s="86"/>
       <c r="X14" s="87"/>
       <c r="Y14" s="91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z14" s="86"/>
       <c r="AA14" s="86"/>
@@ -5142,7 +5143,7 @@
       <c r="C15" s="119"/>
       <c r="D15" s="120"/>
       <c r="E15" s="121" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15" s="69"/>
       <c r="G15" s="69"/>
@@ -5176,7 +5177,7 @@
       <c r="C16" s="103"/>
       <c r="D16" s="104"/>
       <c r="E16" s="105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F16" s="100"/>
       <c r="G16" s="100"/>
@@ -5210,7 +5211,7 @@
       <c r="C17" s="107"/>
       <c r="D17" s="108"/>
       <c r="E17" s="109" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17" s="110"/>
       <c r="G17" s="110"/>
@@ -5348,18 +5349,18 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="M4:BE8 BI4:BM8 M15:M17">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:AC17">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5373,7 +5374,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C7C93556-AA81-421D-93DA-682534367D2E}">
           <x14:formula1>
-            <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
+            <xm:f>実施結果報告書!$M$1:$M$5</xm:f>
           </x14:formula1>
           <xm:sqref>BI4:BM8 M15:M17 T15:AC17 M4:BE8</xm:sqref>
         </x14:dataValidation>
@@ -5422,7 +5423,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
@@ -5461,7 +5462,7 @@
     </row>
     <row r="4" spans="1:8" ht="18.75">
       <c r="A4" s="66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -5482,10 +5483,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="23"/>
@@ -5503,10 +5504,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="23"/>
@@ -5518,21 +5519,21 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>111</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>112</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
       <c r="H7" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -5541,16 +5542,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="17"/>
@@ -5562,16 +5563,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="17"/>
@@ -5583,16 +5584,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>28</v>
-      </c>
       <c r="D10" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
@@ -5604,16 +5605,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="E11" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
@@ -5621,7 +5622,7 @@
     </row>
     <row r="12" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A12" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -5637,16 +5638,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
@@ -5658,16 +5659,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -5679,16 +5680,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
@@ -5700,26 +5701,26 @@
         <v>11</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A17" s="66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
@@ -5735,16 +5736,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
@@ -5756,16 +5757,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
@@ -5777,16 +5778,16 @@
         <v>14</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
@@ -5798,16 +5799,16 @@
         <v>15</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
@@ -5819,16 +5820,16 @@
         <v>16</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -5840,16 +5841,16 @@
         <v>17</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
@@ -5861,16 +5862,16 @@
         <v>18</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
@@ -5882,16 +5883,16 @@
         <v>19</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
@@ -5903,16 +5904,16 @@
         <v>20</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
@@ -5924,16 +5925,16 @@
         <v>21</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>114</v>
-      </c>
       <c r="E27" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
@@ -5945,21 +5946,21 @@
         <v>22</v>
       </c>
       <c r="B28" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>114</v>
-      </c>
       <c r="E28" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="37"/>
       <c r="H28" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -5968,16 +5969,16 @@
         <v>23</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="33"/>
@@ -5989,21 +5990,21 @@
         <v>24</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="20" t="s">
         <v>116</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>117</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="24" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -6012,16 +6013,16 @@
         <v>25</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="33"/>
@@ -6033,21 +6034,21 @@
         <v>26</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
       <c r="H32" s="38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -6056,21 +6057,21 @@
         <v>27</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="36" t="s">
         <v>133</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" s="36" t="s">
-        <v>135</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
       <c r="H33" s="38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -6079,21 +6080,21 @@
         <v>28</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="36" t="s">
         <v>132</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="36" t="s">
-        <v>134</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
       <c r="H34" s="38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="19.5" thickBot="1">
@@ -6102,21 +6103,21 @@
         <v>29</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="11.25" customHeight="1"/>
@@ -6128,23 +6129,23 @@
     <mergeCell ref="A17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F5:F11 F18:F19 F27:F35">
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+  <conditionalFormatting sqref="F5:F11">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F16">
-    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F26">
+  <conditionalFormatting sqref="F18:F35">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"―"</formula>
     </cfRule>
@@ -6159,7 +6160,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A3975C19-33D2-4592-8E50-2753B0EDC3A7}">
           <x14:formula1>
-            <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
+            <xm:f>実施結果報告書!$M$1:$M$5</xm:f>
           </x14:formula1>
           <xm:sqref>F5:F11 F13:F16 F18:F35</xm:sqref>
         </x14:dataValidation>
@@ -6190,17 +6191,17 @@
   <sheetData>
     <row r="2" spans="2:76" ht="15" customHeight="1">
       <c r="B2" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:76" ht="15" customHeight="1">
       <c r="B3" s="90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="73"/>
       <c r="D3" s="74"/>
       <c r="E3" s="90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" s="73"/>
       <c r="G3" s="73"/>
@@ -6210,82 +6211,82 @@
       <c r="K3" s="73"/>
       <c r="L3" s="73"/>
       <c r="M3" s="85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N3" s="86"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="87"/>
       <c r="R3" s="91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S3" s="86"/>
       <c r="T3" s="86"/>
       <c r="U3" s="86"/>
       <c r="V3" s="87"/>
       <c r="W3" s="91" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X3" s="86"/>
       <c r="Y3" s="86"/>
       <c r="Z3" s="86"/>
       <c r="AA3" s="87"/>
       <c r="AB3" s="86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC3" s="86"/>
       <c r="AD3" s="86"/>
       <c r="AE3" s="86"/>
       <c r="AF3" s="86"/>
       <c r="AG3" s="84" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH3" s="71"/>
       <c r="AI3" s="71"/>
       <c r="AJ3" s="71"/>
       <c r="AK3" s="72"/>
       <c r="AL3" s="84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AM3" s="71"/>
       <c r="AN3" s="71"/>
       <c r="AO3" s="71"/>
       <c r="AP3" s="72"/>
       <c r="AQ3" s="84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR3" s="71"/>
       <c r="AS3" s="71"/>
       <c r="AT3" s="71"/>
       <c r="AU3" s="72"/>
       <c r="AV3" s="71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AW3" s="71"/>
       <c r="AX3" s="71"/>
       <c r="AY3" s="71"/>
       <c r="AZ3" s="72"/>
       <c r="BA3" s="85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BB3" s="86"/>
       <c r="BC3" s="86"/>
       <c r="BD3" s="86"/>
       <c r="BE3" s="87"/>
       <c r="BF3" s="88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BG3" s="89"/>
       <c r="BH3" s="89"/>
       <c r="BI3" s="71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BJ3" s="71"/>
       <c r="BK3" s="71"/>
       <c r="BL3" s="71"/>
       <c r="BM3" s="72"/>
       <c r="BN3" s="73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BO3" s="73"/>
       <c r="BP3" s="73"/>
@@ -6300,7 +6301,7 @@
     </row>
     <row r="4" spans="2:76" ht="15" customHeight="1">
       <c r="B4" s="122" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" s="123"/>
       <c r="D4" s="123"/>
@@ -6384,7 +6385,7 @@
       <c r="C5" s="119"/>
       <c r="D5" s="120"/>
       <c r="E5" s="121" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="69"/>
       <c r="G5" s="69"/>
@@ -6439,7 +6440,7 @@
       <c r="BD5" s="81"/>
       <c r="BE5" s="82"/>
       <c r="BF5" s="96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BG5" s="97"/>
       <c r="BH5" s="97"/>
@@ -6467,7 +6468,7 @@
       <c r="C6" s="103"/>
       <c r="D6" s="104"/>
       <c r="E6" s="105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6" s="100"/>
       <c r="G6" s="100"/>
@@ -6522,7 +6523,7 @@
       <c r="BD6" s="93"/>
       <c r="BE6" s="94"/>
       <c r="BF6" s="98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BG6" s="99"/>
       <c r="BH6" s="99"/>
@@ -6550,7 +6551,7 @@
       <c r="C7" s="103"/>
       <c r="D7" s="104"/>
       <c r="E7" s="105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" s="100"/>
       <c r="G7" s="100"/>
@@ -6605,7 +6606,7 @@
       <c r="BD7" s="93"/>
       <c r="BE7" s="94"/>
       <c r="BF7" s="98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BG7" s="99"/>
       <c r="BH7" s="99"/>
@@ -6633,7 +6634,7 @@
       <c r="C8" s="103"/>
       <c r="D8" s="104"/>
       <c r="E8" s="105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="100"/>
       <c r="G8" s="100"/>
@@ -6688,7 +6689,7 @@
       <c r="BD8" s="93"/>
       <c r="BE8" s="94"/>
       <c r="BF8" s="98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BG8" s="99"/>
       <c r="BH8" s="99"/>
@@ -6716,7 +6717,7 @@
       <c r="C9" s="103"/>
       <c r="D9" s="104"/>
       <c r="E9" s="105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="100"/>
       <c r="G9" s="100"/>
@@ -6771,7 +6772,7 @@
       <c r="BD9" s="93"/>
       <c r="BE9" s="94"/>
       <c r="BF9" s="98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BG9" s="99"/>
       <c r="BH9" s="99"/>
@@ -6799,7 +6800,7 @@
       <c r="C10" s="103"/>
       <c r="D10" s="104"/>
       <c r="E10" s="109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="110"/>
       <c r="G10" s="110"/>
@@ -6854,7 +6855,7 @@
       <c r="BD10" s="112"/>
       <c r="BE10" s="113"/>
       <c r="BF10" s="116" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BG10" s="117"/>
       <c r="BH10" s="117"/>
@@ -6877,7 +6878,7 @@
     </row>
     <row r="11" spans="2:76" ht="16.5" customHeight="1">
       <c r="B11" s="125" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="123"/>
       <c r="D11" s="123"/>
@@ -6961,7 +6962,7 @@
       <c r="C12" s="119"/>
       <c r="D12" s="120"/>
       <c r="E12" s="121" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" s="69"/>
       <c r="G12" s="69"/>
@@ -7016,7 +7017,7 @@
       <c r="BD12" s="81"/>
       <c r="BE12" s="82"/>
       <c r="BF12" s="96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BG12" s="97"/>
       <c r="BH12" s="97"/>
@@ -7044,7 +7045,7 @@
       <c r="C13" s="103"/>
       <c r="D13" s="104"/>
       <c r="E13" s="105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13" s="100"/>
       <c r="G13" s="100"/>
@@ -7099,7 +7100,7 @@
       <c r="BD13" s="93"/>
       <c r="BE13" s="94"/>
       <c r="BF13" s="98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BG13" s="99"/>
       <c r="BH13" s="99"/>
@@ -7127,7 +7128,7 @@
       <c r="C14" s="103"/>
       <c r="D14" s="104"/>
       <c r="E14" s="105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F14" s="100"/>
       <c r="G14" s="100"/>
@@ -7182,7 +7183,7 @@
       <c r="BD14" s="93"/>
       <c r="BE14" s="94"/>
       <c r="BF14" s="98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BG14" s="99"/>
       <c r="BH14" s="99"/>
@@ -7210,7 +7211,7 @@
       <c r="C15" s="103"/>
       <c r="D15" s="104"/>
       <c r="E15" s="105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="100"/>
       <c r="G15" s="100"/>
@@ -7265,7 +7266,7 @@
       <c r="BD15" s="93"/>
       <c r="BE15" s="94"/>
       <c r="BF15" s="98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BG15" s="99"/>
       <c r="BH15" s="99"/>
@@ -7293,7 +7294,7 @@
       <c r="C16" s="103"/>
       <c r="D16" s="104"/>
       <c r="E16" s="105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="100"/>
       <c r="G16" s="100"/>
@@ -7348,7 +7349,7 @@
       <c r="BD16" s="93"/>
       <c r="BE16" s="94"/>
       <c r="BF16" s="98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BG16" s="99"/>
       <c r="BH16" s="99"/>
@@ -7376,7 +7377,7 @@
       <c r="C17" s="103"/>
       <c r="D17" s="104"/>
       <c r="E17" s="109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="110"/>
       <c r="G17" s="110"/>
@@ -7431,7 +7432,7 @@
       <c r="BD17" s="112"/>
       <c r="BE17" s="113"/>
       <c r="BF17" s="116" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BG17" s="117"/>
       <c r="BH17" s="117"/>
@@ -7454,19 +7455,19 @@
     </row>
     <row r="18" spans="2:76" ht="16.5">
       <c r="B18" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
     </row>
     <row r="19" spans="2:76" ht="16.5">
       <c r="I19" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="2:76" ht="16.5">
       <c r="I20" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="2:76" ht="9" customHeight="1"/>
@@ -7677,7 +7678,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EDE58D5F-9890-4395-BC0A-71DFCB4A617B}">
           <x14:formula1>
-            <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
+            <xm:f>実施結果報告書!$M$1:$M$5</xm:f>
           </x14:formula1>
           <xm:sqref>BI12:BM17 M5:BE10 BI5:BM10 M12:BE17</xm:sqref>
         </x14:dataValidation>
